--- a/Elements.xlsx
+++ b/Elements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="505">
   <si>
     <t>Fl</t>
   </si>
@@ -135,6 +135,20 @@
   <si>
     <r>
       <t>4.002602(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20.1797(6)</t>
     </r>
     <r>
       <rPr>
@@ -2274,8 +2288,123 @@
     <t>the Latin 'carbo', meaning charcoal</t>
   </si>
   <si>
-    <r>
-      <t>12.011</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Greek 'nitron' and 'genes' meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>nitre-forming</t>
+    </r>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Greek 'oxy' and 'genes' meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>acid-forming</t>
+    </r>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fluorine</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Latin 'fluere', meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>to flow</t>
+    </r>
+  </si>
+  <si>
+    <t>18.9984032(5)</t>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
+    <t>Neon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Greek 'neos', meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>new</t>
+    </r>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the English word </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>soda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>natrium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t xml:space="preserve"> in Latin)</t>
     </r>
     <r>
       <rPr>
@@ -2283,14 +2412,93 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>22.98976928(2)</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Magnesia, a district of Eastern Thessaly in Greece</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Latin name for alum, 'alumen' meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>bitter salt</t>
+    </r>
+  </si>
+  <si>
+    <t>26.9815386(8)</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Latin 'silex' or 'silicis', meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>flint</t>
+    </r>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the Greek 'phosphoros', meaning </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>bringer of light</t>
+    </r>
+  </si>
+  <si>
+    <t>30.973762(2)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <r>
+      <t>Either from the Sanskrit 'sulvere', or the Latin 'sulfurium', both names for sulfur</t>
     </r>
     <r>
       <rPr>
@@ -2298,429 +2506,7 @@
         <sz val="10"/>
         <rFont val="Verdana"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the Greek 'nitron' and 'genes' meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>nitre-forming</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14.007</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the Greek 'oxy' and 'genes' meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>acid-forming</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15.999</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Fluorine</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the Latin 'fluere', meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>to flow</t>
-    </r>
-  </si>
-  <si>
-    <t>18.9984032(5)</t>
-  </si>
-  <si>
-    <t>Ne</t>
-  </si>
-  <si>
-    <t>Neon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the Greek 'neos', meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>new</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>20.1797(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>Na</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the English word </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>soda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>natrium</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> in Latin)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
       <t>[2]</t>
-    </r>
-  </si>
-  <si>
-    <t>22.98976928(2)</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Magnesia, a district of Eastern Thessaly in Greece</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the Latin name for alum, 'alumen' meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>bitter salt</t>
-    </r>
-  </si>
-  <si>
-    <t>26.9815386(8)</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Silicon</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the Latin 'silex' or 'silicis', meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>flint</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>28.085</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Phosphorus</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the Greek 'phosphoros', meaning </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>bringer of light</t>
-    </r>
-  </si>
-  <si>
-    <t>30.973762(2)</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Sulfur</t>
-  </si>
-  <si>
-    <r>
-      <t>Either from the Sanskrit 'sulvere', or the Latin 'sulfurium', both names for sulfur</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>[2]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>32.06</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>9</t>
     </r>
   </si>
   <si>
@@ -3219,51 +3005,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:13" ht="26">
       <c r="A1" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15">
@@ -3274,23 +3060,23 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="78">
@@ -3298,13 +3084,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -3339,13 +3125,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E4" s="3">
         <v>18</v>
@@ -3369,7 +3155,7 @@
         <v>5.1929999999999996</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M4" s="3">
         <v>8.0000000000000002E-3</v>
@@ -3380,13 +3166,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -3421,13 +3207,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -3436,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H6" s="3">
         <v>1.85</v>
@@ -3462,13 +3248,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E7" s="3">
         <v>13</v>
@@ -3503,13 +3289,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E8" s="3">
         <v>14</v>
@@ -3517,8 +3303,8 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>468</v>
+      <c r="G8" s="3">
+        <v>12.010999999999999</v>
       </c>
       <c r="H8" s="3">
         <v>2.2669999999999999</v>
@@ -3558,8 +3344,8 @@
       <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>472</v>
+      <c r="G9" s="3">
+        <v>14.007</v>
       </c>
       <c r="H9" s="3">
         <v>1.2505999999999999E-3</v>
@@ -3585,13 +3371,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="E10" s="3">
         <v>16</v>
@@ -3599,8 +3385,8 @@
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>476</v>
+      <c r="G10" s="3">
+        <v>15.999000000000001</v>
       </c>
       <c r="H10" s="3">
         <v>1.4289999999999999E-3</v>
@@ -3626,13 +3412,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="E11" s="3">
         <v>17</v>
@@ -3641,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H11" s="3">
         <v>1.696E-3</v>
@@ -3667,13 +3453,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="E12" s="3">
         <v>18</v>
@@ -3682,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>484</v>
+        <v>30</v>
       </c>
       <c r="H12" s="3">
         <v>8.9990000000000003E-4</v>
@@ -3697,7 +3483,7 @@
         <v>1.03</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M12" s="3">
         <v>5.0000000000000001E-3</v>
@@ -3708,13 +3494,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -3723,7 +3509,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H13" s="3">
         <v>0.97099999999999997</v>
@@ -3749,13 +3535,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -3763,8 +3549,8 @@
       <c r="F14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="5">
-        <v>24.305900000000001</v>
+      <c r="G14">
+        <v>24.305</v>
       </c>
       <c r="H14" s="3">
         <v>1.738</v>
@@ -3790,13 +3576,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
@@ -3805,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H15" s="3">
         <v>2.698</v>
@@ -3831,13 +3617,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -3845,8 +3631,8 @@
       <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>499</v>
+      <c r="G16" s="3">
+        <v>28.085000000000001</v>
       </c>
       <c r="H16" s="3">
         <v>2.3296000000000001</v>
@@ -3872,13 +3658,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E17" s="3">
         <v>15</v>
@@ -3887,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H17" s="3">
         <v>1.82</v>
@@ -3913,13 +3699,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E18" s="3">
         <v>16</v>
@@ -3927,8 +3713,8 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>507</v>
+      <c r="G18" s="3">
+        <v>32.06</v>
       </c>
       <c r="H18" s="3">
         <v>2.0670000000000002</v>
@@ -3954,13 +3740,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E19" s="3">
         <v>17</v>
@@ -3969,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H19" s="3">
         <v>3.2139999999999998E-3</v>
@@ -3995,13 +3781,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E20" s="3">
         <v>18</v>
@@ -4010,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H20" s="3">
         <v>1.7837E-3</v>
@@ -4025,7 +3811,7 @@
         <v>0.52</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M20" s="3">
         <v>3.5</v>
@@ -4036,13 +3822,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -4051,7 +3837,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H21" s="3">
         <v>0.86199999999999999</v>
@@ -4077,13 +3863,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -4092,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H22" s="3">
         <v>1.54</v>
@@ -4118,13 +3904,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E23" s="3">
         <v>3</v>
@@ -4133,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H23" s="3">
         <v>2.9889999999999999</v>
@@ -4159,13 +3945,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E24" s="3">
         <v>4</v>
@@ -4174,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H24" s="3">
         <v>4.54</v>
@@ -4200,13 +3986,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -4215,7 +4001,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H25" s="3">
         <v>6.11</v>
@@ -4241,13 +4027,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E26" s="3">
         <v>6</v>
@@ -4256,7 +4042,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H26" s="3">
         <v>7.15</v>
@@ -4282,13 +4068,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E27" s="3">
         <v>7</v>
@@ -4297,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H27" s="3">
         <v>7.44</v>
@@ -4323,13 +4109,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E28" s="3">
         <v>8</v>
@@ -4338,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H28" s="3">
         <v>7.8739999999999997</v>
@@ -4364,13 +4150,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E29" s="3">
         <v>9</v>
@@ -4379,7 +4165,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H29" s="3">
         <v>8.86</v>
@@ -4405,13 +4191,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E30" s="3">
         <v>10</v>
@@ -4420,7 +4206,7 @@
         <v>4</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H30" s="3">
         <v>8.9120000000000008</v>
@@ -4446,13 +4232,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E31" s="3">
         <v>11</v>
@@ -4461,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H31" s="3">
         <v>8.9600000000000009</v>
@@ -4487,13 +4273,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E32" s="3">
         <v>12</v>
@@ -4502,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H32" s="3">
         <v>7.1340000000000003</v>
@@ -4528,13 +4314,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E33" s="3">
         <v>13</v>
@@ -4543,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H33" s="3">
         <v>5.907</v>
@@ -4569,13 +4355,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E34" s="3">
         <v>14</v>
@@ -4584,7 +4370,7 @@
         <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H34" s="3">
         <v>5.3230000000000004</v>
@@ -4610,13 +4396,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E35" s="3">
         <v>15</v>
@@ -4625,13 +4411,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H35" s="3">
         <v>5.7759999999999998</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J35" s="3">
         <v>887</v>
@@ -4651,13 +4437,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E36" s="3">
         <v>16</v>
@@ -4666,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H36" s="3">
         <v>4.8090000000000002</v>
@@ -4692,13 +4478,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E37" s="3">
         <v>17</v>
@@ -4733,13 +4519,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E38" s="3">
         <v>18</v>
@@ -4748,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H38" s="3">
         <v>3.7330000000000002E-3</v>
@@ -4766,7 +4552,7 @@
         <v>3</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="52">
@@ -4774,13 +4560,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -4789,7 +4575,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H39" s="3">
         <v>1.532</v>
@@ -4815,13 +4601,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
@@ -4830,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H40" s="3">
         <v>2.64</v>
@@ -4856,13 +4642,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E41" s="3">
         <v>3</v>
@@ -4871,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H41" s="3">
         <v>4.4690000000000003</v>
@@ -4897,13 +4683,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E42" s="3">
         <v>4</v>
@@ -4912,7 +4698,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H42" s="3">
         <v>6.5060000000000002</v>
@@ -4938,13 +4724,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E43" s="3">
         <v>5</v>
@@ -4953,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H43" s="3">
         <v>8.57</v>
@@ -4979,13 +4765,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E44" s="3">
         <v>6</v>
@@ -4994,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H44" s="3">
         <v>10.220000000000001</v>
@@ -5020,13 +4806,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E45" s="3">
         <v>7</v>
@@ -5035,7 +4821,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H45" s="3">
         <v>11.5</v>
@@ -5047,13 +4833,13 @@
         <v>4538</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L45" s="3">
         <v>1.9</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="52">
@@ -5061,13 +4847,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E46" s="3">
         <v>8</v>
@@ -5076,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H46" s="3">
         <v>12.37</v>
@@ -5102,13 +4888,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E47" s="3">
         <v>9</v>
@@ -5117,7 +4903,7 @@
         <v>5</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H47" s="3">
         <v>12.41</v>
@@ -5143,13 +4929,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E48" s="3">
         <v>10</v>
@@ -5158,7 +4944,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H48" s="3">
         <v>12.02</v>
@@ -5184,13 +4970,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E49" s="3">
         <v>11</v>
@@ -5199,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H49" s="3">
         <v>10.500999999999999</v>
@@ -5225,13 +5011,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E50" s="3">
         <v>12</v>
@@ -5240,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H50" s="3">
         <v>8.69</v>
@@ -5266,13 +5052,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E51" s="3">
         <v>13</v>
@@ -5281,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H51" s="3">
         <v>7.31</v>
@@ -5307,13 +5093,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E52" s="3">
         <v>14</v>
@@ -5322,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H52" s="3">
         <v>7.2869999999999999</v>
@@ -5348,13 +5134,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E53" s="3">
         <v>15</v>
@@ -5363,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H53" s="3">
         <v>6.6849999999999996</v>
@@ -5389,13 +5175,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E54" s="3">
         <v>16</v>
@@ -5404,7 +5190,7 @@
         <v>5</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H54" s="3">
         <v>6.2320000000000002</v>
@@ -5430,13 +5216,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E55" s="3">
         <v>17</v>
@@ -5445,7 +5231,7 @@
         <v>5</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H55" s="3">
         <v>4.93</v>
@@ -5471,13 +5257,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E56" s="3">
         <v>18</v>
@@ -5486,7 +5272,7 @@
         <v>5</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H56" s="3">
         <v>5.8869999999999999E-3</v>
@@ -5504,7 +5290,7 @@
         <v>2.6</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="52">
@@ -5512,13 +5298,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -5527,7 +5313,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H57" s="3">
         <v>1.873</v>
@@ -5553,13 +5339,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E58" s="3">
         <v>2</v>
@@ -5568,7 +5354,7 @@
         <v>6</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H58" s="3">
         <v>3.5939999999999999</v>
@@ -5594,20 +5380,20 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3">
         <v>6</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H59" s="3">
         <v>6.1449999999999996</v>
@@ -5633,20 +5419,20 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3">
         <v>6</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H60" s="3">
         <v>6.77</v>
@@ -5672,20 +5458,20 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3">
         <v>6</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H61" s="3">
         <v>6.7729999999999997</v>
@@ -5711,20 +5497,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3">
         <v>6</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H62" s="3">
         <v>7.0069999999999997</v>
@@ -5750,20 +5536,20 @@
         <v>61</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3">
         <v>6</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H63" s="3">
         <v>7.26</v>
@@ -5775,13 +5561,13 @@
         <v>3273</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L63" s="3">
         <v>1.1299999999999999</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="78">
@@ -5789,20 +5575,20 @@
         <v>62</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3">
         <v>6</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H64" s="3">
         <v>7.52</v>
@@ -5828,20 +5614,20 @@
         <v>63</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3">
         <v>6</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H65" s="3">
         <v>5.2430000000000003</v>
@@ -5867,20 +5653,20 @@
         <v>64</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3">
         <v>6</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H66" s="3">
         <v>7.8949999999999996</v>
@@ -5906,20 +5692,20 @@
         <v>65</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3">
         <v>6</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H67" s="3">
         <v>8.2289999999999992</v>
@@ -5945,20 +5731,20 @@
         <v>66</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3">
         <v>6</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H68" s="3">
         <v>8.5500000000000007</v>
@@ -5984,20 +5770,20 @@
         <v>67</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3">
         <v>6</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H69" s="3">
         <v>8.7949999999999999</v>
@@ -6023,20 +5809,20 @@
         <v>68</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3">
         <v>6</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H70" s="3">
         <v>9.0660000000000007</v>
@@ -6062,20 +5848,20 @@
         <v>69</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3">
         <v>6</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H71" s="3">
         <v>9.3209999999999997</v>
@@ -6101,20 +5887,20 @@
         <v>70</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3">
         <v>6</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H72" s="3">
         <v>6.9649999999999999</v>
@@ -6140,13 +5926,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
@@ -6155,7 +5941,7 @@
         <v>6</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H73" s="3">
         <v>9.84</v>
@@ -6181,13 +5967,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E74" s="3">
         <v>4</v>
@@ -6196,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H74" s="3">
         <v>13.31</v>
@@ -6222,13 +6008,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E75" s="3">
         <v>5</v>
@@ -6237,7 +6023,7 @@
         <v>6</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H75" s="3">
         <v>16.654</v>
@@ -6263,13 +6049,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E76" s="3">
         <v>6</v>
@@ -6278,7 +6064,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H76" s="3">
         <v>19.25</v>
@@ -6304,13 +6090,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E77" s="3">
         <v>7</v>
@@ -6319,7 +6105,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H77" s="3">
         <v>21.02</v>
@@ -6337,7 +6123,7 @@
         <v>1.9</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="52">
@@ -6345,13 +6131,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E78" s="3">
         <v>8</v>
@@ -6360,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H78" s="3">
         <v>22.61</v>
@@ -6386,13 +6172,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E79" s="3">
         <v>9</v>
@@ -6401,7 +6187,7 @@
         <v>6</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H79" s="3">
         <v>22.56</v>
@@ -6427,13 +6213,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E80" s="3">
         <v>10</v>
@@ -6442,7 +6228,7 @@
         <v>6</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H80" s="3">
         <v>21.46</v>
@@ -6468,13 +6254,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E81" s="3">
         <v>11</v>
@@ -6483,7 +6269,7 @@
         <v>6</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H81" s="3">
         <v>19.282</v>
@@ -6509,13 +6295,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E82" s="3">
         <v>12</v>
@@ -6524,7 +6310,7 @@
         <v>6</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H82" s="3">
         <v>13.5336</v>
@@ -6550,13 +6336,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E83" s="3">
         <v>13</v>
@@ -6591,13 +6377,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E84" s="3">
         <v>14</v>
@@ -6606,7 +6392,7 @@
         <v>6</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H84" s="3">
         <v>11.342000000000001</v>
@@ -6632,13 +6418,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E85" s="3">
         <v>15</v>
@@ -6647,7 +6433,7 @@
         <v>6</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H85" s="3">
         <v>9.8070000000000004</v>
@@ -6673,13 +6459,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E86" s="3">
         <v>16</v>
@@ -6688,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H86" s="3">
         <v>9.32</v>
@@ -6700,13 +6486,13 @@
         <v>1235</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L86" s="3">
         <v>2</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="52">
@@ -6714,13 +6500,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" s="3">
         <v>17</v>
@@ -6729,7 +6515,7 @@
         <v>6</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H87" s="3">
         <v>7</v>
@@ -6741,13 +6527,13 @@
         <v>610</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L87" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="117">
@@ -6755,13 +6541,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E88" s="3">
         <v>18</v>
@@ -6770,7 +6556,7 @@
         <v>6</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H88" s="3">
         <v>9.7300000000000008E-3</v>
@@ -6788,7 +6574,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="52">
@@ -6796,13 +6582,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
@@ -6811,7 +6597,7 @@
         <v>7</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H89" s="3">
         <v>1.87</v>
@@ -6823,13 +6609,13 @@
         <v>950</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L89" s="3">
         <v>0.7</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="39">
@@ -6837,13 +6623,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
@@ -6852,7 +6638,7 @@
         <v>7</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H90" s="3">
         <v>5.5</v>
@@ -6870,7 +6656,7 @@
         <v>0.9</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="52">
@@ -6878,20 +6664,20 @@
         <v>89</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3">
         <v>7</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H91" s="3">
         <v>10.07</v>
@@ -6909,7 +6695,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="52">
@@ -6917,20 +6703,20 @@
         <v>90</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3">
         <v>7</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H92" s="3">
         <v>11.72</v>
@@ -6956,20 +6742,20 @@
         <v>91</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3">
         <v>7</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H93" s="3">
         <v>15.37</v>
@@ -6981,13 +6767,13 @@
         <v>4300</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L93" s="3">
         <v>1.5</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="52">
@@ -6995,20 +6781,20 @@
         <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3">
         <v>7</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H94" s="3">
         <v>18.95</v>
@@ -7034,20 +6820,20 @@
         <v>93</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3">
         <v>7</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H95" s="3">
         <v>20.45</v>
@@ -7059,13 +6845,13 @@
         <v>4273</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L95" s="3">
         <v>1.36</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="52">
@@ -7073,20 +6859,20 @@
         <v>94</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3">
         <v>7</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H96" s="3">
         <v>19.84</v>
@@ -7098,13 +6884,13 @@
         <v>3501</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L96" s="3">
         <v>1.28</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="78">
@@ -7112,20 +6898,20 @@
         <v>95</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3">
         <v>7</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H97" s="3">
         <v>13.69</v>
@@ -7137,13 +6923,13 @@
         <v>2880</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L97" s="3">
         <v>1.1299999999999999</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="78">
@@ -7151,20 +6937,20 @@
         <v>96</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3">
         <v>7</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H98" s="3">
         <v>13.51</v>
@@ -7176,13 +6962,13 @@
         <v>3383</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L98" s="3">
         <v>1.28</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="78">
@@ -7190,20 +6976,20 @@
         <v>97</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3">
         <v>7</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H99" s="3">
         <v>14.79</v>
@@ -7215,13 +7001,13 @@
         <v>2900</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L99" s="3">
         <v>1.3</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="78">
@@ -7229,20 +7015,20 @@
         <v>98</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3">
         <v>7</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H100" s="3">
         <v>15.1</v>
@@ -7251,16 +7037,16 @@
         <v>1173</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L100" s="3">
         <v>1.3</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="39">
@@ -7268,20 +7054,20 @@
         <v>99</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3">
         <v>7</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H101" s="3">
         <v>8.84</v>
@@ -7290,16 +7076,16 @@
         <v>1133</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L101" s="3">
         <v>1.3</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="26">
@@ -7307,38 +7093,38 @@
         <v>100</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3">
         <v>7</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L102" s="3">
         <v>1.3</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="52">
@@ -7346,38 +7132,38 @@
         <v>101</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3">
         <v>7</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L103" s="3">
         <v>1.3</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="104">
@@ -7385,38 +7171,38 @@
         <v>102</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3">
         <v>7</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L104" s="3">
         <v>1.3</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="39">
@@ -7424,13 +7210,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E105" s="3">
         <v>3</v>
@@ -7439,25 +7225,25 @@
         <v>7</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L105" s="3">
         <v>1.3</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="52">
@@ -7465,13 +7251,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E106" s="3">
         <v>4</v>
@@ -7480,25 +7266,25 @@
         <v>7</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="26">
@@ -7506,13 +7292,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E107" s="3">
         <v>5</v>
@@ -7521,25 +7307,25 @@
         <v>7</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="39">
@@ -7547,13 +7333,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E108" s="3">
         <v>6</v>
@@ -7562,25 +7348,25 @@
         <v>7</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="26">
@@ -7588,13 +7374,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E109" s="3">
         <v>7</v>
@@ -7603,25 +7389,25 @@
         <v>7</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="78">
@@ -7629,13 +7415,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E110" s="3">
         <v>8</v>
@@ -7644,25 +7430,25 @@
         <v>7</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="26">
@@ -7670,13 +7456,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E111" s="3">
         <v>9</v>
@@ -7685,25 +7471,25 @@
         <v>7</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="78">
@@ -7711,13 +7497,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E112" s="3">
         <v>10</v>
@@ -7726,25 +7512,25 @@
         <v>7</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="52">
@@ -7752,13 +7538,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E113" s="3">
         <v>11</v>
@@ -7767,25 +7553,25 @@
         <v>7</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M113" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="39">
@@ -7793,13 +7579,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E114" s="3">
         <v>12</v>
@@ -7808,25 +7594,25 @@
         <v>7</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="52">
@@ -7834,13 +7620,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E115" s="3">
         <v>13</v>
@@ -7849,25 +7635,25 @@
         <v>7</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="39">
@@ -7902,13 +7688,13 @@
         <v>6</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="52">
@@ -7922,7 +7708,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E117" s="3">
         <v>15</v>
@@ -7937,19 +7723,19 @@
         <v>10</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="143">
@@ -7984,13 +7770,13 @@
         <v>17</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="52">
@@ -8004,7 +7790,7 @@
         <v>19</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E119" s="3">
         <v>17</v>
@@ -8025,13 +7811,13 @@
         <v>23</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="52">
@@ -8045,7 +7831,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E120" s="3">
         <v>18</v>
@@ -8066,17 +7852,16 @@
         <v>28</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="7">
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
@@ -8118,281 +7903,280 @@
     <hyperlink ref="C12" r:id="rId28" tooltip="Neon"/>
     <hyperlink ref="C13" r:id="rId29" tooltip="Sodium"/>
     <hyperlink ref="C14" r:id="rId30" tooltip="Magnesium"/>
-    <hyperlink ref="G14" r:id="rId31" location="endnote_9" display="https://en.wikipedia.org/wiki/List_of_elements - endnote_9"/>
-    <hyperlink ref="C15" r:id="rId32" tooltip="Aluminium"/>
-    <hyperlink ref="C16" r:id="rId33" tooltip="Silicon"/>
-    <hyperlink ref="C17" r:id="rId34" tooltip="Phosphorus"/>
-    <hyperlink ref="C18" r:id="rId35" tooltip="Sulfur"/>
-    <hyperlink ref="C19" r:id="rId36" tooltip="Chlorine"/>
-    <hyperlink ref="C20" r:id="rId37" tooltip="Argon"/>
-    <hyperlink ref="C21" r:id="rId38" tooltip="Potassium"/>
-    <hyperlink ref="D21" r:id="rId39" location="cite_note-innvista-2"/>
-    <hyperlink ref="C22" r:id="rId40" tooltip="Calcium"/>
-    <hyperlink ref="G22" r:id="rId41" location="endnote_2"/>
-    <hyperlink ref="C23" r:id="rId42" tooltip="Scandium"/>
-    <hyperlink ref="D23" r:id="rId43" tooltip="Scandinavia"/>
-    <hyperlink ref="C24" r:id="rId44" tooltip="Titanium"/>
-    <hyperlink ref="D24" r:id="rId45" tooltip="Titan (mythology)"/>
-    <hyperlink ref="C25" r:id="rId46" tooltip="Vanadium"/>
-    <hyperlink ref="C26" r:id="rId47" tooltip="Chromium"/>
-    <hyperlink ref="C27" r:id="rId48" tooltip="Manganese"/>
-    <hyperlink ref="C28" r:id="rId49" tooltip="Iron"/>
-    <hyperlink ref="D28" r:id="rId50" tooltip="Anglo-Saxon"/>
-    <hyperlink ref="C29" r:id="rId51" tooltip="Cobalt"/>
-    <hyperlink ref="D29" r:id="rId52" tooltip="German language"/>
-    <hyperlink ref="C30" r:id="rId53" tooltip="Nickel"/>
-    <hyperlink ref="C31" r:id="rId54" tooltip="Copper"/>
-    <hyperlink ref="D31" r:id="rId55" tooltip="Cyprus"/>
-    <hyperlink ref="G31" r:id="rId56" location="endnote_4"/>
-    <hyperlink ref="C32" r:id="rId57" tooltip="Zinc"/>
-    <hyperlink ref="D32" r:id="rId58" tooltip="Persian language"/>
-    <hyperlink ref="C33" r:id="rId59" tooltip="Gallium"/>
-    <hyperlink ref="D33" r:id="rId60" tooltip="France"/>
-    <hyperlink ref="C34" r:id="rId61" tooltip="Germanium"/>
-    <hyperlink ref="D34" r:id="rId62" tooltip="Germany"/>
-    <hyperlink ref="C35" r:id="rId63" tooltip="Arsenic"/>
-    <hyperlink ref="D35" r:id="rId64" tooltip="Orpiment"/>
-    <hyperlink ref="I35" r:id="rId65" location="endnote_7"/>
-    <hyperlink ref="C36" r:id="rId66" tooltip="Selenium"/>
-    <hyperlink ref="D36" r:id="rId67" tooltip="Moon"/>
-    <hyperlink ref="G36" r:id="rId68" location="endnote_4"/>
-    <hyperlink ref="C37" r:id="rId69" tooltip="Bromine"/>
-    <hyperlink ref="G37" r:id="rId70" location="endnote_9" display="https://en.wikipedia.org/wiki/List_of_elements - endnote_9"/>
-    <hyperlink ref="C38" r:id="rId71" tooltip="Krypton"/>
-    <hyperlink ref="C39" r:id="rId72" tooltip="Rubidium"/>
-    <hyperlink ref="G39" r:id="rId73" location="endnote_2"/>
-    <hyperlink ref="C40" r:id="rId74" tooltip="Strontium"/>
-    <hyperlink ref="C41" r:id="rId75" tooltip="Yttrium"/>
-    <hyperlink ref="C42" r:id="rId76" tooltip="Zirconium"/>
-    <hyperlink ref="G42" r:id="rId77" location="endnote_2"/>
-    <hyperlink ref="C43" r:id="rId78" tooltip="Niobium"/>
-    <hyperlink ref="C44" r:id="rId79" tooltip="Molybdenum"/>
-    <hyperlink ref="G44" r:id="rId80" location="endnote_2"/>
-    <hyperlink ref="C45" r:id="rId81" tooltip="Technetium"/>
-    <hyperlink ref="G45" r:id="rId82" location="endnote_1"/>
-    <hyperlink ref="C46" r:id="rId83" tooltip="Ruthenium"/>
-    <hyperlink ref="D46" r:id="rId84" tooltip="Russia"/>
-    <hyperlink ref="G46" r:id="rId85" location="endnote_2"/>
-    <hyperlink ref="C47" r:id="rId86" tooltip="Rhodium"/>
-    <hyperlink ref="C48" r:id="rId87" tooltip="Palladium"/>
-    <hyperlink ref="D48" r:id="rId88" tooltip="2 Pallas"/>
-    <hyperlink ref="G48" r:id="rId89" location="endnote_2"/>
-    <hyperlink ref="C49" r:id="rId90" tooltip="Silver"/>
-    <hyperlink ref="G49" r:id="rId91" location="endnote_2"/>
-    <hyperlink ref="C50" r:id="rId92" tooltip="Cadmium"/>
-    <hyperlink ref="G50" r:id="rId93" location="endnote_2"/>
-    <hyperlink ref="C51" r:id="rId94" tooltip="Indium"/>
-    <hyperlink ref="C52" r:id="rId95" tooltip="Tin"/>
-    <hyperlink ref="G52" r:id="rId96" location="endnote_2"/>
-    <hyperlink ref="C53" r:id="rId97" tooltip="Antimony"/>
-    <hyperlink ref="G53" r:id="rId98" location="endnote_2"/>
-    <hyperlink ref="C54" r:id="rId99" tooltip="Tellurium"/>
-    <hyperlink ref="G54" r:id="rId100" location="endnote_2"/>
-    <hyperlink ref="C55" r:id="rId101" tooltip="Iodine"/>
-    <hyperlink ref="C56" r:id="rId102" tooltip="Xenon"/>
-    <hyperlink ref="C57" r:id="rId103" tooltip="Caesium"/>
-    <hyperlink ref="C58" r:id="rId104" tooltip="Barium"/>
-    <hyperlink ref="C59" r:id="rId105" tooltip="Lanthanum"/>
-    <hyperlink ref="G59" r:id="rId106" location="endnote_2"/>
-    <hyperlink ref="C60" r:id="rId107" tooltip="Cerium"/>
-    <hyperlink ref="G60" r:id="rId108" location="endnote_2"/>
-    <hyperlink ref="C61" r:id="rId109" tooltip="Praseodymium"/>
-    <hyperlink ref="C62" r:id="rId110" tooltip="Neodymium"/>
-    <hyperlink ref="G62" r:id="rId111" location="endnote_2"/>
-    <hyperlink ref="C63" r:id="rId112" tooltip="Promethium"/>
-    <hyperlink ref="D63" r:id="rId113" tooltip="Prometheus"/>
-    <hyperlink ref="G63" r:id="rId114" location="endnote_1"/>
-    <hyperlink ref="C64" r:id="rId115" tooltip="Samarium"/>
-    <hyperlink ref="D64" r:id="rId116" tooltip="Samarskite"/>
-    <hyperlink ref="G64" r:id="rId117" location="endnote_2"/>
-    <hyperlink ref="C65" r:id="rId118" tooltip="Europium"/>
-    <hyperlink ref="D65" r:id="rId119" tooltip="Europe"/>
-    <hyperlink ref="G65" r:id="rId120" location="endnote_2"/>
-    <hyperlink ref="C66" r:id="rId121" tooltip="Gadolinium"/>
-    <hyperlink ref="D66" r:id="rId122" tooltip="Johan Gadolin"/>
-    <hyperlink ref="G66" r:id="rId123" location="endnote_2"/>
-    <hyperlink ref="C67" r:id="rId124" tooltip="Terbium"/>
-    <hyperlink ref="C68" r:id="rId125" tooltip="Dysprosium"/>
-    <hyperlink ref="G68" r:id="rId126" location="endnote_2"/>
-    <hyperlink ref="C69" r:id="rId127" tooltip="Holmium"/>
-    <hyperlink ref="D69" r:id="rId128" tooltip="Stockholm"/>
-    <hyperlink ref="C70" r:id="rId129" tooltip="Erbium"/>
-    <hyperlink ref="G70" r:id="rId130" location="endnote_2"/>
-    <hyperlink ref="C71" r:id="rId131" tooltip="Thulium"/>
-    <hyperlink ref="D71" r:id="rId132" tooltip="Thule"/>
-    <hyperlink ref="C72" r:id="rId133" tooltip="Ytterbium"/>
-    <hyperlink ref="G72" r:id="rId134" location="endnote_2"/>
-    <hyperlink ref="C73" r:id="rId135" tooltip="Lutetium"/>
-    <hyperlink ref="D73" r:id="rId136" tooltip="Paris"/>
-    <hyperlink ref="G73" r:id="rId137" location="endnote_2"/>
-    <hyperlink ref="C74" r:id="rId138" tooltip="Hafnium"/>
-    <hyperlink ref="D74" r:id="rId139" tooltip="Copenhagen"/>
-    <hyperlink ref="C75" r:id="rId140" tooltip="Tantalum"/>
-    <hyperlink ref="D75" r:id="rId141" tooltip="Tantalus"/>
-    <hyperlink ref="C76" r:id="rId142" tooltip="Tungsten"/>
-    <hyperlink ref="D76" r:id="rId143" location="cite_note-innvista-2"/>
-    <hyperlink ref="C77" r:id="rId144" tooltip="Rhenium"/>
-    <hyperlink ref="C78" r:id="rId145" tooltip="Osmium"/>
-    <hyperlink ref="G78" r:id="rId146" location="endnote_2"/>
-    <hyperlink ref="C79" r:id="rId147" tooltip="Iridium"/>
-    <hyperlink ref="D79" r:id="rId148" tooltip="Iris (mythology)"/>
-    <hyperlink ref="C80" r:id="rId149" tooltip="Platinum"/>
-    <hyperlink ref="D80" r:id="rId150" tooltip="Spanish language"/>
-    <hyperlink ref="C81" r:id="rId151" tooltip="Gold"/>
-    <hyperlink ref="D81" r:id="rId152" location="cite_note-innvista-2"/>
-    <hyperlink ref="C82" r:id="rId153" tooltip="Mercury (element)"/>
-    <hyperlink ref="C83" r:id="rId154" tooltip="Thallium"/>
-    <hyperlink ref="G83" r:id="rId155" location="endnote_9" display="https://en.wikipedia.org/wiki/List_of_elements - endnote_9"/>
-    <hyperlink ref="C84" r:id="rId156" tooltip="Lead"/>
-    <hyperlink ref="D84" r:id="rId157" location="cite_note-innvista-2"/>
-    <hyperlink ref="C85" r:id="rId158" tooltip="Bismuth"/>
-    <hyperlink ref="G85" r:id="rId159" location="endnote_1"/>
-    <hyperlink ref="C86" r:id="rId160" tooltip="Polonium"/>
-    <hyperlink ref="G86" r:id="rId161" location="endnote_1"/>
-    <hyperlink ref="C87" r:id="rId162" tooltip="Astatine"/>
-    <hyperlink ref="G87" r:id="rId163" location="endnote_1"/>
-    <hyperlink ref="C88" r:id="rId164" tooltip="Radon"/>
-    <hyperlink ref="G88" r:id="rId165" location="endnote_1"/>
-    <hyperlink ref="C89" r:id="rId166" tooltip="Francium"/>
-    <hyperlink ref="G89" r:id="rId167" location="endnote_1"/>
-    <hyperlink ref="C90" r:id="rId168" tooltip="Radium"/>
-    <hyperlink ref="G90" r:id="rId169" location="endnote_1"/>
-    <hyperlink ref="C91" r:id="rId170" tooltip="Actinium"/>
-    <hyperlink ref="G91" r:id="rId171" location="endnote_1"/>
-    <hyperlink ref="C92" r:id="rId172" tooltip="Thorium"/>
-    <hyperlink ref="D92" r:id="rId173" tooltip="Thor"/>
-    <hyperlink ref="C93" r:id="rId174" tooltip="Protactinium"/>
-    <hyperlink ref="G93" r:id="rId175" location="endnote_1"/>
-    <hyperlink ref="C94" r:id="rId176" tooltip="Uranium"/>
-    <hyperlink ref="D94" r:id="rId177" tooltip="Uranus"/>
-    <hyperlink ref="G94" r:id="rId178" location="endnote_1"/>
-    <hyperlink ref="C95" r:id="rId179" tooltip="Neptunium"/>
-    <hyperlink ref="D95" r:id="rId180" tooltip="Neptune"/>
-    <hyperlink ref="G95" r:id="rId181" location="endnote_1"/>
-    <hyperlink ref="C96" r:id="rId182" tooltip="Plutonium"/>
-    <hyperlink ref="D96" r:id="rId183" tooltip="Pluto"/>
-    <hyperlink ref="G96" r:id="rId184" location="endnote_1"/>
-    <hyperlink ref="C97" r:id="rId185" tooltip="Americium"/>
-    <hyperlink ref="D97" r:id="rId186" tooltip="Americas"/>
-    <hyperlink ref="G97" r:id="rId187" location="endnote_1"/>
-    <hyperlink ref="C98" r:id="rId188" tooltip="Curium"/>
-    <hyperlink ref="G98" r:id="rId189" location="endnote_1"/>
-    <hyperlink ref="C99" r:id="rId190" tooltip="Berkelium"/>
-    <hyperlink ref="D99" r:id="rId191" tooltip="Berkeley, California"/>
-    <hyperlink ref="G99" r:id="rId192" location="endnote_1"/>
-    <hyperlink ref="C100" r:id="rId193" tooltip="Californium"/>
-    <hyperlink ref="D100" r:id="rId194" tooltip="State of California"/>
-    <hyperlink ref="G100" r:id="rId195" location="endnote_1"/>
-    <hyperlink ref="J100" r:id="rId196" location="endnote_11"/>
-    <hyperlink ref="C101" r:id="rId197" tooltip="Einsteinium"/>
-    <hyperlink ref="D101" r:id="rId198" tooltip="Albert Einstein"/>
-    <hyperlink ref="G101" r:id="rId199" location="endnote_1"/>
-    <hyperlink ref="J101" r:id="rId200" location="endnote_11"/>
-    <hyperlink ref="M101" r:id="rId201" location="endnote_8"/>
-    <hyperlink ref="C102" r:id="rId202" tooltip="Fermium"/>
-    <hyperlink ref="D102" r:id="rId203" tooltip="Enrico Fermi"/>
-    <hyperlink ref="G102" r:id="rId204" location="endnote_1"/>
-    <hyperlink ref="I102" r:id="rId205" location="endnote_11"/>
-    <hyperlink ref="M102" r:id="rId206" location="endnote_8"/>
-    <hyperlink ref="C103" r:id="rId207" tooltip="Mendelevium"/>
-    <hyperlink ref="D103" r:id="rId208" tooltip="Dmitri Mendeleyev"/>
-    <hyperlink ref="G103" r:id="rId209" location="endnote_1"/>
-    <hyperlink ref="I103" r:id="rId210" location="endnote_11"/>
-    <hyperlink ref="M103" r:id="rId211" location="endnote_8"/>
-    <hyperlink ref="C104" r:id="rId212" tooltip="Nobelium"/>
-    <hyperlink ref="D104" r:id="rId213" tooltip="Alfred Nobel"/>
-    <hyperlink ref="G104" r:id="rId214" location="endnote_1"/>
-    <hyperlink ref="I104" r:id="rId215" location="endnote_11"/>
-    <hyperlink ref="M104" r:id="rId216" location="endnote_8"/>
-    <hyperlink ref="C105" r:id="rId217" tooltip="Lawrencium"/>
-    <hyperlink ref="D105" r:id="rId218" tooltip="Ernest O. Lawrence"/>
-    <hyperlink ref="G105" r:id="rId219" location="endnote_1"/>
-    <hyperlink ref="I105" r:id="rId220" location="endnote_11"/>
-    <hyperlink ref="M105" r:id="rId221" location="endnote_8"/>
-    <hyperlink ref="C106" r:id="rId222" tooltip="Rutherfordium"/>
-    <hyperlink ref="D106" r:id="rId223" tooltip="Ernest Rutherford"/>
-    <hyperlink ref="G106" r:id="rId224" location="endnote_1"/>
-    <hyperlink ref="H106" r:id="rId225" location="endnote_11"/>
-    <hyperlink ref="I106" r:id="rId226" location="endnote_11"/>
-    <hyperlink ref="J106" r:id="rId227" location="endnote_11"/>
-    <hyperlink ref="M106" r:id="rId228" location="endnote_8"/>
-    <hyperlink ref="C107" r:id="rId229" tooltip="Dubnium"/>
-    <hyperlink ref="D107" r:id="rId230" tooltip="Dubna"/>
-    <hyperlink ref="G107" r:id="rId231" location="endnote_1"/>
-    <hyperlink ref="H107" r:id="rId232" location="endnote_11"/>
-    <hyperlink ref="M107" r:id="rId233" location="endnote_8"/>
-    <hyperlink ref="C108" r:id="rId234" tooltip="Seaborgium"/>
-    <hyperlink ref="D108" r:id="rId235" tooltip="Glenn T. Seaborg"/>
-    <hyperlink ref="G108" r:id="rId236" location="endnote_1"/>
-    <hyperlink ref="H108" r:id="rId237" location="endnote_11"/>
-    <hyperlink ref="M108" r:id="rId238" location="endnote_8"/>
-    <hyperlink ref="C109" r:id="rId239" tooltip="Bohrium"/>
-    <hyperlink ref="D109" r:id="rId240" tooltip="Niels Bohr"/>
-    <hyperlink ref="G109" r:id="rId241" location="endnote_1"/>
-    <hyperlink ref="H109" r:id="rId242" location="endnote_11"/>
-    <hyperlink ref="M109" r:id="rId243" location="endnote_8"/>
-    <hyperlink ref="C110" r:id="rId244" tooltip="Hassium"/>
-    <hyperlink ref="D110" r:id="rId245" tooltip="Hesse"/>
-    <hyperlink ref="G110" r:id="rId246" location="endnote_1"/>
-    <hyperlink ref="H110" r:id="rId247" location="endnote_11"/>
-    <hyperlink ref="M110" r:id="rId248" location="endnote_8"/>
-    <hyperlink ref="C111" r:id="rId249" tooltip="Meitnerium"/>
-    <hyperlink ref="D111" r:id="rId250" tooltip="Lise Meitner"/>
-    <hyperlink ref="G111" r:id="rId251" location="endnote_1"/>
-    <hyperlink ref="H111" r:id="rId252" location="endnote_11"/>
-    <hyperlink ref="M111" r:id="rId253" location="endnote_8"/>
-    <hyperlink ref="C112" r:id="rId254" tooltip="Darmstadtium"/>
-    <hyperlink ref="D112" r:id="rId255" tooltip="Darmstadt"/>
-    <hyperlink ref="G112" r:id="rId256" location="endnote_1"/>
-    <hyperlink ref="H112" r:id="rId257" location="endnote_11"/>
-    <hyperlink ref="M112" r:id="rId258" location="endnote_8"/>
-    <hyperlink ref="C113" r:id="rId259" tooltip="Roentgenium"/>
-    <hyperlink ref="D113" r:id="rId260" tooltip="Wilhelm Conrad Röntgen"/>
-    <hyperlink ref="G113" r:id="rId261" location="endnote_1"/>
-    <hyperlink ref="H113" r:id="rId262" location="endnote_11"/>
-    <hyperlink ref="M113" r:id="rId263" location="endnote_8"/>
-    <hyperlink ref="C114" r:id="rId264" tooltip="Copernicium"/>
-    <hyperlink ref="D114" r:id="rId265" tooltip="Nicolaus Copernicus"/>
-    <hyperlink ref="G114" r:id="rId266" location="endnote_1"/>
-    <hyperlink ref="H114" r:id="rId267" location="endnote_11"/>
-    <hyperlink ref="J114" r:id="rId268" location="endnote_12"/>
-    <hyperlink ref="M114" r:id="rId269" location="endnote_8"/>
-    <hyperlink ref="C115" r:id="rId270" tooltip="Ununtrium"/>
-    <hyperlink ref="G115" r:id="rId271" location="endnote_1"/>
-    <hyperlink ref="H115" r:id="rId272" location="endnote_11"/>
-    <hyperlink ref="I115" r:id="rId273" location="endnote_11"/>
-    <hyperlink ref="J115" r:id="rId274" location="endnote_11"/>
-    <hyperlink ref="M115" r:id="rId275" location="endnote_8"/>
-    <hyperlink ref="C116" r:id="rId276" tooltip="Flerovium"/>
-    <hyperlink ref="D116" r:id="rId277" tooltip="Georgy Flyorov"/>
-    <hyperlink ref="G116" r:id="rId278" location="endnote_1"/>
-    <hyperlink ref="H116" r:id="rId279" location="endnote_11"/>
-    <hyperlink ref="I116" r:id="rId280" location="endnote_11"/>
-    <hyperlink ref="J116" r:id="rId281" location="endnote_11"/>
-    <hyperlink ref="M116" r:id="rId282" location="endnote_8"/>
-    <hyperlink ref="C117" r:id="rId283" tooltip="Ununpentium"/>
-    <hyperlink ref="G117" r:id="rId284" location="endnote_1"/>
-    <hyperlink ref="H117" r:id="rId285" location="endnote_11"/>
-    <hyperlink ref="I117" r:id="rId286" location="endnote_11"/>
-    <hyperlink ref="J117" r:id="rId287" location="endnote_11"/>
-    <hyperlink ref="M117" r:id="rId288" location="endnote_8"/>
-    <hyperlink ref="C118" r:id="rId289" tooltip="Livermorium"/>
-    <hyperlink ref="G118" r:id="rId290" location="endnote_1"/>
-    <hyperlink ref="H118" r:id="rId291" location="endnote_11"/>
-    <hyperlink ref="I118" r:id="rId292" location="endnote_11"/>
-    <hyperlink ref="J118" r:id="rId293" location="endnote_11"/>
-    <hyperlink ref="M118" r:id="rId294" location="endnote_8"/>
-    <hyperlink ref="C119" r:id="rId295" tooltip="Ununseptium"/>
-    <hyperlink ref="G119" r:id="rId296" location="endnote_1"/>
-    <hyperlink ref="H119" r:id="rId297" location="endnote_11"/>
-    <hyperlink ref="I119" r:id="rId298" location="endnote_11"/>
-    <hyperlink ref="J119" r:id="rId299" location="endnote_11"/>
-    <hyperlink ref="M119" r:id="rId300" location="endnote_8"/>
-    <hyperlink ref="C120" r:id="rId301" tooltip="Ununoctium"/>
-    <hyperlink ref="G120" r:id="rId302" location="endnote_1"/>
-    <hyperlink ref="I120" r:id="rId303" location="endnote_11"/>
-    <hyperlink ref="J120" r:id="rId304" location="endnote_11"/>
-    <hyperlink ref="M120" r:id="rId305" location="endnote_8"/>
+    <hyperlink ref="C15" r:id="rId31" tooltip="Aluminium"/>
+    <hyperlink ref="C16" r:id="rId32" tooltip="Silicon"/>
+    <hyperlink ref="C17" r:id="rId33" tooltip="Phosphorus"/>
+    <hyperlink ref="C18" r:id="rId34" tooltip="Sulfur"/>
+    <hyperlink ref="C19" r:id="rId35" tooltip="Chlorine"/>
+    <hyperlink ref="C20" r:id="rId36" tooltip="Argon"/>
+    <hyperlink ref="C21" r:id="rId37" tooltip="Potassium"/>
+    <hyperlink ref="D21" r:id="rId38" location="cite_note-innvista-2"/>
+    <hyperlink ref="C22" r:id="rId39" tooltip="Calcium"/>
+    <hyperlink ref="G22" r:id="rId40" location="endnote_2"/>
+    <hyperlink ref="C23" r:id="rId41" tooltip="Scandium"/>
+    <hyperlink ref="D23" r:id="rId42" tooltip="Scandinavia"/>
+    <hyperlink ref="C24" r:id="rId43" tooltip="Titanium"/>
+    <hyperlink ref="D24" r:id="rId44" tooltip="Titan (mythology)"/>
+    <hyperlink ref="C25" r:id="rId45" tooltip="Vanadium"/>
+    <hyperlink ref="C26" r:id="rId46" tooltip="Chromium"/>
+    <hyperlink ref="C27" r:id="rId47" tooltip="Manganese"/>
+    <hyperlink ref="C28" r:id="rId48" tooltip="Iron"/>
+    <hyperlink ref="D28" r:id="rId49" tooltip="Anglo-Saxon"/>
+    <hyperlink ref="C29" r:id="rId50" tooltip="Cobalt"/>
+    <hyperlink ref="D29" r:id="rId51" tooltip="German language"/>
+    <hyperlink ref="C30" r:id="rId52" tooltip="Nickel"/>
+    <hyperlink ref="C31" r:id="rId53" tooltip="Copper"/>
+    <hyperlink ref="D31" r:id="rId54" tooltip="Cyprus"/>
+    <hyperlink ref="G31" r:id="rId55" location="endnote_4"/>
+    <hyperlink ref="C32" r:id="rId56" tooltip="Zinc"/>
+    <hyperlink ref="D32" r:id="rId57" tooltip="Persian language"/>
+    <hyperlink ref="C33" r:id="rId58" tooltip="Gallium"/>
+    <hyperlink ref="D33" r:id="rId59" tooltip="France"/>
+    <hyperlink ref="C34" r:id="rId60" tooltip="Germanium"/>
+    <hyperlink ref="D34" r:id="rId61" tooltip="Germany"/>
+    <hyperlink ref="C35" r:id="rId62" tooltip="Arsenic"/>
+    <hyperlink ref="D35" r:id="rId63" tooltip="Orpiment"/>
+    <hyperlink ref="I35" r:id="rId64" location="endnote_7"/>
+    <hyperlink ref="C36" r:id="rId65" tooltip="Selenium"/>
+    <hyperlink ref="D36" r:id="rId66" tooltip="Moon"/>
+    <hyperlink ref="G36" r:id="rId67" location="endnote_4"/>
+    <hyperlink ref="C37" r:id="rId68" tooltip="Bromine"/>
+    <hyperlink ref="G37" r:id="rId69" location="endnote_9" display="https://en.wikipedia.org/wiki/List_of_elements - endnote_9"/>
+    <hyperlink ref="C38" r:id="rId70" tooltip="Krypton"/>
+    <hyperlink ref="C39" r:id="rId71" tooltip="Rubidium"/>
+    <hyperlink ref="G39" r:id="rId72" location="endnote_2"/>
+    <hyperlink ref="C40" r:id="rId73" tooltip="Strontium"/>
+    <hyperlink ref="C41" r:id="rId74" tooltip="Yttrium"/>
+    <hyperlink ref="C42" r:id="rId75" tooltip="Zirconium"/>
+    <hyperlink ref="G42" r:id="rId76" location="endnote_2"/>
+    <hyperlink ref="C43" r:id="rId77" tooltip="Niobium"/>
+    <hyperlink ref="C44" r:id="rId78" tooltip="Molybdenum"/>
+    <hyperlink ref="G44" r:id="rId79" location="endnote_2"/>
+    <hyperlink ref="C45" r:id="rId80" tooltip="Technetium"/>
+    <hyperlink ref="G45" r:id="rId81" location="endnote_1"/>
+    <hyperlink ref="C46" r:id="rId82" tooltip="Ruthenium"/>
+    <hyperlink ref="D46" r:id="rId83" tooltip="Russia"/>
+    <hyperlink ref="G46" r:id="rId84" location="endnote_2"/>
+    <hyperlink ref="C47" r:id="rId85" tooltip="Rhodium"/>
+    <hyperlink ref="C48" r:id="rId86" tooltip="Palladium"/>
+    <hyperlink ref="D48" r:id="rId87" tooltip="2 Pallas"/>
+    <hyperlink ref="G48" r:id="rId88" location="endnote_2"/>
+    <hyperlink ref="C49" r:id="rId89" tooltip="Silver"/>
+    <hyperlink ref="G49" r:id="rId90" location="endnote_2"/>
+    <hyperlink ref="C50" r:id="rId91" tooltip="Cadmium"/>
+    <hyperlink ref="G50" r:id="rId92" location="endnote_2"/>
+    <hyperlink ref="C51" r:id="rId93" tooltip="Indium"/>
+    <hyperlink ref="C52" r:id="rId94" tooltip="Tin"/>
+    <hyperlink ref="G52" r:id="rId95" location="endnote_2"/>
+    <hyperlink ref="C53" r:id="rId96" tooltip="Antimony"/>
+    <hyperlink ref="G53" r:id="rId97" location="endnote_2"/>
+    <hyperlink ref="C54" r:id="rId98" tooltip="Tellurium"/>
+    <hyperlink ref="G54" r:id="rId99" location="endnote_2"/>
+    <hyperlink ref="C55" r:id="rId100" tooltip="Iodine"/>
+    <hyperlink ref="C56" r:id="rId101" tooltip="Xenon"/>
+    <hyperlink ref="C57" r:id="rId102" tooltip="Caesium"/>
+    <hyperlink ref="C58" r:id="rId103" tooltip="Barium"/>
+    <hyperlink ref="C59" r:id="rId104" tooltip="Lanthanum"/>
+    <hyperlink ref="G59" r:id="rId105" location="endnote_2"/>
+    <hyperlink ref="C60" r:id="rId106" tooltip="Cerium"/>
+    <hyperlink ref="G60" r:id="rId107" location="endnote_2"/>
+    <hyperlink ref="C61" r:id="rId108" tooltip="Praseodymium"/>
+    <hyperlink ref="C62" r:id="rId109" tooltip="Neodymium"/>
+    <hyperlink ref="G62" r:id="rId110" location="endnote_2"/>
+    <hyperlink ref="C63" r:id="rId111" tooltip="Promethium"/>
+    <hyperlink ref="D63" r:id="rId112" tooltip="Prometheus"/>
+    <hyperlink ref="G63" r:id="rId113" location="endnote_1"/>
+    <hyperlink ref="C64" r:id="rId114" tooltip="Samarium"/>
+    <hyperlink ref="D64" r:id="rId115" tooltip="Samarskite"/>
+    <hyperlink ref="G64" r:id="rId116" location="endnote_2"/>
+    <hyperlink ref="C65" r:id="rId117" tooltip="Europium"/>
+    <hyperlink ref="D65" r:id="rId118" tooltip="Europe"/>
+    <hyperlink ref="G65" r:id="rId119" location="endnote_2"/>
+    <hyperlink ref="C66" r:id="rId120" tooltip="Gadolinium"/>
+    <hyperlink ref="D66" r:id="rId121" tooltip="Johan Gadolin"/>
+    <hyperlink ref="G66" r:id="rId122" location="endnote_2"/>
+    <hyperlink ref="C67" r:id="rId123" tooltip="Terbium"/>
+    <hyperlink ref="C68" r:id="rId124" tooltip="Dysprosium"/>
+    <hyperlink ref="G68" r:id="rId125" location="endnote_2"/>
+    <hyperlink ref="C69" r:id="rId126" tooltip="Holmium"/>
+    <hyperlink ref="D69" r:id="rId127" tooltip="Stockholm"/>
+    <hyperlink ref="C70" r:id="rId128" tooltip="Erbium"/>
+    <hyperlink ref="G70" r:id="rId129" location="endnote_2"/>
+    <hyperlink ref="C71" r:id="rId130" tooltip="Thulium"/>
+    <hyperlink ref="D71" r:id="rId131" tooltip="Thule"/>
+    <hyperlink ref="C72" r:id="rId132" tooltip="Ytterbium"/>
+    <hyperlink ref="G72" r:id="rId133" location="endnote_2"/>
+    <hyperlink ref="C73" r:id="rId134" tooltip="Lutetium"/>
+    <hyperlink ref="D73" r:id="rId135" tooltip="Paris"/>
+    <hyperlink ref="G73" r:id="rId136" location="endnote_2"/>
+    <hyperlink ref="C74" r:id="rId137" tooltip="Hafnium"/>
+    <hyperlink ref="D74" r:id="rId138" tooltip="Copenhagen"/>
+    <hyperlink ref="C75" r:id="rId139" tooltip="Tantalum"/>
+    <hyperlink ref="D75" r:id="rId140" tooltip="Tantalus"/>
+    <hyperlink ref="C76" r:id="rId141" tooltip="Tungsten"/>
+    <hyperlink ref="D76" r:id="rId142" location="cite_note-innvista-2"/>
+    <hyperlink ref="C77" r:id="rId143" tooltip="Rhenium"/>
+    <hyperlink ref="C78" r:id="rId144" tooltip="Osmium"/>
+    <hyperlink ref="G78" r:id="rId145" location="endnote_2"/>
+    <hyperlink ref="C79" r:id="rId146" tooltip="Iridium"/>
+    <hyperlink ref="D79" r:id="rId147" tooltip="Iris (mythology)"/>
+    <hyperlink ref="C80" r:id="rId148" tooltip="Platinum"/>
+    <hyperlink ref="D80" r:id="rId149" tooltip="Spanish language"/>
+    <hyperlink ref="C81" r:id="rId150" tooltip="Gold"/>
+    <hyperlink ref="D81" r:id="rId151" location="cite_note-innvista-2"/>
+    <hyperlink ref="C82" r:id="rId152" tooltip="Mercury (element)"/>
+    <hyperlink ref="C83" r:id="rId153" tooltip="Thallium"/>
+    <hyperlink ref="G83" r:id="rId154" location="endnote_9" display="https://en.wikipedia.org/wiki/List_of_elements - endnote_9"/>
+    <hyperlink ref="C84" r:id="rId155" tooltip="Lead"/>
+    <hyperlink ref="D84" r:id="rId156" location="cite_note-innvista-2"/>
+    <hyperlink ref="C85" r:id="rId157" tooltip="Bismuth"/>
+    <hyperlink ref="G85" r:id="rId158" location="endnote_1"/>
+    <hyperlink ref="C86" r:id="rId159" tooltip="Polonium"/>
+    <hyperlink ref="G86" r:id="rId160" location="endnote_1"/>
+    <hyperlink ref="C87" r:id="rId161" tooltip="Astatine"/>
+    <hyperlink ref="G87" r:id="rId162" location="endnote_1"/>
+    <hyperlink ref="C88" r:id="rId163" tooltip="Radon"/>
+    <hyperlink ref="G88" r:id="rId164" location="endnote_1"/>
+    <hyperlink ref="C89" r:id="rId165" tooltip="Francium"/>
+    <hyperlink ref="G89" r:id="rId166" location="endnote_1"/>
+    <hyperlink ref="C90" r:id="rId167" tooltip="Radium"/>
+    <hyperlink ref="G90" r:id="rId168" location="endnote_1"/>
+    <hyperlink ref="C91" r:id="rId169" tooltip="Actinium"/>
+    <hyperlink ref="G91" r:id="rId170" location="endnote_1"/>
+    <hyperlink ref="C92" r:id="rId171" tooltip="Thorium"/>
+    <hyperlink ref="D92" r:id="rId172" tooltip="Thor"/>
+    <hyperlink ref="C93" r:id="rId173" tooltip="Protactinium"/>
+    <hyperlink ref="G93" r:id="rId174" location="endnote_1"/>
+    <hyperlink ref="C94" r:id="rId175" tooltip="Uranium"/>
+    <hyperlink ref="D94" r:id="rId176" tooltip="Uranus"/>
+    <hyperlink ref="G94" r:id="rId177" location="endnote_1"/>
+    <hyperlink ref="C95" r:id="rId178" tooltip="Neptunium"/>
+    <hyperlink ref="D95" r:id="rId179" tooltip="Neptune"/>
+    <hyperlink ref="G95" r:id="rId180" location="endnote_1"/>
+    <hyperlink ref="C96" r:id="rId181" tooltip="Plutonium"/>
+    <hyperlink ref="D96" r:id="rId182" tooltip="Pluto"/>
+    <hyperlink ref="G96" r:id="rId183" location="endnote_1"/>
+    <hyperlink ref="C97" r:id="rId184" tooltip="Americium"/>
+    <hyperlink ref="D97" r:id="rId185" tooltip="Americas"/>
+    <hyperlink ref="G97" r:id="rId186" location="endnote_1"/>
+    <hyperlink ref="C98" r:id="rId187" tooltip="Curium"/>
+    <hyperlink ref="G98" r:id="rId188" location="endnote_1"/>
+    <hyperlink ref="C99" r:id="rId189" tooltip="Berkelium"/>
+    <hyperlink ref="D99" r:id="rId190" tooltip="Berkeley, California"/>
+    <hyperlink ref="G99" r:id="rId191" location="endnote_1"/>
+    <hyperlink ref="C100" r:id="rId192" tooltip="Californium"/>
+    <hyperlink ref="D100" r:id="rId193" tooltip="State of California"/>
+    <hyperlink ref="G100" r:id="rId194" location="endnote_1"/>
+    <hyperlink ref="J100" r:id="rId195" location="endnote_11"/>
+    <hyperlink ref="C101" r:id="rId196" tooltip="Einsteinium"/>
+    <hyperlink ref="D101" r:id="rId197" tooltip="Albert Einstein"/>
+    <hyperlink ref="G101" r:id="rId198" location="endnote_1"/>
+    <hyperlink ref="J101" r:id="rId199" location="endnote_11"/>
+    <hyperlink ref="M101" r:id="rId200" location="endnote_8"/>
+    <hyperlink ref="C102" r:id="rId201" tooltip="Fermium"/>
+    <hyperlink ref="D102" r:id="rId202" tooltip="Enrico Fermi"/>
+    <hyperlink ref="G102" r:id="rId203" location="endnote_1"/>
+    <hyperlink ref="I102" r:id="rId204" location="endnote_11"/>
+    <hyperlink ref="M102" r:id="rId205" location="endnote_8"/>
+    <hyperlink ref="C103" r:id="rId206" tooltip="Mendelevium"/>
+    <hyperlink ref="D103" r:id="rId207" tooltip="Dmitri Mendeleyev"/>
+    <hyperlink ref="G103" r:id="rId208" location="endnote_1"/>
+    <hyperlink ref="I103" r:id="rId209" location="endnote_11"/>
+    <hyperlink ref="M103" r:id="rId210" location="endnote_8"/>
+    <hyperlink ref="C104" r:id="rId211" tooltip="Nobelium"/>
+    <hyperlink ref="D104" r:id="rId212" tooltip="Alfred Nobel"/>
+    <hyperlink ref="G104" r:id="rId213" location="endnote_1"/>
+    <hyperlink ref="I104" r:id="rId214" location="endnote_11"/>
+    <hyperlink ref="M104" r:id="rId215" location="endnote_8"/>
+    <hyperlink ref="C105" r:id="rId216" tooltip="Lawrencium"/>
+    <hyperlink ref="D105" r:id="rId217" tooltip="Ernest O. Lawrence"/>
+    <hyperlink ref="G105" r:id="rId218" location="endnote_1"/>
+    <hyperlink ref="I105" r:id="rId219" location="endnote_11"/>
+    <hyperlink ref="M105" r:id="rId220" location="endnote_8"/>
+    <hyperlink ref="C106" r:id="rId221" tooltip="Rutherfordium"/>
+    <hyperlink ref="D106" r:id="rId222" tooltip="Ernest Rutherford"/>
+    <hyperlink ref="G106" r:id="rId223" location="endnote_1"/>
+    <hyperlink ref="H106" r:id="rId224" location="endnote_11"/>
+    <hyperlink ref="I106" r:id="rId225" location="endnote_11"/>
+    <hyperlink ref="J106" r:id="rId226" location="endnote_11"/>
+    <hyperlink ref="M106" r:id="rId227" location="endnote_8"/>
+    <hyperlink ref="C107" r:id="rId228" tooltip="Dubnium"/>
+    <hyperlink ref="D107" r:id="rId229" tooltip="Dubna"/>
+    <hyperlink ref="G107" r:id="rId230" location="endnote_1"/>
+    <hyperlink ref="H107" r:id="rId231" location="endnote_11"/>
+    <hyperlink ref="M107" r:id="rId232" location="endnote_8"/>
+    <hyperlink ref="C108" r:id="rId233" tooltip="Seaborgium"/>
+    <hyperlink ref="D108" r:id="rId234" tooltip="Glenn T. Seaborg"/>
+    <hyperlink ref="G108" r:id="rId235" location="endnote_1"/>
+    <hyperlink ref="H108" r:id="rId236" location="endnote_11"/>
+    <hyperlink ref="M108" r:id="rId237" location="endnote_8"/>
+    <hyperlink ref="C109" r:id="rId238" tooltip="Bohrium"/>
+    <hyperlink ref="D109" r:id="rId239" tooltip="Niels Bohr"/>
+    <hyperlink ref="G109" r:id="rId240" location="endnote_1"/>
+    <hyperlink ref="H109" r:id="rId241" location="endnote_11"/>
+    <hyperlink ref="M109" r:id="rId242" location="endnote_8"/>
+    <hyperlink ref="C110" r:id="rId243" tooltip="Hassium"/>
+    <hyperlink ref="D110" r:id="rId244" tooltip="Hesse"/>
+    <hyperlink ref="G110" r:id="rId245" location="endnote_1"/>
+    <hyperlink ref="H110" r:id="rId246" location="endnote_11"/>
+    <hyperlink ref="M110" r:id="rId247" location="endnote_8"/>
+    <hyperlink ref="C111" r:id="rId248" tooltip="Meitnerium"/>
+    <hyperlink ref="D111" r:id="rId249" tooltip="Lise Meitner"/>
+    <hyperlink ref="G111" r:id="rId250" location="endnote_1"/>
+    <hyperlink ref="H111" r:id="rId251" location="endnote_11"/>
+    <hyperlink ref="M111" r:id="rId252" location="endnote_8"/>
+    <hyperlink ref="C112" r:id="rId253" tooltip="Darmstadtium"/>
+    <hyperlink ref="D112" r:id="rId254" tooltip="Darmstadt"/>
+    <hyperlink ref="G112" r:id="rId255" location="endnote_1"/>
+    <hyperlink ref="H112" r:id="rId256" location="endnote_11"/>
+    <hyperlink ref="M112" r:id="rId257" location="endnote_8"/>
+    <hyperlink ref="C113" r:id="rId258" tooltip="Roentgenium"/>
+    <hyperlink ref="D113" r:id="rId259" tooltip="Wilhelm Conrad Röntgen"/>
+    <hyperlink ref="G113" r:id="rId260" location="endnote_1"/>
+    <hyperlink ref="H113" r:id="rId261" location="endnote_11"/>
+    <hyperlink ref="M113" r:id="rId262" location="endnote_8"/>
+    <hyperlink ref="C114" r:id="rId263" tooltip="Copernicium"/>
+    <hyperlink ref="D114" r:id="rId264" tooltip="Nicolaus Copernicus"/>
+    <hyperlink ref="G114" r:id="rId265" location="endnote_1"/>
+    <hyperlink ref="H114" r:id="rId266" location="endnote_11"/>
+    <hyperlink ref="J114" r:id="rId267" location="endnote_12"/>
+    <hyperlink ref="M114" r:id="rId268" location="endnote_8"/>
+    <hyperlink ref="C115" r:id="rId269" tooltip="Ununtrium"/>
+    <hyperlink ref="G115" r:id="rId270" location="endnote_1"/>
+    <hyperlink ref="H115" r:id="rId271" location="endnote_11"/>
+    <hyperlink ref="I115" r:id="rId272" location="endnote_11"/>
+    <hyperlink ref="J115" r:id="rId273" location="endnote_11"/>
+    <hyperlink ref="M115" r:id="rId274" location="endnote_8"/>
+    <hyperlink ref="C116" r:id="rId275" tooltip="Flerovium"/>
+    <hyperlink ref="D116" r:id="rId276" tooltip="Georgy Flyorov"/>
+    <hyperlink ref="G116" r:id="rId277" location="endnote_1"/>
+    <hyperlink ref="H116" r:id="rId278" location="endnote_11"/>
+    <hyperlink ref="I116" r:id="rId279" location="endnote_11"/>
+    <hyperlink ref="J116" r:id="rId280" location="endnote_11"/>
+    <hyperlink ref="M116" r:id="rId281" location="endnote_8"/>
+    <hyperlink ref="C117" r:id="rId282" tooltip="Ununpentium"/>
+    <hyperlink ref="G117" r:id="rId283" location="endnote_1"/>
+    <hyperlink ref="H117" r:id="rId284" location="endnote_11"/>
+    <hyperlink ref="I117" r:id="rId285" location="endnote_11"/>
+    <hyperlink ref="J117" r:id="rId286" location="endnote_11"/>
+    <hyperlink ref="M117" r:id="rId287" location="endnote_8"/>
+    <hyperlink ref="C118" r:id="rId288" tooltip="Livermorium"/>
+    <hyperlink ref="G118" r:id="rId289" location="endnote_1"/>
+    <hyperlink ref="H118" r:id="rId290" location="endnote_11"/>
+    <hyperlink ref="I118" r:id="rId291" location="endnote_11"/>
+    <hyperlink ref="J118" r:id="rId292" location="endnote_11"/>
+    <hyperlink ref="M118" r:id="rId293" location="endnote_8"/>
+    <hyperlink ref="C119" r:id="rId294" tooltip="Ununseptium"/>
+    <hyperlink ref="G119" r:id="rId295" location="endnote_1"/>
+    <hyperlink ref="H119" r:id="rId296" location="endnote_11"/>
+    <hyperlink ref="I119" r:id="rId297" location="endnote_11"/>
+    <hyperlink ref="J119" r:id="rId298" location="endnote_11"/>
+    <hyperlink ref="M119" r:id="rId299" location="endnote_8"/>
+    <hyperlink ref="C120" r:id="rId300" tooltip="Ununoctium"/>
+    <hyperlink ref="G120" r:id="rId301" location="endnote_1"/>
+    <hyperlink ref="I120" r:id="rId302" location="endnote_11"/>
+    <hyperlink ref="J120" r:id="rId303" location="endnote_11"/>
+    <hyperlink ref="M120" r:id="rId304" location="endnote_8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Elements.xlsx
+++ b/Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25520" yWindow="-520" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="25960" yWindow="3580" windowWidth="25440" windowHeight="10040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="411">
-  <si>
-    <t>Density is est'd</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="411">
   <si>
     <t>Melt</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -42,7 +38,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Melt is est'd</t>
+    <t>atomic_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>atomic_weight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_origin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -50,14 +70,38 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Hyperlink</t>
+    <t>electronegativity</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Atomic wt is mass number of longest-lived isotope</t>
+    <t>Abundance raw</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Atomic_wt_is_mass_number_of_longest_lived_isotope</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>density_is_estimated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>melt_is_estimated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boil_is_estimated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundance_mg_per_kg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>abundance_is_upper_limit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>the German, 'zinc', which may in turn be derived from the Persian word 'sing', meaning stone</t>
   </si>
   <si>
@@ -65,30 +109,6 @@
   </si>
   <si>
     <t>Gallium</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Sym</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Origin of name[1]</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Atomic weight</t>
-  </si>
-  <si>
-    <t>u ()</t>
   </si>
   <si>
     <t>Density</t>
@@ -114,23 +134,6 @@
     <t>J/g·K</t>
   </si>
   <si>
-    <r>
-      <t>Neg</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <t>Abundance</t>
-  </si>
-  <si>
     <t>mg / kg</t>
   </si>
   <si>
@@ -432,10 +435,6 @@
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boil is est'd</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2525,13 +2524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:U120"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="J92" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E2"/>
+      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2541,30 +2540,30 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22" ht="26">
       <c r="A1" s="14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
         <v>80</v>
@@ -2573,88 +2572,83 @@
         <v>81</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="26">
+        <v>13</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="16"/>
-      <c r="R2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2707,19 +2701,26 @@
         <f t="shared" ref="T3:T66" si="1">IF(ISERR(FIND(")11",J3))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="39">
+      <c r="U3">
+        <v>1400</v>
+      </c>
+      <c r="V3">
+        <f>IF(ISERR(FIND("&lt;",P3))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="39">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>18</v>
@@ -2752,7 +2753,7 @@
         <v>4.22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2">
         <v>8.0000000000000002E-3</v>
@@ -2772,19 +2773,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="52">
+      <c r="U4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V67" si="3">IF(ISERR(FIND("&lt;",P4))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="52">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -2837,19 +2845,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="52">
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="52">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2902,19 +2917,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="U6">
+        <v>2.8</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>13</v>
@@ -2967,19 +2989,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>14</v>
@@ -3032,19 +3061,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="65">
+      <c r="U8">
+        <v>200</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="65">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2">
         <v>15</v>
@@ -3097,19 +3133,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="65">
+      <c r="U9">
+        <v>19</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="65">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2">
         <v>16</v>
@@ -3162,19 +3205,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="52">
+      <c r="U10">
+        <v>461000</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="52">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2">
         <v>17</v>
@@ -3227,19 +3277,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="52">
+      <c r="U11">
+        <v>585</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="52">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2">
         <v>18</v>
@@ -3272,7 +3329,7 @@
         <v>27.07</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2">
         <v>5.0000000000000001E-3</v>
@@ -3292,19 +3349,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="54">
+      <c r="U12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="54">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -3357,19 +3421,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="65">
+      <c r="U13">
+        <v>23600</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="65">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -3422,19 +3493,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="78">
+      <c r="U14">
+        <v>23300</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="78">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2">
         <v>13</v>
@@ -3487,19 +3565,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="52">
+      <c r="U15">
+        <v>82300</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="52">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
@@ -3552,19 +3637,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="65">
+      <c r="U16">
+        <v>282000</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="65">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2">
         <v>15</v>
@@ -3617,19 +3709,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="93">
+      <c r="U17">
+        <v>1050</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="93">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2">
         <v>16</v>
@@ -3682,16 +3781,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="65">
+      <c r="U18">
+        <v>350</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="65">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>101</v>
@@ -3747,8 +3853,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="39">
+      <c r="U19">
+        <v>145</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="39">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3792,7 +3905,7 @@
         <v>87.3</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P20" s="2">
         <v>3.5</v>
@@ -3812,13 +3925,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>3.5</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>105</v>
@@ -3877,8 +3997,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="52">
+      <c r="U21">
+        <v>20900</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="52">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3942,8 +4069,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>41500</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -4007,8 +4141,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>22</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -4072,8 +4213,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="78">
+      <c r="U24">
+        <v>5650</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="78">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -4137,8 +4285,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="52">
+      <c r="U25">
+        <v>120</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="52">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -4202,8 +4357,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="143">
+      <c r="U26">
+        <v>102</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="143">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -4267,8 +4429,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>950</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -4332,8 +4501,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>56300</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -4397,8 +4573,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="117">
+      <c r="U29">
+        <v>25</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="117">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -4462,8 +4645,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>84</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -4527,8 +4717,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>60</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4539,7 +4736,7 @@
         <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2">
         <v>12</v>
@@ -4592,16 +4789,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>70</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>171</v>
@@ -4657,8 +4861,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>19</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4722,8 +4933,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>1.5</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4787,8 +5005,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>1.8</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4852,8 +5077,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="52">
+      <c r="U36">
+        <v>0.05</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="52">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4917,8 +5149,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="52">
+      <c r="U37">
+        <v>2.4</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="52">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -4982,8 +5221,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" ht="52">
+      <c r="U38">
+        <v>1E-3</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="52">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -5047,8 +5293,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" ht="39">
+      <c r="U39">
+        <v>90</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="39">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -5112,8 +5365,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" ht="26">
+      <c r="U40">
+        <v>370</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="26">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -5177,8 +5437,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="65">
+      <c r="U41">
+        <v>33</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="65">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -5242,8 +5509,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" ht="65">
+      <c r="U42">
+        <v>165</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="65">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -5307,8 +5581,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" ht="52">
+      <c r="U43">
+        <v>20</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="52">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -5372,8 +5653,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" ht="52">
+      <c r="U44">
+        <v>1.2</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="52">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -5405,7 +5693,7 @@
         <v>4538</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L45" s="2">
         <v>11.5</v>
@@ -5437,8 +5725,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>1E-3</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -5502,8 +5797,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" ht="65">
+      <c r="U46">
+        <v>1E-3</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="65">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -5567,8 +5869,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47">
+        <v>1E-3</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -5632,8 +5941,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="67">
+      <c r="U48">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="67">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -5697,8 +6013,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" ht="65">
+      <c r="U49">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="65">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -5762,8 +6085,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="65">
+      <c r="U50">
+        <v>0.159</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="65">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -5827,8 +6157,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="78">
+      <c r="U51">
+        <v>0.25</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="78">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -5892,8 +6229,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="91">
+      <c r="U52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="91">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -5957,8 +6301,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="78">
+      <c r="U53">
+        <v>0.2</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="78">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -6022,8 +6373,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" ht="52">
+      <c r="U54">
+        <v>1E-3</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="52">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -6087,8 +6445,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="52">
+      <c r="U55">
+        <v>0.45</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="52">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -6152,8 +6517,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="52">
+      <c r="U56">
+        <v>1E-3</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="52">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -6217,8 +6589,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="52">
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="52">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -6282,8 +6661,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="52">
+      <c r="U58">
+        <v>425</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="52">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -6345,8 +6731,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="39">
+      <c r="U59">
+        <v>39</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="39">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -6408,8 +6801,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" ht="65">
+      <c r="U60">
+        <v>66.5</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="65">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -6471,8 +6871,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" ht="65">
+      <c r="U61">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="65">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -6534,8 +6941,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62">
+        <v>41.5</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -6565,7 +6979,7 @@
         <v>3273</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L63" s="2">
         <v>7.26</v>
@@ -6597,8 +7011,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63">
+        <v>1E-3</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -6660,8 +7081,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64">
+        <v>7.05</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -6723,8 +7151,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -6786,8 +7221,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="26">
+      <c r="U66">
+        <v>6.2</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="26">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -6838,19 +7280,26 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R119" si="3">IF(ISERR(FIND(")11",H67))=TRUE,0,1)</f>
+        <f t="shared" ref="R67:R119" si="4">IF(ISERR(FIND(")11",H67))=TRUE,0,1)</f>
         <v>0</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S119" si="4">IF(ISERR(FIND(")11",I67))=TRUE,0,1)</f>
+        <f t="shared" ref="S67:S119" si="5">IF(ISERR(FIND(")11",I67))=TRUE,0,1)</f>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T119" si="5">IF(ISERR(FIND(")11",J67))=TRUE,0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="52">
+        <f t="shared" ref="T67:T119" si="6">IF(ISERR(FIND(")11",J67))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1.2</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="52">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -6901,19 +7350,26 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>5.2</v>
+      </c>
+      <c r="V68">
+        <f t="shared" ref="V68:V120" si="7">IF(ISERR(FIND("&lt;",P68))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -6964,19 +7420,26 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T69">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>1.3</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="26">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -7027,19 +7490,26 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>3.5</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -7090,19 +7560,26 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T71">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0.52</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="26">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -7153,19 +7630,26 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>3.2</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -7218,19 +7702,26 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0.8</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -7283,19 +7774,26 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -7348,19 +7846,26 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>2</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -7413,19 +7918,26 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="169">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>1.3</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="169">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -7478,19 +7990,26 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T77">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U77" t="s">
+        <v>187</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="52">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -7543,19 +8062,26 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>2E-3</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -7608,19 +8134,26 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>1E-3</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -7673,19 +8206,26 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -7738,19 +8278,26 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="143">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="143">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -7803,19 +8350,26 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="52">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -7868,19 +8422,26 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0.85</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -7933,19 +8494,26 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T84">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>14</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="91">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -7998,19 +8566,26 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T85">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="91">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -8042,7 +8617,7 @@
         <v>1235</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L86" s="2">
         <v>9.32</v>
@@ -8063,19 +8638,26 @@
         <v>1</v>
       </c>
       <c r="R86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U86" t="s">
+        <v>187</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="52">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -8107,7 +8689,7 @@
         <v>610</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L87" s="2">
         <v>7</v>
@@ -8128,19 +8710,26 @@
         <v>1</v>
       </c>
       <c r="R87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U87" t="s">
+        <v>187</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="117">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -8193,19 +8782,26 @@
         <v>1</v>
       </c>
       <c r="R88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U88" t="s">
+        <v>187</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="52">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -8237,7 +8833,7 @@
         <v>950</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L89" s="2">
         <v>1.87</v>
@@ -8258,19 +8854,26 @@
         <v>1</v>
       </c>
       <c r="R89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U89" t="s">
+        <v>187</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="39">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -8323,19 +8926,26 @@
         <v>1</v>
       </c>
       <c r="R90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U90" t="s">
+        <v>187</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="52">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -8386,19 +8996,26 @@
         <v>1</v>
       </c>
       <c r="R91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U91" t="s">
+        <v>187</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -8449,19 +9066,26 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T92">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="169">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>9.6</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="169">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -8491,7 +9115,7 @@
         <v>4300</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L93" s="2">
         <v>15.37</v>
@@ -8512,19 +9136,26 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U93" t="s">
+        <v>187</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -8575,19 +9206,26 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T94">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>2.7</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -8617,7 +9255,7 @@
         <v>4273</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L95" s="2">
         <v>20.45</v>
@@ -8638,19 +9276,26 @@
         <v>1</v>
       </c>
       <c r="R95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T95">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
+        <v>187</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -8680,7 +9325,7 @@
         <v>3501</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L96" s="2">
         <v>19.84</v>
@@ -8701,19 +9346,26 @@
         <v>1</v>
       </c>
       <c r="R96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U96" t="s">
+        <v>187</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -8743,7 +9395,7 @@
         <v>2880</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L97" s="2">
         <v>13.69</v>
@@ -8764,19 +9416,26 @@
         <v>1</v>
       </c>
       <c r="R97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T97">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U97" t="s">
+        <v>187</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="78">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -8806,7 +9465,7 @@
         <v>3383</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L98" s="2">
         <v>13.51</v>
@@ -8827,19 +9486,26 @@
         <v>1</v>
       </c>
       <c r="R98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U98" t="s">
+        <v>187</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -8869,7 +9535,7 @@
         <v>2900</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L99" s="2">
         <v>14.79</v>
@@ -8890,19 +9556,26 @@
         <v>1</v>
       </c>
       <c r="R99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U99" t="s">
+        <v>187</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -8932,7 +9605,7 @@
         <v>348</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L100" s="2">
         <v>15.1</v>
@@ -8953,19 +9626,26 @@
         <v>1</v>
       </c>
       <c r="R100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100" t="s">
+        <v>187</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -8995,7 +9675,7 @@
         <v>352</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L101" s="2">
         <v>8.84</v>
@@ -9016,19 +9696,26 @@
         <v>1</v>
       </c>
       <c r="R101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -9049,25 +9736,25 @@
         <v>257</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I102" t="s">
         <v>357</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M102" s="2">
         <v>1125</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O102" s="2">
         <v>1.3</v>
@@ -9079,19 +9766,26 @@
         <v>1</v>
       </c>
       <c r="R102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T102">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -9112,25 +9806,25 @@
         <v>258</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I103" t="s">
         <v>361</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M103" s="2">
         <v>1100</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O103" s="2">
         <v>1.3</v>
@@ -9142,19 +9836,26 @@
         <v>1</v>
       </c>
       <c r="R103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T103">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -9175,25 +9876,25 @@
         <v>259</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I104" t="s">
         <v>361</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M104" s="2">
         <v>1100</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O104" s="2">
         <v>1.3</v>
@@ -9205,994 +9906,1106 @@
         <v>1</v>
       </c>
       <c r="R104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S104">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D105" t="s">
+        <v>367</v>
+      </c>
+      <c r="E105" s="2">
+        <v>3</v>
+      </c>
+      <c r="F105" s="2">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <v>262</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s">
+        <v>368</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M105" s="2">
+        <v>1900</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O105" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="P105" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="26">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D106" t="s">
+        <v>371</v>
+      </c>
+      <c r="E106" s="2">
+        <v>4</v>
+      </c>
+      <c r="F106" s="2">
+        <v>7</v>
+      </c>
+      <c r="G106">
+        <v>267</v>
+      </c>
+      <c r="H106" t="s">
+        <v>372</v>
+      </c>
+      <c r="I106" t="s">
+        <v>373</v>
+      </c>
+      <c r="J106" t="s">
+        <v>374</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L106" s="2">
+        <v>23.2</v>
+      </c>
+      <c r="M106" s="2">
+        <v>2400</v>
+      </c>
+      <c r="N106" s="2">
+        <v>5800</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P106" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T104">
+      <c r="S106">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="2">
-        <v>103</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="D105" t="s">
-        <v>367</v>
-      </c>
-      <c r="E105" s="2">
-        <v>3</v>
-      </c>
-      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="A107" s="2">
+        <v>105</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D107" t="s">
+        <v>377</v>
+      </c>
+      <c r="E107" s="2">
+        <v>5</v>
+      </c>
+      <c r="F107" s="2">
         <v>7</v>
       </c>
-      <c r="G105">
-        <v>262</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I105" t="s">
-        <v>368</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M105" s="2">
-        <v>1900</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O105" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="P105" t="s">
+      <c r="G107">
+        <v>268</v>
+      </c>
+      <c r="H107" t="s">
+        <v>378</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L107" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P107" t="s">
         <v>353</v>
       </c>
-      <c r="Q105">
+      <c r="Q107">
         <v>1</v>
       </c>
-      <c r="R105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S105">
+      <c r="R107">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T105">
+      <c r="S107">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" ht="26">
-      <c r="A106" s="2">
-        <v>104</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D106" t="s">
-        <v>371</v>
-      </c>
-      <c r="E106" s="2">
-        <v>4</v>
-      </c>
-      <c r="F106" s="2">
+      <c r="T107">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="A108" s="2">
+        <v>106</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D108" t="s">
+        <v>381</v>
+      </c>
+      <c r="E108" s="2">
+        <v>6</v>
+      </c>
+      <c r="F108" s="2">
         <v>7</v>
       </c>
-      <c r="G106">
-        <v>267</v>
-      </c>
-      <c r="H106" t="s">
-        <v>372</v>
-      </c>
-      <c r="I106" t="s">
-        <v>373</v>
-      </c>
-      <c r="J106" t="s">
-        <v>374</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L106" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="M106" s="2">
-        <v>2400</v>
-      </c>
-      <c r="N106" s="2">
-        <v>5800</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P106" t="s">
+      <c r="G108">
+        <v>269</v>
+      </c>
+      <c r="H108" t="s">
+        <v>382</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108" s="2">
+        <v>35</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P108" t="s">
         <v>353</v>
       </c>
-      <c r="Q106">
+      <c r="Q108">
         <v>1</v>
       </c>
-      <c r="R106">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S106">
+      <c r="R108">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T106">
+      <c r="S108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" s="2">
+        <v>107</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D109" t="s">
+        <v>385</v>
+      </c>
+      <c r="E109" s="2">
+        <v>7</v>
+      </c>
+      <c r="F109" s="2">
+        <v>7</v>
+      </c>
+      <c r="G109">
+        <v>270</v>
+      </c>
+      <c r="H109" t="s">
+        <v>386</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P109" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D110" t="s">
+        <v>389</v>
+      </c>
+      <c r="E110" s="2">
+        <v>8</v>
+      </c>
+      <c r="F110" s="2">
+        <v>7</v>
+      </c>
+      <c r="G110">
+        <v>269</v>
+      </c>
+      <c r="H110" t="s">
+        <v>390</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L110" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P110" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="A111" s="2">
+        <v>109</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" t="s">
+        <v>393</v>
+      </c>
+      <c r="E111" s="2">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2">
+        <v>7</v>
+      </c>
+      <c r="G111">
+        <v>278</v>
+      </c>
+      <c r="H111" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P111" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="26">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D112" t="s">
+        <v>397</v>
+      </c>
+      <c r="E112" s="2">
+        <v>10</v>
+      </c>
+      <c r="F112" s="2">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>281</v>
+      </c>
+      <c r="H112" t="s">
+        <v>398</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L112" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P112" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" t="s">
+        <v>401</v>
+      </c>
+      <c r="E113" s="2">
+        <v>11</v>
+      </c>
+      <c r="F113" s="2">
+        <v>7</v>
+      </c>
+      <c r="G113">
+        <v>281</v>
+      </c>
+      <c r="H113" t="s">
+        <v>402</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L113" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P113" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" t="s">
+        <v>405</v>
+      </c>
+      <c r="E114" s="2">
+        <v>12</v>
+      </c>
+      <c r="F114" s="2">
+        <v>7</v>
+      </c>
+      <c r="G114">
+        <v>285</v>
+      </c>
+      <c r="H114" t="s">
+        <v>406</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" t="s">
+        <v>407</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L114" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N114" s="2">
+        <v>357</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P114" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="52">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E115" s="2">
+        <v>13</v>
+      </c>
+      <c r="F115" s="2">
+        <v>7</v>
+      </c>
+      <c r="G115">
+        <v>286</v>
+      </c>
+      <c r="H115" t="s">
+        <v>263</v>
+      </c>
+      <c r="I115" t="s">
+        <v>264</v>
+      </c>
+      <c r="J115" t="s">
+        <v>265</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L115" s="2">
+        <v>16</v>
+      </c>
+      <c r="M115" s="2">
+        <v>700</v>
+      </c>
+      <c r="N115" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P115" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S115">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="2">
-        <v>105</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D107" t="s">
-        <v>377</v>
-      </c>
-      <c r="E107" s="2">
-        <v>5</v>
-      </c>
-      <c r="F107" s="2">
+      <c r="T115">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D116" t="s">
+        <v>325</v>
+      </c>
+      <c r="E116" s="2">
+        <v>14</v>
+      </c>
+      <c r="F116" s="2">
         <v>7</v>
       </c>
-      <c r="G107">
-        <v>268</v>
-      </c>
-      <c r="H107" t="s">
-        <v>378</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L107" s="2">
-        <v>29.3</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P107" t="s">
+      <c r="G116">
+        <v>289</v>
+      </c>
+      <c r="H116" t="s">
+        <v>326</v>
+      </c>
+      <c r="I116" t="s">
+        <v>327</v>
+      </c>
+      <c r="J116" t="s">
+        <v>328</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L116" s="2">
+        <v>14</v>
+      </c>
+      <c r="M116" s="2">
+        <v>340</v>
+      </c>
+      <c r="N116" s="2">
+        <v>420</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P116" t="s">
         <v>353</v>
       </c>
-      <c r="Q107">
+      <c r="Q116">
         <v>1</v>
       </c>
-      <c r="R107">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S107">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="2">
-        <v>106</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D108" t="s">
-        <v>381</v>
-      </c>
-      <c r="E108" s="2">
-        <v>6</v>
-      </c>
-      <c r="F108" s="2">
-        <v>7</v>
-      </c>
-      <c r="G108">
-        <v>269</v>
-      </c>
-      <c r="H108" t="s">
-        <v>382</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L108" s="2">
-        <v>35</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P108" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q108">
-        <v>1</v>
-      </c>
-      <c r="R108">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S108">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T108">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="2">
-        <v>107</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D109" t="s">
-        <v>385</v>
-      </c>
-      <c r="E109" s="2">
-        <v>7</v>
-      </c>
-      <c r="F109" s="2">
-        <v>7</v>
-      </c>
-      <c r="G109">
-        <v>270</v>
-      </c>
-      <c r="H109" t="s">
-        <v>386</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L109" s="2">
-        <v>37.1</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P109" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q109">
-        <v>1</v>
-      </c>
-      <c r="R109">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S109">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="2">
-        <v>108</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D110" t="s">
-        <v>389</v>
-      </c>
-      <c r="E110" s="2">
-        <v>8</v>
-      </c>
-      <c r="F110" s="2">
-        <v>7</v>
-      </c>
-      <c r="G110">
-        <v>269</v>
-      </c>
-      <c r="H110" t="s">
-        <v>390</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L110" s="2">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P110" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q110">
-        <v>1</v>
-      </c>
-      <c r="R110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S110">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20">
-      <c r="A111" s="2">
-        <v>109</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D111" t="s">
-        <v>393</v>
-      </c>
-      <c r="E111" s="2">
-        <v>9</v>
-      </c>
-      <c r="F111" s="2">
-        <v>7</v>
-      </c>
-      <c r="G111">
-        <v>278</v>
-      </c>
-      <c r="H111" t="s">
-        <v>394</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L111" s="2">
-        <v>37.4</v>
-      </c>
-      <c r="M111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P111" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q111">
-        <v>1</v>
-      </c>
-      <c r="R111">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S111">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" ht="26">
-      <c r="A112" s="2">
-        <v>110</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D112" t="s">
-        <v>397</v>
-      </c>
-      <c r="E112" s="2">
-        <v>10</v>
-      </c>
-      <c r="F112" s="2">
-        <v>7</v>
-      </c>
-      <c r="G112">
-        <v>281</v>
-      </c>
-      <c r="H112" t="s">
-        <v>398</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L112" s="2">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P112" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q112">
-        <v>1</v>
-      </c>
-      <c r="R112">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S112">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20">
-      <c r="A113" s="2">
-        <v>111</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D113" t="s">
-        <v>401</v>
-      </c>
-      <c r="E113" s="2">
-        <v>11</v>
-      </c>
-      <c r="F113" s="2">
-        <v>7</v>
-      </c>
-      <c r="G113">
-        <v>281</v>
-      </c>
-      <c r="H113" t="s">
-        <v>402</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L113" s="2">
-        <v>28.7</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P113" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q113">
-        <v>1</v>
-      </c>
-      <c r="R113">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S113">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20">
-      <c r="A114" s="2">
-        <v>112</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D114" t="s">
-        <v>405</v>
-      </c>
-      <c r="E114" s="2">
-        <v>12</v>
-      </c>
-      <c r="F114" s="2">
-        <v>7</v>
-      </c>
-      <c r="G114">
-        <v>285</v>
-      </c>
-      <c r="H114" t="s">
-        <v>406</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J114" t="s">
-        <v>407</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L114" s="2">
-        <v>23.7</v>
-      </c>
-      <c r="M114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N114" s="2">
-        <v>357</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P114" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S114">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" ht="52">
-      <c r="A115" s="2">
-        <v>113</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E115" s="2">
-        <v>13</v>
-      </c>
-      <c r="F115" s="2">
-        <v>7</v>
-      </c>
-      <c r="G115">
-        <v>286</v>
-      </c>
-      <c r="H115" t="s">
-        <v>263</v>
-      </c>
-      <c r="I115" t="s">
-        <v>264</v>
-      </c>
-      <c r="J115" t="s">
-        <v>265</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L115" s="2">
-        <v>16</v>
-      </c>
-      <c r="M115" s="2">
-        <v>700</v>
-      </c>
-      <c r="N115" s="2">
-        <v>1400</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P115" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="R115">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S115">
+      <c r="R116">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T115">
+      <c r="S116">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:20">
-      <c r="A116" s="2">
-        <v>114</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D116" t="s">
-        <v>325</v>
-      </c>
-      <c r="E116" s="2">
-        <v>14</v>
-      </c>
-      <c r="F116" s="2">
+      <c r="T116">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="52">
+      <c r="A117" s="2">
+        <v>115</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E117" s="2">
+        <v>15</v>
+      </c>
+      <c r="F117" s="2">
         <v>7</v>
       </c>
-      <c r="G116">
-        <v>289</v>
-      </c>
-      <c r="H116" t="s">
-        <v>326</v>
-      </c>
-      <c r="I116" t="s">
-        <v>327</v>
-      </c>
-      <c r="J116" t="s">
-        <v>328</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L116" s="2">
-        <v>14</v>
-      </c>
-      <c r="M116" s="2">
-        <v>340</v>
-      </c>
-      <c r="N116" s="2">
-        <v>420</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P116" t="s">
+      <c r="G117">
+        <v>288</v>
+      </c>
+      <c r="H117" t="s">
+        <v>331</v>
+      </c>
+      <c r="I117" t="s">
+        <v>264</v>
+      </c>
+      <c r="J117" t="s">
+        <v>265</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L117" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="M117" s="2">
+        <v>700</v>
+      </c>
+      <c r="N117" s="2">
+        <v>1400</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P117" t="s">
         <v>353</v>
       </c>
-      <c r="Q116">
+      <c r="Q117">
         <v>1</v>
       </c>
-      <c r="R116">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S116">
+      <c r="R117">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T116">
+      <c r="S117">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" ht="52">
-      <c r="A117" s="2">
-        <v>115</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E117" s="2">
-        <v>15</v>
-      </c>
-      <c r="F117" s="2">
+      <c r="T117">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="143">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E118" s="2">
+        <v>16</v>
+      </c>
+      <c r="F118" s="2">
         <v>7</v>
       </c>
-      <c r="G117">
-        <v>288</v>
-      </c>
-      <c r="H117" t="s">
-        <v>331</v>
-      </c>
-      <c r="I117" t="s">
-        <v>264</v>
-      </c>
-      <c r="J117" t="s">
-        <v>265</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L117" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="M117" s="2">
-        <v>700</v>
-      </c>
-      <c r="N117" s="2">
-        <v>1400</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P117" t="s">
+      <c r="G118">
+        <v>293</v>
+      </c>
+      <c r="H118" t="s">
+        <v>335</v>
+      </c>
+      <c r="I118" t="s">
+        <v>336</v>
+      </c>
+      <c r="J118" t="s">
+        <v>337</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L118" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="M118" s="2">
+        <v>708.5</v>
+      </c>
+      <c r="N118" s="2">
+        <v>1085</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P118" t="s">
         <v>353</v>
       </c>
-      <c r="Q117">
+      <c r="Q118">
         <v>1</v>
       </c>
-      <c r="R117">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S117">
+      <c r="R118">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T117">
+      <c r="S118">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" ht="143">
-      <c r="A118" s="2">
-        <v>116</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E118" s="2">
-        <v>16</v>
-      </c>
-      <c r="F118" s="2">
+      <c r="T118">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="52">
+      <c r="A119" s="2">
+        <v>117</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E119" s="2">
+        <v>17</v>
+      </c>
+      <c r="F119" s="2">
         <v>7</v>
       </c>
-      <c r="G118">
-        <v>293</v>
-      </c>
-      <c r="H118" t="s">
-        <v>335</v>
-      </c>
-      <c r="I118" t="s">
-        <v>336</v>
-      </c>
-      <c r="J118" t="s">
-        <v>337</v>
-      </c>
-      <c r="K118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L118" s="2">
-        <v>12.9</v>
-      </c>
-      <c r="M118" s="2">
-        <v>708.5</v>
-      </c>
-      <c r="N118" s="2">
-        <v>1085</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P118" t="s">
+      <c r="G119">
+        <v>294</v>
+      </c>
+      <c r="H119" t="s">
+        <v>340</v>
+      </c>
+      <c r="I119" t="s">
+        <v>341</v>
+      </c>
+      <c r="J119" t="s">
+        <v>342</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L119" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="M119" s="2">
+        <v>673</v>
+      </c>
+      <c r="N119" s="2">
+        <v>823</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P119" t="s">
         <v>353</v>
       </c>
-      <c r="Q118">
+      <c r="Q119">
         <v>1</v>
       </c>
-      <c r="R118">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S118">
+      <c r="R119">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T118">
+      <c r="S119">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" ht="52">
-      <c r="A119" s="2">
-        <v>117</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E119" s="2">
-        <v>17</v>
-      </c>
-      <c r="F119" s="2">
-        <v>7</v>
-      </c>
-      <c r="G119">
-        <v>294</v>
-      </c>
-      <c r="H119" t="s">
-        <v>340</v>
-      </c>
-      <c r="I119" t="s">
-        <v>341</v>
-      </c>
-      <c r="J119" t="s">
-        <v>342</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L119" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="M119" s="2">
-        <v>673</v>
-      </c>
-      <c r="N119" s="2">
-        <v>823</v>
-      </c>
-      <c r="O119" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P119" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q119">
+      <c r="T119">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R119">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S119">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T119">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" ht="52">
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="52">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -10224,7 +11037,7 @@
         <v>347</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L120" s="2">
         <v>5</v>
@@ -10236,7 +11049,7 @@
         <v>263</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P120" t="s">
         <v>353</v>
@@ -10245,19 +11058,27 @@
         <v>1</v>
       </c>
       <c r="R120">
-        <f t="shared" ref="R115:R120" si="6">IF(ISERR(FIND(")11",H120))=TRUE,0,1)</f>
+        <f t="shared" ref="R115:R120" si="8">IF(ISERR(FIND(")11",H120))=TRUE,0,1)</f>
         <v>1</v>
       </c>
       <c r="S120">
-        <f t="shared" ref="S115:S120" si="7">IF(ISERR(FIND(")11",I120))=TRUE,0,1)</f>
+        <f t="shared" ref="S115:S120" si="9">IF(ISERR(FIND(")11",I120))=TRUE,0,1)</f>
         <v>1</v>
       </c>
       <c r="T120">
-        <f t="shared" ref="T115:T120" si="8">IF(ISERR(FIND(")11",J120))=TRUE,0,1)</f>
+        <f t="shared" ref="T115:T120" si="10">IF(ISERR(FIND(")11",J120))=TRUE,0,1)</f>
         <v>1</v>
       </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="8">
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
@@ -10411,10 +11232,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10426,6 +11247,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Elements.xlsx
+++ b/Elements.xlsx
@@ -34,6 +34,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>melting_point_k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boiling_point_k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_heat_capacity_J_per_gK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Density raw</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -75,18 +87,6 @@
   </si>
   <si>
     <t>period</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heat raw (J/g·K)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melt (K)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boil (K)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2123,7 +2123,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2158,9 +2158,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2494,10 +2497,10 @@
   <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2505,68 +2508,71 @@
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26">
-      <c r="A1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="65">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>0</v>
@@ -2607,43 +2613,43 @@
         <v>20.28</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
         <v>14.304</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>8.988E-5</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2">
+        <f>IF(ISERR(FIND(")11",H2))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
         <v>14.01</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2">
+        <f>IF(ISERR(FIND(")11",I2))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>20.28</v>
       </c>
-      <c r="O2" s="1">
+      <c r="R2">
+        <f>IF(ISERR(FIND(")11",J2))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P2" s="1">
+      <c r="T2" s="1">
         <v>1400</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>IF(ISERR(FIND(")11",H2))=TRUE,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S65" si="0">IF(ISERR(FIND(")11",I2))=TRUE,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:T65" si="1">IF(ISERR(FIND(")11",J2))=TRUE,0,1)</f>
-        <v>0</v>
       </c>
       <c r="U2">
         <v>1400</v>
       </c>
       <c r="V2">
-        <f>IF(ISERR(FIND("&lt;",P2))=TRUE,0,1)</f>
+        <f>IF(ISERR(FIND("&lt;",T2))=TRUE,0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2679,43 +2685,43 @@
         <v>4.22</v>
       </c>
       <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>5.1929999999999996</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1.785E-4</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3">
+        <f>IF(ISERR(FIND(")11",H3))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
         <v>0.95599999999999996</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3">
+        <f>IF(ISERR(FIND(")11",I3))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>4.22</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3">
+        <f>IF(ISERR(FIND(")11",J3))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1">
+      <c r="T3" s="1">
         <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R2:R65" si="2">IF(ISERR(FIND(")11",H3))=TRUE,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V66" si="3">IF(ISERR(FIND("&lt;",P3))=TRUE,0,1)</f>
+        <f t="shared" ref="V3:V66" si="0">IF(ISERR(FIND("&lt;",T3))=TRUE,0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2751,43 +2757,43 @@
         <v>1560</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>3.5819999999999999</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4">
+        <f>IF(ISERR(FIND(")11",H4))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>453.69</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4">
+        <f>IF(ISERR(FIND(")11",I4))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>1560</v>
       </c>
-      <c r="O4" s="1">
+      <c r="R4">
+        <f>IF(ISERR(FIND(")11",J4))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
         <v>0.98</v>
       </c>
-      <c r="P4" s="1">
+      <c r="T4" s="1">
         <v>20</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U4">
         <v>20</v>
       </c>
       <c r="V4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2823,43 +2829,43 @@
         <v>2742</v>
       </c>
       <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>1.825</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.85</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5">
+        <f>IF(ISERR(FIND(")11",H5))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>1560</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5">
+        <f>IF(ISERR(FIND(")11",I5))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>2742</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5">
+        <f>IF(ISERR(FIND(")11",J5))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
         <v>1.57</v>
       </c>
-      <c r="P5" s="1">
+      <c r="T5" s="1">
         <v>2.8</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U5">
         <v>2.8</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2895,43 +2901,43 @@
         <v>4200</v>
       </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <v>1.026</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>2.34</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6">
+        <f>IF(ISERR(FIND(")11",H6))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>2349</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6">
+        <f>IF(ISERR(FIND(")11",I6))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>4200</v>
       </c>
-      <c r="O6" s="1">
+      <c r="R6">
+        <f>IF(ISERR(FIND(")11",J6))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
         <v>2.04</v>
       </c>
-      <c r="P6" s="1">
+      <c r="T6" s="1">
         <v>10</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U6">
         <v>10</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2967,43 +2973,43 @@
         <v>4300</v>
       </c>
       <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>0.70899999999999996</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>2.2669999999999999</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7">
+        <f>IF(ISERR(FIND(")11",H7))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
         <v>3800</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7">
+        <f>IF(ISERR(FIND(")11",I7))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
         <v>4300</v>
       </c>
-      <c r="O7" s="1">
+      <c r="R7">
+        <f>IF(ISERR(FIND(")11",J7))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="P7" s="1">
+      <c r="T7" s="1">
         <v>200</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U7">
         <v>200</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3039,43 +3045,43 @@
         <v>77.36</v>
       </c>
       <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>1.04</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>1.2505999999999999E-3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8">
+        <f>IF(ISERR(FIND(")11",H8))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>63.15</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8">
+        <f>IF(ISERR(FIND(")11",I8))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
         <v>77.36</v>
       </c>
-      <c r="O8" s="1">
+      <c r="R8">
+        <f>IF(ISERR(FIND(")11",J8))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
         <v>3.04</v>
       </c>
-      <c r="P8" s="1">
+      <c r="T8" s="1">
         <v>19</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U8">
         <v>19</v>
       </c>
       <c r="V8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3111,43 +3117,43 @@
         <v>90.2</v>
       </c>
       <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0.91800000000000004</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>1.4289999999999999E-3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9">
+        <f>IF(ISERR(FIND(")11",H9))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
         <v>54.36</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9">
+        <f>IF(ISERR(FIND(")11",I9))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>90.2</v>
       </c>
-      <c r="O9" s="1">
+      <c r="R9">
+        <f>IF(ISERR(FIND(")11",J9))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
         <v>3.44</v>
       </c>
-      <c r="P9" s="1">
+      <c r="T9" s="1">
         <v>461000</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U9">
         <v>461000</v>
       </c>
       <c r="V9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3183,43 +3189,43 @@
         <v>85.03</v>
       </c>
       <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>0.82399999999999995</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>1.696E-3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10">
+        <f>IF(ISERR(FIND(")11",H10))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
         <v>53.53</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10">
+        <f>IF(ISERR(FIND(")11",I10))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>85.03</v>
       </c>
-      <c r="O10" s="1">
+      <c r="R10">
+        <f>IF(ISERR(FIND(")11",J10))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
         <v>3.98</v>
       </c>
-      <c r="P10" s="1">
+      <c r="T10" s="1">
         <v>585</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U10">
         <v>585</v>
       </c>
       <c r="V10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3255,43 +3261,43 @@
         <v>27.07</v>
       </c>
       <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>1.03</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>8.9990000000000003E-4</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11">
+        <f>IF(ISERR(FIND(")11",H11))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
         <v>24.56</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11">
+        <f>IF(ISERR(FIND(")11",I11))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <v>27.07</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="R11">
+        <f>IF(ISERR(FIND(")11",J11))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="1">
+      <c r="T11" s="1">
         <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U11">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3327,43 +3333,43 @@
         <v>1156</v>
       </c>
       <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
         <v>1.228</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>0.97099999999999997</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12">
+        <f>IF(ISERR(FIND(")11",H12))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
         <v>370.87</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12">
+        <f>IF(ISERR(FIND(")11",I12))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <v>1156</v>
       </c>
-      <c r="O12" s="1">
+      <c r="R12">
+        <f>IF(ISERR(FIND(")11",J12))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
         <v>0.93</v>
       </c>
-      <c r="P12" s="1">
+      <c r="T12" s="1">
         <v>23600</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U12">
         <v>23600</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3399,43 +3405,43 @@
         <v>1363</v>
       </c>
       <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
         <v>1.0229999999999999</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1.738</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13">
+        <f>IF(ISERR(FIND(")11",H13))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
         <v>923</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13">
+        <f>IF(ISERR(FIND(")11",I13))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>1363</v>
       </c>
-      <c r="O13" s="1">
+      <c r="R13">
+        <f>IF(ISERR(FIND(")11",J13))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <v>1.31</v>
       </c>
-      <c r="P13" s="1">
+      <c r="T13" s="1">
         <v>23300</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U13">
         <v>23300</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3471,43 +3477,43 @@
         <v>2792</v>
       </c>
       <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>2.698</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14">
+        <f>IF(ISERR(FIND(")11",H14))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
         <v>933.47</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14">
+        <f>IF(ISERR(FIND(")11",I14))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>2792</v>
       </c>
-      <c r="O14" s="1">
+      <c r="R14">
+        <f>IF(ISERR(FIND(")11",J14))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
         <v>1.61</v>
       </c>
-      <c r="P14" s="1">
+      <c r="T14" s="1">
         <v>82300</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U14">
         <v>82300</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3543,43 +3549,43 @@
         <v>3538</v>
       </c>
       <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
         <v>0.70499999999999996</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>2.3296000000000001</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15">
+        <f>IF(ISERR(FIND(")11",H15))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
         <v>1687</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15">
+        <f>IF(ISERR(FIND(")11",I15))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>3538</v>
       </c>
-      <c r="O15" s="1">
+      <c r="R15">
+        <f>IF(ISERR(FIND(")11",J15))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
         <v>1.9</v>
       </c>
-      <c r="P15" s="1">
+      <c r="T15" s="1">
         <v>282000</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U15">
         <v>282000</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3615,43 +3621,43 @@
         <v>550</v>
       </c>
       <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
         <v>0.76900000000000002</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>1.82</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16">
+        <f>IF(ISERR(FIND(")11",H16))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
         <v>317.3</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16">
+        <f>IF(ISERR(FIND(")11",I16))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
         <v>550</v>
       </c>
-      <c r="O16" s="1">
+      <c r="R16">
+        <f>IF(ISERR(FIND(")11",J16))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
         <v>2.19</v>
       </c>
-      <c r="P16" s="1">
+      <c r="T16" s="1">
         <v>1050</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U16">
         <v>1050</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3687,43 +3693,43 @@
         <v>717.87</v>
       </c>
       <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>0.71</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>2.0670000000000002</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17">
+        <f>IF(ISERR(FIND(")11",H17))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
         <v>388.36</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17">
+        <f>IF(ISERR(FIND(")11",I17))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
         <v>717.87</v>
       </c>
-      <c r="O17" s="1">
+      <c r="R17">
+        <f>IF(ISERR(FIND(")11",J17))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
         <v>2.58</v>
       </c>
-      <c r="P17" s="1">
+      <c r="T17" s="1">
         <v>350</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U17">
         <v>350</v>
       </c>
       <c r="V17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3759,43 +3765,43 @@
         <v>239.11</v>
       </c>
       <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>3.2139999999999998E-3</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18">
+        <f>IF(ISERR(FIND(")11",H18))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
         <v>171.6</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18">
+        <f>IF(ISERR(FIND(")11",I18))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
         <v>239.11</v>
       </c>
-      <c r="O18" s="1">
+      <c r="R18">
+        <f>IF(ISERR(FIND(")11",J18))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
         <v>3.16</v>
       </c>
-      <c r="P18" s="1">
+      <c r="T18" s="1">
         <v>145</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U18">
         <v>145</v>
       </c>
       <c r="V18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3831,43 +3837,43 @@
         <v>87.3</v>
       </c>
       <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
         <v>0.52</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>1.7837E-3</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19">
+        <f>IF(ISERR(FIND(")11",H19))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
         <v>83.8</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19">
+        <f>IF(ISERR(FIND(")11",I19))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
         <v>87.3</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="R19">
+        <f>IF(ISERR(FIND(")11",J19))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="1">
+      <c r="T19" s="1">
         <v>3.5</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U19">
         <v>3.5</v>
       </c>
       <c r="V19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3903,43 +3909,43 @@
         <v>1032</v>
       </c>
       <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <v>0.75700000000000001</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>0.86199999999999999</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20">
+        <f>IF(ISERR(FIND(")11",H20))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
         <v>336.53</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20">
+        <f>IF(ISERR(FIND(")11",I20))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
         <v>1032</v>
       </c>
-      <c r="O20" s="1">
+      <c r="R20">
+        <f>IF(ISERR(FIND(")11",J20))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
         <v>0.82</v>
       </c>
-      <c r="P20" s="1">
+      <c r="T20" s="1">
         <v>20900</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U20">
         <v>20900</v>
       </c>
       <c r="V20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3975,43 +3981,43 @@
         <v>1757</v>
       </c>
       <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <v>0.64700000000000002</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>1.54</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21">
+        <f>IF(ISERR(FIND(")11",H21))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
         <v>1115</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21">
+        <f>IF(ISERR(FIND(")11",I21))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
         <v>1757</v>
       </c>
-      <c r="O21" s="1">
+      <c r="R21">
+        <f>IF(ISERR(FIND(")11",J21))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
         <v>1</v>
       </c>
-      <c r="P21" s="1">
+      <c r="T21" s="1">
         <v>41500</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U21">
         <v>41500</v>
       </c>
       <c r="V21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4047,43 +4053,43 @@
         <v>3109</v>
       </c>
       <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>2.9889999999999999</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22">
+        <f>IF(ISERR(FIND(")11",H22))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
         <v>1814</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22">
+        <f>IF(ISERR(FIND(")11",I22))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
         <v>3109</v>
       </c>
-      <c r="O22" s="1">
+      <c r="R22">
+        <f>IF(ISERR(FIND(")11",J22))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
         <v>1.36</v>
       </c>
-      <c r="P22" s="1">
+      <c r="T22" s="1">
         <v>22</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U22">
         <v>22</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4119,43 +4125,43 @@
         <v>3560</v>
       </c>
       <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
         <v>0.52300000000000002</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>4.54</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23">
+        <f>IF(ISERR(FIND(")11",H23))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
         <v>1941</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23">
+        <f>IF(ISERR(FIND(")11",I23))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
         <v>3560</v>
       </c>
-      <c r="O23" s="1">
+      <c r="R23">
+        <f>IF(ISERR(FIND(")11",J23))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
         <v>1.54</v>
       </c>
-      <c r="P23" s="1">
+      <c r="T23" s="1">
         <v>5650</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U23">
         <v>5650</v>
       </c>
       <c r="V23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4191,43 +4197,43 @@
         <v>3680</v>
       </c>
       <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
         <v>0.48899999999999999</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>6.11</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24">
+        <f>IF(ISERR(FIND(")11",H24))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
         <v>2183</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24">
+        <f>IF(ISERR(FIND(")11",I24))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
         <v>3680</v>
       </c>
-      <c r="O24" s="1">
+      <c r="R24">
+        <f>IF(ISERR(FIND(")11",J24))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
         <v>1.63</v>
       </c>
-      <c r="P24" s="1">
+      <c r="T24" s="1">
         <v>120</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U24">
         <v>120</v>
       </c>
       <c r="V24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4263,43 +4269,43 @@
         <v>2944</v>
       </c>
       <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>7.15</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25">
+        <f>IF(ISERR(FIND(")11",H25))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
         <v>2180</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P25">
+        <f>IF(ISERR(FIND(")11",I25))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
         <v>2944</v>
       </c>
-      <c r="O25" s="1">
+      <c r="R25">
+        <f>IF(ISERR(FIND(")11",J25))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
         <v>1.66</v>
       </c>
-      <c r="P25" s="1">
+      <c r="T25" s="1">
         <v>102</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U25">
         <v>102</v>
       </c>
       <c r="V25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4335,43 +4341,43 @@
         <v>2334</v>
       </c>
       <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <v>0.47899999999999998</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>7.44</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26">
+        <f>IF(ISERR(FIND(")11",H26))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>1519</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P26">
+        <f>IF(ISERR(FIND(")11",I26))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
         <v>2334</v>
       </c>
-      <c r="O26" s="1">
+      <c r="R26">
+        <f>IF(ISERR(FIND(")11",J26))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
         <v>1.55</v>
       </c>
-      <c r="P26" s="1">
+      <c r="T26" s="1">
         <v>950</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U26">
         <v>950</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4407,43 +4413,43 @@
         <v>3134</v>
       </c>
       <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>7.8739999999999997</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27">
+        <f>IF(ISERR(FIND(")11",H27))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
         <v>1811</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P27">
+        <f>IF(ISERR(FIND(")11",I27))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <v>3134</v>
       </c>
-      <c r="O27" s="1">
+      <c r="R27">
+        <f>IF(ISERR(FIND(")11",J27))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
         <v>1.83</v>
       </c>
-      <c r="P27" s="1">
+      <c r="T27" s="1">
         <v>56300</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U27">
         <v>56300</v>
       </c>
       <c r="V27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4479,43 +4485,43 @@
         <v>3200</v>
       </c>
       <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
         <v>0.42099999999999999</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>8.86</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28">
+        <f>IF(ISERR(FIND(")11",H28))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
         <v>1768</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P28">
+        <f>IF(ISERR(FIND(")11",I28))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
         <v>3200</v>
       </c>
-      <c r="O28" s="1">
+      <c r="R28">
+        <f>IF(ISERR(FIND(")11",J28))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
         <v>1.88</v>
       </c>
-      <c r="P28" s="1">
+      <c r="T28" s="1">
         <v>25</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U28">
         <v>25</v>
       </c>
       <c r="V28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4551,43 +4557,43 @@
         <v>3186</v>
       </c>
       <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>8.9120000000000008</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29">
+        <f>IF(ISERR(FIND(")11",H29))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
         <v>1728</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P29">
+        <f>IF(ISERR(FIND(")11",I29))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
         <v>3186</v>
       </c>
-      <c r="O29" s="1">
+      <c r="R29">
+        <f>IF(ISERR(FIND(")11",J29))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
         <v>1.91</v>
       </c>
-      <c r="P29" s="1">
+      <c r="T29" s="1">
         <v>84</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U29">
         <v>84</v>
       </c>
       <c r="V29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4623,43 +4629,43 @@
         <v>2835</v>
       </c>
       <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
         <v>0.38500000000000001</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>8.9600000000000009</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30">
+        <f>IF(ISERR(FIND(")11",H30))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
         <v>1357.77</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P30">
+        <f>IF(ISERR(FIND(")11",I30))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
         <v>2835</v>
       </c>
-      <c r="O30" s="1">
+      <c r="R30">
+        <f>IF(ISERR(FIND(")11",J30))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
         <v>1.9</v>
       </c>
-      <c r="P30" s="1">
+      <c r="T30" s="1">
         <v>60</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U30">
         <v>60</v>
       </c>
       <c r="V30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4695,43 +4701,43 @@
         <v>1180</v>
       </c>
       <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
         <v>0.38800000000000001</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>7.1340000000000003</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31">
+        <f>IF(ISERR(FIND(")11",H31))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
         <v>692.88</v>
       </c>
-      <c r="N31" s="1">
+      <c r="P31">
+        <f>IF(ISERR(FIND(")11",I31))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
         <v>1180</v>
       </c>
-      <c r="O31" s="1">
+      <c r="R31">
+        <f>IF(ISERR(FIND(")11",J31))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
         <v>1.65</v>
       </c>
-      <c r="P31" s="1">
+      <c r="T31" s="1">
         <v>70</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U31">
         <v>70</v>
       </c>
       <c r="V31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4767,43 +4773,43 @@
         <v>2477</v>
       </c>
       <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
         <v>0.371</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>5.907</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32">
+        <f>IF(ISERR(FIND(")11",H32))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
         <v>302.91460000000001</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P32">
+        <f>IF(ISERR(FIND(")11",I32))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
         <v>2477</v>
       </c>
-      <c r="O32" s="1">
+      <c r="R32">
+        <f>IF(ISERR(FIND(")11",J32))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
         <v>1.81</v>
       </c>
-      <c r="P32" s="1">
+      <c r="T32" s="1">
         <v>19</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U32">
         <v>19</v>
       </c>
       <c r="V32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4839,43 +4845,43 @@
         <v>3106</v>
       </c>
       <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
         <v>0.32</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>5.3230000000000004</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33">
+        <f>IF(ISERR(FIND(")11",H33))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
         <v>1211.4000000000001</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P33">
+        <f>IF(ISERR(FIND(")11",I33))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
         <v>3106</v>
       </c>
-      <c r="O33" s="1">
+      <c r="R33">
+        <f>IF(ISERR(FIND(")11",J33))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="P33" s="1">
+      <c r="T33" s="1">
         <v>1.5</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U33">
         <v>1.5</v>
       </c>
       <c r="V33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4911,43 +4917,43 @@
         <v>887</v>
       </c>
       <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
         <v>0.32900000000000001</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>5.7759999999999998</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34">
+        <f>IF(ISERR(FIND(")11",H34))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
         <v>1090</v>
       </c>
-      <c r="N34" s="1">
+      <c r="P34">
+        <f>IF(ISERR(FIND(")11",I34))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
         <v>887</v>
       </c>
-      <c r="O34" s="1">
+      <c r="R34">
+        <f>IF(ISERR(FIND(")11",J34))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="P34" s="1">
+      <c r="T34" s="1">
         <v>1.8</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U34">
         <v>1.8</v>
       </c>
       <c r="V34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4983,43 +4989,43 @@
         <v>958</v>
       </c>
       <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
         <v>0.32100000000000001</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>4.8090000000000002</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35">
+        <f>IF(ISERR(FIND(")11",H35))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
         <v>453</v>
       </c>
-      <c r="N35" s="1">
+      <c r="P35">
+        <f>IF(ISERR(FIND(")11",I35))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
         <v>958</v>
       </c>
-      <c r="O35" s="1">
+      <c r="R35">
+        <f>IF(ISERR(FIND(")11",J35))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="P35" s="1">
+      <c r="T35" s="1">
         <v>0.05</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U35">
         <v>0.05</v>
       </c>
       <c r="V35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5055,43 +5061,43 @@
         <v>332</v>
       </c>
       <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
         <v>0.47399999999999998</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>3.1219999999999999</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36">
+        <f>IF(ISERR(FIND(")11",H36))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
         <v>265.8</v>
       </c>
-      <c r="N36" s="1">
+      <c r="P36">
+        <f>IF(ISERR(FIND(")11",I36))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
         <v>332</v>
       </c>
-      <c r="O36" s="1">
+      <c r="R36">
+        <f>IF(ISERR(FIND(")11",J36))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
         <v>2.96</v>
       </c>
-      <c r="P36" s="1">
+      <c r="T36" s="1">
         <v>2.4</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U36">
         <v>2.4</v>
       </c>
       <c r="V36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5127,43 +5133,43 @@
         <v>119.93</v>
       </c>
       <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
         <v>0.248</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>3.7330000000000002E-3</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37">
+        <f>IF(ISERR(FIND(")11",H37))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
         <v>115.79</v>
       </c>
-      <c r="N37" s="1">
+      <c r="P37">
+        <f>IF(ISERR(FIND(")11",I37))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
         <v>119.93</v>
       </c>
-      <c r="O37" s="1">
+      <c r="R37">
+        <f>IF(ISERR(FIND(")11",J37))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
         <v>3</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U37">
         <v>1E-3</v>
       </c>
       <c r="V37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5199,43 +5205,43 @@
         <v>961</v>
       </c>
       <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
         <v>0.36299999999999999</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>1.532</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38">
+        <f>IF(ISERR(FIND(")11",H38))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
         <v>312.45999999999998</v>
       </c>
-      <c r="N38" s="1">
+      <c r="P38">
+        <f>IF(ISERR(FIND(")11",I38))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
         <v>961</v>
       </c>
-      <c r="O38" s="1">
+      <c r="R38">
+        <f>IF(ISERR(FIND(")11",J38))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
         <v>0.82</v>
       </c>
-      <c r="P38" s="1">
+      <c r="T38" s="1">
         <v>90</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U38">
         <v>90</v>
       </c>
       <c r="V38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5271,43 +5277,43 @@
         <v>1655</v>
       </c>
       <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
         <v>0.30099999999999999</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <v>2.64</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39">
+        <f>IF(ISERR(FIND(")11",H39))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
         <v>1050</v>
       </c>
-      <c r="N39" s="1">
+      <c r="P39">
+        <f>IF(ISERR(FIND(")11",I39))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
         <v>1655</v>
       </c>
-      <c r="O39" s="1">
+      <c r="R39">
+        <f>IF(ISERR(FIND(")11",J39))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
         <v>0.95</v>
       </c>
-      <c r="P39" s="1">
+      <c r="T39" s="1">
         <v>370</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U39">
         <v>370</v>
       </c>
       <c r="V39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5343,43 +5349,43 @@
         <v>3609</v>
       </c>
       <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
         <v>0.29799999999999999</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>4.4690000000000003</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40">
+        <f>IF(ISERR(FIND(")11",H40))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
         <v>1799</v>
       </c>
-      <c r="N40" s="1">
+      <c r="P40">
+        <f>IF(ISERR(FIND(")11",I40))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
         <v>3609</v>
       </c>
-      <c r="O40" s="1">
+      <c r="R40">
+        <f>IF(ISERR(FIND(")11",J40))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
         <v>1.22</v>
       </c>
-      <c r="P40" s="1">
+      <c r="T40" s="1">
         <v>33</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U40">
         <v>33</v>
       </c>
       <c r="V40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5415,43 +5421,43 @@
         <v>4682</v>
       </c>
       <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>6.5060000000000002</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41">
+        <f>IF(ISERR(FIND(")11",H41))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
         <v>2128</v>
       </c>
-      <c r="N41" s="1">
+      <c r="P41">
+        <f>IF(ISERR(FIND(")11",I41))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
         <v>4682</v>
       </c>
-      <c r="O41" s="1">
+      <c r="R41">
+        <f>IF(ISERR(FIND(")11",J41))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
         <v>1.33</v>
       </c>
-      <c r="P41" s="1">
+      <c r="T41" s="1">
         <v>165</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U41">
         <v>165</v>
       </c>
       <c r="V41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5487,43 +5493,43 @@
         <v>5017</v>
       </c>
       <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
         <v>0.26500000000000001</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>8.57</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42">
+        <f>IF(ISERR(FIND(")11",H42))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
         <v>2750</v>
       </c>
-      <c r="N42" s="1">
+      <c r="P42">
+        <f>IF(ISERR(FIND(")11",I42))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
         <v>5017</v>
       </c>
-      <c r="O42" s="1">
+      <c r="R42">
+        <f>IF(ISERR(FIND(")11",J42))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
         <v>1.6</v>
       </c>
-      <c r="P42" s="1">
+      <c r="T42" s="1">
         <v>20</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U42">
         <v>20</v>
       </c>
       <c r="V42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5559,43 +5565,43 @@
         <v>4912</v>
       </c>
       <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
         <v>0.251</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <v>10.220000000000001</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43">
+        <f>IF(ISERR(FIND(")11",H43))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
         <v>2896</v>
       </c>
-      <c r="N43" s="1">
+      <c r="P43">
+        <f>IF(ISERR(FIND(")11",I43))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
         <v>4912</v>
       </c>
-      <c r="O43" s="1">
+      <c r="R43">
+        <f>IF(ISERR(FIND(")11",J43))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
         <v>2.16</v>
       </c>
-      <c r="P43" s="1">
+      <c r="T43" s="1">
         <v>1.2</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U43">
         <v>1.2</v>
       </c>
       <c r="V43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5630,44 +5636,44 @@
       <c r="J44" s="1">
         <v>4538</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>11.5</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44">
+        <f>IF(ISERR(FIND(")11",H44))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
         <v>2430</v>
       </c>
-      <c r="N44" s="1">
+      <c r="P44">
+        <f>IF(ISERR(FIND(")11",I44))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
         <v>4538</v>
       </c>
-      <c r="O44" s="1">
+      <c r="R44">
+        <f>IF(ISERR(FIND(")11",J44))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
         <v>1.9</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="T44" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U44">
         <v>1E-3</v>
       </c>
       <c r="V44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5703,43 +5709,43 @@
         <v>4423</v>
       </c>
       <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>12.37</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45">
+        <f>IF(ISERR(FIND(")11",H45))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
         <v>2607</v>
       </c>
-      <c r="N45" s="1">
+      <c r="P45">
+        <f>IF(ISERR(FIND(")11",I45))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
         <v>4423</v>
       </c>
-      <c r="O45" s="1">
+      <c r="R45">
+        <f>IF(ISERR(FIND(")11",J45))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P45" s="1">
+      <c r="T45" s="1">
         <v>1E-3</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U45">
         <v>1E-3</v>
       </c>
       <c r="V45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5775,43 +5781,43 @@
         <v>3968</v>
       </c>
       <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
         <v>0.24299999999999999</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>12.41</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46">
+        <f>IF(ISERR(FIND(")11",H46))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
         <v>2237</v>
       </c>
-      <c r="N46" s="1">
+      <c r="P46">
+        <f>IF(ISERR(FIND(")11",I46))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
         <v>3968</v>
       </c>
-      <c r="O46" s="1">
+      <c r="R46">
+        <f>IF(ISERR(FIND(")11",J46))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="P46" s="1">
+      <c r="T46" s="1">
         <v>1E-3</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U46">
         <v>1E-3</v>
       </c>
       <c r="V46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5847,43 +5853,43 @@
         <v>3236</v>
       </c>
       <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <v>12.02</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47">
+        <f>IF(ISERR(FIND(")11",H47))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
         <v>1828.05</v>
       </c>
-      <c r="N47" s="1">
+      <c r="P47">
+        <f>IF(ISERR(FIND(")11",I47))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
         <v>3236</v>
       </c>
-      <c r="O47" s="1">
+      <c r="R47">
+        <f>IF(ISERR(FIND(")11",J47))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P47" s="1">
+      <c r="T47" s="1">
         <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U47">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="V47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5919,43 +5925,43 @@
         <v>2435</v>
       </c>
       <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
         <v>0.23499999999999999</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <v>10.500999999999999</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48">
+        <f>IF(ISERR(FIND(")11",H48))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
         <v>1234.93</v>
       </c>
-      <c r="N48" s="1">
+      <c r="P48">
+        <f>IF(ISERR(FIND(")11",I48))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
         <v>2435</v>
       </c>
-      <c r="O48" s="1">
+      <c r="R48">
+        <f>IF(ISERR(FIND(")11",J48))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
         <v>1.93</v>
       </c>
-      <c r="P48" s="1">
+      <c r="T48" s="1">
         <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U48">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5991,43 +5997,43 @@
         <v>1040</v>
       </c>
       <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>8.69</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49">
+        <f>IF(ISERR(FIND(")11",H49))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
         <v>594.22</v>
       </c>
-      <c r="N49" s="1">
+      <c r="P49">
+        <f>IF(ISERR(FIND(")11",I49))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
         <v>1040</v>
       </c>
-      <c r="O49" s="1">
+      <c r="R49">
+        <f>IF(ISERR(FIND(")11",J49))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
         <v>1.69</v>
       </c>
-      <c r="P49" s="1">
+      <c r="T49" s="1">
         <v>0.159</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U49">
         <v>0.159</v>
       </c>
       <c r="V49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6063,43 +6069,43 @@
         <v>2345</v>
       </c>
       <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
         <v>0.23300000000000001</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <v>7.31</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50">
+        <f>IF(ISERR(FIND(")11",H50))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
         <v>429.75</v>
       </c>
-      <c r="N50" s="1">
+      <c r="P50">
+        <f>IF(ISERR(FIND(")11",I50))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
         <v>2345</v>
       </c>
-      <c r="O50" s="1">
+      <c r="R50">
+        <f>IF(ISERR(FIND(")11",J50))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
         <v>1.78</v>
       </c>
-      <c r="P50" s="1">
+      <c r="T50" s="1">
         <v>0.25</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U50">
         <v>0.25</v>
       </c>
       <c r="V50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6135,43 +6141,43 @@
         <v>2875</v>
       </c>
       <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
         <v>0.22800000000000001</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <v>7.2869999999999999</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51">
+        <f>IF(ISERR(FIND(")11",H51))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
         <v>505.08</v>
       </c>
-      <c r="N51" s="1">
+      <c r="P51">
+        <f>IF(ISERR(FIND(")11",I51))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
         <v>2875</v>
       </c>
-      <c r="O51" s="1">
+      <c r="R51">
+        <f>IF(ISERR(FIND(")11",J51))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
         <v>1.96</v>
       </c>
-      <c r="P51" s="1">
+      <c r="T51" s="1">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U51">
         <v>2.2999999999999998</v>
       </c>
       <c r="V51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6207,43 +6213,43 @@
         <v>1860</v>
       </c>
       <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
         <v>0.20699999999999999</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <v>6.6849999999999996</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52">
+        <f>IF(ISERR(FIND(")11",H52))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
         <v>903.78</v>
       </c>
-      <c r="N52" s="1">
+      <c r="P52">
+        <f>IF(ISERR(FIND(")11",I52))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
         <v>1860</v>
       </c>
-      <c r="O52" s="1">
+      <c r="R52">
+        <f>IF(ISERR(FIND(")11",J52))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="P52" s="1">
+      <c r="T52" s="1">
         <v>0.2</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U52">
         <v>0.2</v>
       </c>
       <c r="V52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6279,43 +6285,43 @@
         <v>1261</v>
       </c>
       <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
         <v>0.20200000000000001</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <v>6.2320000000000002</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53">
+        <f>IF(ISERR(FIND(")11",H53))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
         <v>722.66</v>
       </c>
-      <c r="N53" s="1">
+      <c r="P53">
+        <f>IF(ISERR(FIND(")11",I53))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
         <v>1261</v>
       </c>
-      <c r="O53" s="1">
+      <c r="R53">
+        <f>IF(ISERR(FIND(")11",J53))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
         <v>2.1</v>
       </c>
-      <c r="P53" s="1">
+      <c r="T53" s="1">
         <v>1E-3</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U53">
         <v>1E-3</v>
       </c>
       <c r="V53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6351,43 +6357,43 @@
         <v>457.4</v>
       </c>
       <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
         <v>0.214</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>4.93</v>
       </c>
-      <c r="M54" s="1">
+      <c r="N54">
+        <f>IF(ISERR(FIND(")11",H54))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
         <v>386.85</v>
       </c>
-      <c r="N54" s="1">
+      <c r="P54">
+        <f>IF(ISERR(FIND(")11",I54))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
         <v>457.4</v>
       </c>
-      <c r="O54" s="1">
+      <c r="R54">
+        <f>IF(ISERR(FIND(")11",J54))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
         <v>2.66</v>
       </c>
-      <c r="P54" s="1">
+      <c r="T54" s="1">
         <v>0.45</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U54">
         <v>0.45</v>
       </c>
       <c r="V54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6423,43 +6429,43 @@
         <v>165.03</v>
       </c>
       <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
         <v>0.158</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>5.8869999999999999E-3</v>
       </c>
-      <c r="M55" s="1">
+      <c r="N55">
+        <f>IF(ISERR(FIND(")11",H55))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
         <v>161.4</v>
       </c>
-      <c r="N55" s="1">
+      <c r="P55">
+        <f>IF(ISERR(FIND(")11",I55))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
         <v>165.03</v>
       </c>
-      <c r="O55" s="1">
+      <c r="R55">
+        <f>IF(ISERR(FIND(")11",J55))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
         <v>2.6</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U55">
         <v>1E-3</v>
       </c>
       <c r="V55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6495,43 +6501,43 @@
         <v>944</v>
       </c>
       <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
         <v>0.24199999999999999</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>1.873</v>
       </c>
-      <c r="M56" s="1">
+      <c r="N56">
+        <f>IF(ISERR(FIND(")11",H56))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
         <v>301.58999999999997</v>
       </c>
-      <c r="N56" s="1">
+      <c r="P56">
+        <f>IF(ISERR(FIND(")11",I56))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
         <v>944</v>
       </c>
-      <c r="O56" s="1">
+      <c r="R56">
+        <f>IF(ISERR(FIND(")11",J56))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
         <v>0.79</v>
       </c>
-      <c r="P56" s="1">
+      <c r="T56" s="1">
         <v>3</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U56">
         <v>3</v>
       </c>
       <c r="V56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6567,43 +6573,43 @@
         <v>2170</v>
       </c>
       <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>3.5939999999999999</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57">
+        <f>IF(ISERR(FIND(")11",H57))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
         <v>1000</v>
       </c>
-      <c r="N57" s="1">
+      <c r="P57">
+        <f>IF(ISERR(FIND(")11",I57))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
         <v>2170</v>
       </c>
-      <c r="O57" s="1">
+      <c r="R57">
+        <f>IF(ISERR(FIND(")11",J57))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
         <v>0.89</v>
       </c>
-      <c r="P57" s="1">
+      <c r="T57" s="1">
         <v>425</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U57">
         <v>425</v>
       </c>
       <c r="V57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6637,43 +6643,43 @@
         <v>3737</v>
       </c>
       <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
         <v>0.19500000000000001</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <v>6.1449999999999996</v>
       </c>
-      <c r="M58" s="1">
+      <c r="N58">
+        <f>IF(ISERR(FIND(")11",H58))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
         <v>1193</v>
       </c>
-      <c r="N58" s="1">
+      <c r="P58">
+        <f>IF(ISERR(FIND(")11",I58))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
         <v>3737</v>
       </c>
-      <c r="O58" s="1">
+      <c r="R58">
+        <f>IF(ISERR(FIND(")11",J58))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P58" s="1">
+      <c r="T58" s="1">
         <v>39</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U58">
         <v>39</v>
       </c>
       <c r="V58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6707,43 +6713,43 @@
         <v>3716</v>
       </c>
       <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
         <v>0.192</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>6.77</v>
       </c>
-      <c r="M59" s="1">
+      <c r="N59">
+        <f>IF(ISERR(FIND(")11",H59))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
         <v>1068</v>
       </c>
-      <c r="N59" s="1">
+      <c r="P59">
+        <f>IF(ISERR(FIND(")11",I59))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
         <v>3716</v>
       </c>
-      <c r="O59" s="1">
+      <c r="R59">
+        <f>IF(ISERR(FIND(")11",J59))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P59" s="1">
+      <c r="T59" s="1">
         <v>66.5</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U59">
         <v>66.5</v>
       </c>
       <c r="V59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6777,43 +6783,43 @@
         <v>3793</v>
       </c>
       <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
         <v>0.193</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>6.7729999999999997</v>
       </c>
-      <c r="M60" s="1">
+      <c r="N60">
+        <f>IF(ISERR(FIND(")11",H60))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
         <v>1208</v>
       </c>
-      <c r="N60" s="1">
+      <c r="P60">
+        <f>IF(ISERR(FIND(")11",I60))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
         <v>3793</v>
       </c>
-      <c r="O60" s="1">
+      <c r="R60">
+        <f>IF(ISERR(FIND(")11",J60))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P60" s="1">
+      <c r="T60" s="1">
         <v>9.1999999999999993</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U60">
         <v>9.1999999999999993</v>
       </c>
       <c r="V60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6847,43 +6853,43 @@
         <v>3347</v>
       </c>
       <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
         <v>0.19</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>7.0069999999999997</v>
       </c>
-      <c r="M61" s="1">
+      <c r="N61">
+        <f>IF(ISERR(FIND(")11",H61))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
         <v>1297</v>
       </c>
-      <c r="N61" s="1">
+      <c r="P61">
+        <f>IF(ISERR(FIND(")11",I61))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1">
         <v>3347</v>
       </c>
-      <c r="O61" s="1">
+      <c r="R61">
+        <f>IF(ISERR(FIND(")11",J61))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P61" s="1">
+      <c r="T61" s="1">
         <v>41.5</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U61">
         <v>41.5</v>
       </c>
       <c r="V61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6916,44 +6922,44 @@
       <c r="J62" s="1">
         <v>3273</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>7.26</v>
       </c>
-      <c r="M62" s="1">
+      <c r="N62">
+        <f>IF(ISERR(FIND(")11",H62))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
         <v>1315</v>
       </c>
-      <c r="N62" s="1">
+      <c r="P62">
+        <f>IF(ISERR(FIND(")11",I62))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
         <v>3273</v>
       </c>
-      <c r="O62" s="1">
+      <c r="R62">
+        <f>IF(ISERR(FIND(")11",J62))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="T62" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U62">
         <v>1E-3</v>
       </c>
       <c r="V62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6987,43 +6993,43 @@
         <v>2067</v>
       </c>
       <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
         <v>0.19700000000000001</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>7.52</v>
       </c>
-      <c r="M63" s="1">
+      <c r="N63">
+        <f>IF(ISERR(FIND(")11",H63))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
         <v>1345</v>
       </c>
-      <c r="N63" s="1">
+      <c r="P63">
+        <f>IF(ISERR(FIND(")11",I63))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
         <v>2067</v>
       </c>
-      <c r="O63" s="1">
+      <c r="R63">
+        <f>IF(ISERR(FIND(")11",J63))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
         <v>1.17</v>
       </c>
-      <c r="P63" s="1">
+      <c r="T63" s="1">
         <v>7.05</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U63">
         <v>7.05</v>
       </c>
       <c r="V63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7057,43 +7063,43 @@
         <v>1802</v>
       </c>
       <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
         <v>0.182</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>5.2430000000000003</v>
       </c>
-      <c r="M64" s="1">
+      <c r="N64">
+        <f>IF(ISERR(FIND(")11",H64))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
         <v>1099</v>
       </c>
-      <c r="N64" s="1">
+      <c r="P64">
+        <f>IF(ISERR(FIND(")11",I64))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
         <v>1802</v>
       </c>
-      <c r="O64" s="1">
+      <c r="R64">
+        <f>IF(ISERR(FIND(")11",J64))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
         <v>1.2</v>
       </c>
-      <c r="P64" s="1">
+      <c r="T64" s="1">
         <v>2</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U64">
         <v>2</v>
       </c>
       <c r="V64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7127,43 +7133,43 @@
         <v>3546</v>
       </c>
       <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
         <v>0.23599999999999999</v>
       </c>
-      <c r="L65" s="1">
+      <c r="M65" s="1">
         <v>7.8949999999999996</v>
       </c>
-      <c r="M65" s="1">
+      <c r="N65">
+        <f>IF(ISERR(FIND(")11",H65))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
         <v>1585</v>
       </c>
-      <c r="N65" s="1">
+      <c r="P65">
+        <f>IF(ISERR(FIND(")11",I65))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
         <v>3546</v>
       </c>
-      <c r="O65" s="1">
+      <c r="R65">
+        <f>IF(ISERR(FIND(")11",J65))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
         <v>1.2</v>
       </c>
-      <c r="P65" s="1">
+      <c r="T65" s="1">
         <v>6.2</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="U65">
         <v>6.2</v>
       </c>
       <c r="V65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7197,43 +7203,43 @@
         <v>3503</v>
       </c>
       <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
         <v>0.182</v>
       </c>
-      <c r="L66" s="1">
+      <c r="M66" s="1">
         <v>8.2289999999999992</v>
       </c>
-      <c r="M66" s="1">
+      <c r="N66">
+        <f>IF(ISERR(FIND(")11",H66))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
         <v>1629</v>
       </c>
-      <c r="N66" s="1">
+      <c r="P66">
+        <f>IF(ISERR(FIND(")11",I66))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
         <v>3503</v>
       </c>
-      <c r="O66" s="1">
+      <c r="R66">
+        <f>IF(ISERR(FIND(")11",J66))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
         <v>1.2</v>
       </c>
-      <c r="P66" s="1">
+      <c r="T66" s="1">
         <v>1.2</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <f t="shared" ref="R66:R118" si="4">IF(ISERR(FIND(")11",H66))=TRUE,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <f t="shared" ref="S66:S118" si="5">IF(ISERR(FIND(")11",I66))=TRUE,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <f t="shared" ref="T66:T118" si="6">IF(ISERR(FIND(")11",J66))=TRUE,0,1)</f>
-        <v>0</v>
       </c>
       <c r="U66">
         <v>1.2</v>
       </c>
       <c r="V66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7267,43 +7273,43 @@
         <v>2840</v>
       </c>
       <c r="K67" s="1">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
         <v>0.17</v>
       </c>
-      <c r="L67" s="1">
+      <c r="M67" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="M67" s="1">
+      <c r="N67">
+        <f>IF(ISERR(FIND(")11",H67))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
         <v>1680</v>
       </c>
-      <c r="N67" s="1">
+      <c r="P67">
+        <f>IF(ISERR(FIND(")11",I67))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
         <v>2840</v>
       </c>
-      <c r="O67" s="1">
+      <c r="R67">
+        <f>IF(ISERR(FIND(")11",J67))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
         <v>1.22</v>
       </c>
-      <c r="P67" s="1">
+      <c r="T67" s="1">
         <v>5.2</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U67">
         <v>5.2</v>
       </c>
       <c r="V67">
-        <f t="shared" ref="V67:V119" si="7">IF(ISERR(FIND("&lt;",P67))=TRUE,0,1)</f>
+        <f t="shared" ref="V67:V119" si="1">IF(ISERR(FIND("&lt;",T67))=TRUE,0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7337,43 +7343,43 @@
         <v>2993</v>
       </c>
       <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
         <v>0.16500000000000001</v>
       </c>
-      <c r="L68" s="1">
+      <c r="M68" s="1">
         <v>8.7949999999999999</v>
       </c>
-      <c r="M68" s="1">
+      <c r="N68">
+        <f>IF(ISERR(FIND(")11",H68))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
         <v>1734</v>
       </c>
-      <c r="N68" s="1">
+      <c r="P68">
+        <f>IF(ISERR(FIND(")11",I68))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
         <v>2993</v>
       </c>
-      <c r="O68" s="1">
+      <c r="R68">
+        <f>IF(ISERR(FIND(")11",J68))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
         <v>1.23</v>
       </c>
-      <c r="P68" s="1">
+      <c r="T68" s="1">
         <v>1.3</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U68">
         <v>1.3</v>
       </c>
       <c r="V68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7407,43 +7413,43 @@
         <v>3141</v>
       </c>
       <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="L69" s="1">
+      <c r="M69" s="1">
         <v>9.0660000000000007</v>
       </c>
-      <c r="M69" s="1">
+      <c r="N69">
+        <f>IF(ISERR(FIND(")11",H69))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
         <v>1802</v>
       </c>
-      <c r="N69" s="1">
+      <c r="P69">
+        <f>IF(ISERR(FIND(")11",I69))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
         <v>3141</v>
       </c>
-      <c r="O69" s="1">
+      <c r="R69">
+        <f>IF(ISERR(FIND(")11",J69))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
         <v>1.24</v>
       </c>
-      <c r="P69" s="1">
+      <c r="T69" s="1">
         <v>3.5</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U69">
         <v>3.5</v>
       </c>
       <c r="V69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7477,43 +7483,43 @@
         <v>2223</v>
       </c>
       <c r="K70" s="1">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
         <v>0.16</v>
       </c>
-      <c r="L70" s="1">
+      <c r="M70" s="1">
         <v>9.3209999999999997</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N70">
+        <f>IF(ISERR(FIND(")11",H70))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
         <v>1818</v>
       </c>
-      <c r="N70" s="1">
+      <c r="P70">
+        <f>IF(ISERR(FIND(")11",I70))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
         <v>2223</v>
       </c>
-      <c r="O70" s="1">
+      <c r="R70">
+        <f>IF(ISERR(FIND(")11",J70))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
         <v>1.25</v>
       </c>
-      <c r="P70" s="1">
+      <c r="T70" s="1">
         <v>0.52</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U70">
         <v>0.52</v>
       </c>
       <c r="V70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7547,43 +7553,43 @@
         <v>1469</v>
       </c>
       <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
         <v>0.155</v>
       </c>
-      <c r="L71" s="1">
+      <c r="M71" s="1">
         <v>6.9649999999999999</v>
       </c>
-      <c r="M71" s="1">
+      <c r="N71">
+        <f>IF(ISERR(FIND(")11",H71))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
         <v>1097</v>
       </c>
-      <c r="N71" s="1">
+      <c r="P71">
+        <f>IF(ISERR(FIND(")11",I71))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
         <v>1469</v>
       </c>
-      <c r="O71" s="1">
+      <c r="R71">
+        <f>IF(ISERR(FIND(")11",J71))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P71" s="1">
+      <c r="T71" s="1">
         <v>3.2</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U71">
         <v>3.2</v>
       </c>
       <c r="V71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7619,43 +7625,43 @@
         <v>3675</v>
       </c>
       <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
         <v>0.154</v>
       </c>
-      <c r="L72" s="1">
+      <c r="M72" s="1">
         <v>9.84</v>
       </c>
-      <c r="M72" s="1">
+      <c r="N72">
+        <f>IF(ISERR(FIND(")11",H72))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
         <v>1925</v>
       </c>
-      <c r="N72" s="1">
+      <c r="P72">
+        <f>IF(ISERR(FIND(")11",I72))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
         <v>3675</v>
       </c>
-      <c r="O72" s="1">
+      <c r="R72">
+        <f>IF(ISERR(FIND(")11",J72))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
         <v>1.27</v>
       </c>
-      <c r="P72" s="1">
+      <c r="T72" s="1">
         <v>0.8</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U72">
         <v>0.8</v>
       </c>
       <c r="V72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7691,43 +7697,43 @@
         <v>4876</v>
       </c>
       <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L73" s="1">
+      <c r="M73" s="1">
         <v>13.31</v>
       </c>
-      <c r="M73" s="1">
+      <c r="N73">
+        <f>IF(ISERR(FIND(")11",H73))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
         <v>2506</v>
       </c>
-      <c r="N73" s="1">
+      <c r="P73">
+        <f>IF(ISERR(FIND(")11",I73))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
         <v>4876</v>
       </c>
-      <c r="O73" s="1">
+      <c r="R73">
+        <f>IF(ISERR(FIND(")11",J73))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
         <v>1.3</v>
       </c>
-      <c r="P73" s="1">
+      <c r="T73" s="1">
         <v>3</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U73">
         <v>3</v>
       </c>
       <c r="V73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7763,43 +7769,43 @@
         <v>5731</v>
       </c>
       <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L74" s="1">
+      <c r="M74" s="1">
         <v>16.654</v>
       </c>
-      <c r="M74" s="1">
+      <c r="N74">
+        <f>IF(ISERR(FIND(")11",H74))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
         <v>3290</v>
       </c>
-      <c r="N74" s="1">
+      <c r="P74">
+        <f>IF(ISERR(FIND(")11",I74))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
         <v>5731</v>
       </c>
-      <c r="O74" s="1">
+      <c r="R74">
+        <f>IF(ISERR(FIND(")11",J74))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
         <v>1.5</v>
       </c>
-      <c r="P74" s="1">
+      <c r="T74" s="1">
         <v>2</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U74">
         <v>2</v>
       </c>
       <c r="V74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7835,43 +7841,43 @@
         <v>5828</v>
       </c>
       <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
         <v>0.13200000000000001</v>
       </c>
-      <c r="L75" s="1">
+      <c r="M75" s="1">
         <v>19.25</v>
       </c>
-      <c r="M75" s="1">
+      <c r="N75">
+        <f>IF(ISERR(FIND(")11",H75))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
         <v>3695</v>
       </c>
-      <c r="N75" s="1">
+      <c r="P75">
+        <f>IF(ISERR(FIND(")11",I75))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
         <v>5828</v>
       </c>
-      <c r="O75" s="1">
+      <c r="R75">
+        <f>IF(ISERR(FIND(")11",J75))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
         <v>2.36</v>
       </c>
-      <c r="P75" s="1">
+      <c r="T75" s="1">
         <v>1.3</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U75">
         <v>1.3</v>
       </c>
       <c r="V75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7907,43 +7913,43 @@
         <v>5869</v>
       </c>
       <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
         <v>0.13700000000000001</v>
       </c>
-      <c r="L76" s="1">
+      <c r="M76" s="1">
         <v>21.02</v>
       </c>
-      <c r="M76" s="1">
+      <c r="N76">
+        <f>IF(ISERR(FIND(")11",H76))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
         <v>3459</v>
       </c>
-      <c r="N76" s="1">
+      <c r="P76">
+        <f>IF(ISERR(FIND(")11",I76))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
         <v>5869</v>
       </c>
-      <c r="O76" s="1">
+      <c r="R76">
+        <f>IF(ISERR(FIND(")11",J76))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
         <v>1.9</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U76" t="s">
         <v>184</v>
       </c>
       <c r="V76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7979,43 +7985,43 @@
         <v>5285</v>
       </c>
       <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
         <v>0.13</v>
       </c>
-      <c r="L77" s="1">
+      <c r="M77" s="1">
         <v>22.61</v>
       </c>
-      <c r="M77" s="1">
+      <c r="N77">
+        <f>IF(ISERR(FIND(")11",H77))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
         <v>3306</v>
       </c>
-      <c r="N77" s="1">
+      <c r="P77">
+        <f>IF(ISERR(FIND(")11",I77))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
         <v>5285</v>
       </c>
-      <c r="O77" s="1">
+      <c r="R77">
+        <f>IF(ISERR(FIND(")11",J77))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P77" s="1">
+      <c r="T77" s="1">
         <v>2E-3</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U77">
         <v>2E-3</v>
       </c>
       <c r="V77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8051,43 +8057,43 @@
         <v>4701</v>
       </c>
       <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
         <v>0.13100000000000001</v>
       </c>
-      <c r="L78" s="1">
+      <c r="M78" s="1">
         <v>22.56</v>
       </c>
-      <c r="M78" s="1">
+      <c r="N78">
+        <f>IF(ISERR(FIND(")11",H78))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
         <v>2719</v>
       </c>
-      <c r="N78" s="1">
+      <c r="P78">
+        <f>IF(ISERR(FIND(")11",I78))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1">
         <v>4701</v>
       </c>
-      <c r="O78" s="1">
+      <c r="R78">
+        <f>IF(ISERR(FIND(")11",J78))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P78" s="1">
+      <c r="T78" s="1">
         <v>1E-3</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U78">
         <v>1E-3</v>
       </c>
       <c r="V78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8123,43 +8129,43 @@
         <v>4098</v>
       </c>
       <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L79" s="1">
+      <c r="M79" s="1">
         <v>21.46</v>
       </c>
-      <c r="M79" s="1">
+      <c r="N79">
+        <f>IF(ISERR(FIND(")11",H79))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
         <v>2041.4</v>
       </c>
-      <c r="N79" s="1">
+      <c r="P79">
+        <f>IF(ISERR(FIND(")11",I79))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
         <v>4098</v>
       </c>
-      <c r="O79" s="1">
+      <c r="R79">
+        <f>IF(ISERR(FIND(")11",J79))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="P79" s="1">
+      <c r="T79" s="1">
         <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U79">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8195,43 +8201,43 @@
         <v>3129</v>
       </c>
       <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
         <v>0.129</v>
       </c>
-      <c r="L80" s="1">
+      <c r="M80" s="1">
         <v>19.282</v>
       </c>
-      <c r="M80" s="1">
+      <c r="N80">
+        <f>IF(ISERR(FIND(")11",H80))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
         <v>1337.33</v>
       </c>
-      <c r="N80" s="1">
+      <c r="P80">
+        <f>IF(ISERR(FIND(")11",I80))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
         <v>3129</v>
       </c>
-      <c r="O80" s="1">
+      <c r="R80">
+        <f>IF(ISERR(FIND(")11",J80))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
         <v>2.54</v>
       </c>
-      <c r="P80" s="1">
+      <c r="T80" s="1">
         <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U80">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="V80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8267,43 +8273,43 @@
         <v>629.88</v>
       </c>
       <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L81" s="1">
+      <c r="M81" s="1">
         <v>13.5336</v>
       </c>
-      <c r="M81" s="1">
+      <c r="N81">
+        <f>IF(ISERR(FIND(")11",H81))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
         <v>234.43</v>
       </c>
-      <c r="N81" s="1">
+      <c r="P81">
+        <f>IF(ISERR(FIND(")11",I81))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
         <v>629.88</v>
       </c>
-      <c r="O81" s="1">
+      <c r="R81">
+        <f>IF(ISERR(FIND(")11",J81))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
         <v>2</v>
       </c>
-      <c r="P81" s="1">
+      <c r="T81" s="1">
         <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U81">
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="V81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8339,43 +8345,43 @@
         <v>1746</v>
       </c>
       <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
         <v>0.129</v>
       </c>
-      <c r="L82" s="1">
+      <c r="M82" s="1">
         <v>11.85</v>
       </c>
-      <c r="M82" s="1">
+      <c r="N82">
+        <f>IF(ISERR(FIND(")11",H82))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
         <v>577</v>
       </c>
-      <c r="N82" s="1">
+      <c r="P82">
+        <f>IF(ISERR(FIND(")11",I82))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
         <v>1746</v>
       </c>
-      <c r="O82" s="1">
+      <c r="R82">
+        <f>IF(ISERR(FIND(")11",J82))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
         <v>1.62</v>
       </c>
-      <c r="P82" s="1">
+      <c r="T82" s="1">
         <v>0.85</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U82">
         <v>0.85</v>
       </c>
       <c r="V82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8411,43 +8417,43 @@
         <v>2022</v>
       </c>
       <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
         <v>0.129</v>
       </c>
-      <c r="L83" s="1">
+      <c r="M83" s="1">
         <v>11.342000000000001</v>
       </c>
-      <c r="M83" s="1">
+      <c r="N83">
+        <f>IF(ISERR(FIND(")11",H83))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
         <v>600.61</v>
       </c>
-      <c r="N83" s="1">
+      <c r="P83">
+        <f>IF(ISERR(FIND(")11",I83))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
         <v>2022</v>
       </c>
-      <c r="O83" s="1">
+      <c r="R83">
+        <f>IF(ISERR(FIND(")11",J83))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
         <v>1.87</v>
       </c>
-      <c r="P83" s="1">
+      <c r="T83" s="1">
         <v>14</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U83">
         <v>14</v>
       </c>
       <c r="V83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8483,43 +8489,43 @@
         <v>1837</v>
       </c>
       <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
         <v>0.122</v>
       </c>
-      <c r="L84" s="1">
+      <c r="M84" s="1">
         <v>9.8070000000000004</v>
       </c>
-      <c r="M84" s="1">
+      <c r="N84">
+        <f>IF(ISERR(FIND(")11",H84))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
         <v>544.70000000000005</v>
       </c>
-      <c r="N84" s="1">
+      <c r="P84">
+        <f>IF(ISERR(FIND(")11",I84))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
         <v>1837</v>
       </c>
-      <c r="O84" s="1">
+      <c r="R84">
+        <f>IF(ISERR(FIND(")11",J84))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
         <v>2.02</v>
       </c>
-      <c r="P84" s="1">
+      <c r="T84" s="1">
         <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U84">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="V84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8554,44 +8560,44 @@
       <c r="J85" s="1">
         <v>1235</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L85" s="1">
+      <c r="M85" s="1">
         <v>9.32</v>
       </c>
-      <c r="M85" s="1">
+      <c r="N85">
+        <f>IF(ISERR(FIND(")11",H85))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
         <v>527</v>
       </c>
-      <c r="N85" s="1">
+      <c r="P85">
+        <f>IF(ISERR(FIND(")11",I85))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
         <v>1235</v>
       </c>
-      <c r="O85" s="1">
+      <c r="R85">
+        <f>IF(ISERR(FIND(")11",J85))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
         <v>2</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="T85" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>1</v>
-      </c>
-      <c r="R85">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U85" t="s">
         <v>184</v>
       </c>
       <c r="V85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8626,44 +8632,44 @@
       <c r="J86" s="1">
         <v>610</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L86" s="1">
+      <c r="M86" s="1">
         <v>7</v>
       </c>
-      <c r="M86" s="1">
+      <c r="N86">
+        <f>IF(ISERR(FIND(")11",H86))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
         <v>575</v>
       </c>
-      <c r="N86" s="1">
+      <c r="P86">
+        <f>IF(ISERR(FIND(")11",I86))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1">
         <v>610</v>
       </c>
-      <c r="O86" s="1">
+      <c r="R86">
+        <f>IF(ISERR(FIND(")11",J86))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="T86" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U86" t="s">
         <v>184</v>
       </c>
       <c r="V86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8699,43 +8705,43 @@
         <v>211.3</v>
       </c>
       <c r="K87" s="1">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="L87" s="1">
+      <c r="M87" s="1">
         <v>9.7300000000000008E-3</v>
       </c>
-      <c r="M87" s="1">
+      <c r="N87">
+        <f>IF(ISERR(FIND(")11",H87))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
         <v>202</v>
       </c>
-      <c r="N87" s="1">
+      <c r="P87">
+        <f>IF(ISERR(FIND(")11",I87))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
         <v>211.3</v>
       </c>
-      <c r="O87" s="1">
+      <c r="R87">
+        <f>IF(ISERR(FIND(")11",J87))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="T87" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U87" t="s">
         <v>184</v>
       </c>
       <c r="V87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8770,44 +8776,44 @@
       <c r="J88" s="1">
         <v>950</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L88" s="1">
+      <c r="M88" s="1">
         <v>1.87</v>
       </c>
-      <c r="M88" s="1">
+      <c r="N88">
+        <f>IF(ISERR(FIND(")11",H88))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
         <v>300</v>
       </c>
-      <c r="N88" s="1">
+      <c r="P88">
+        <f>IF(ISERR(FIND(")11",I88))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1">
         <v>950</v>
       </c>
-      <c r="O88" s="1">
+      <c r="R88">
+        <f>IF(ISERR(FIND(")11",J88))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
         <v>0.7</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="T88" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U88" t="s">
         <v>184</v>
       </c>
       <c r="V88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8843,43 +8849,43 @@
         <v>2010</v>
       </c>
       <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1">
         <v>9.4E-2</v>
       </c>
-      <c r="L89" s="1">
+      <c r="M89" s="1">
         <v>5.5</v>
       </c>
-      <c r="M89" s="1">
+      <c r="N89">
+        <f>IF(ISERR(FIND(")11",H89))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
         <v>973</v>
       </c>
-      <c r="N89" s="1">
+      <c r="P89">
+        <f>IF(ISERR(FIND(")11",I89))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
         <v>2010</v>
       </c>
-      <c r="O89" s="1">
+      <c r="R89">
+        <f>IF(ISERR(FIND(")11",J89))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
         <v>0.9</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U89" t="s">
         <v>184</v>
       </c>
       <c r="V89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8913,43 +8919,43 @@
         <v>3471</v>
       </c>
       <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1">
         <v>0.12</v>
       </c>
-      <c r="L90" s="1">
+      <c r="M90" s="1">
         <v>10.07</v>
       </c>
-      <c r="M90" s="1">
+      <c r="N90">
+        <f>IF(ISERR(FIND(")11",H90))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
         <v>1323</v>
       </c>
-      <c r="N90" s="1">
+      <c r="P90">
+        <f>IF(ISERR(FIND(")11",I90))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
         <v>3471</v>
       </c>
-      <c r="O90" s="1">
+      <c r="R90">
+        <f>IF(ISERR(FIND(")11",J90))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="T90" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q90" s="1">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U90" t="s">
         <v>184</v>
       </c>
       <c r="V90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8983,43 +8989,43 @@
         <v>5061</v>
       </c>
       <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
         <v>0.113</v>
       </c>
-      <c r="L91" s="1">
+      <c r="M91" s="1">
         <v>11.72</v>
       </c>
-      <c r="M91" s="1">
+      <c r="N91">
+        <f>IF(ISERR(FIND(")11",H91))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
         <v>2115</v>
       </c>
-      <c r="N91" s="1">
+      <c r="P91">
+        <f>IF(ISERR(FIND(")11",I91))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
         <v>5061</v>
       </c>
-      <c r="O91" s="1">
+      <c r="R91">
+        <f>IF(ISERR(FIND(")11",J91))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
         <v>1.3</v>
       </c>
-      <c r="P91" s="1">
+      <c r="T91" s="1">
         <v>9.6</v>
-      </c>
-      <c r="Q91" s="1">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U91">
         <v>9.6</v>
       </c>
       <c r="V91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9052,44 +9058,44 @@
       <c r="J92" s="1">
         <v>4300</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L92" s="1">
+      <c r="M92" s="1">
         <v>15.37</v>
       </c>
-      <c r="M92" s="1">
+      <c r="N92">
+        <f>IF(ISERR(FIND(")11",H92))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
         <v>1841</v>
       </c>
-      <c r="N92" s="1">
+      <c r="P92">
+        <f>IF(ISERR(FIND(")11",I92))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1">
         <v>4300</v>
       </c>
-      <c r="O92" s="1">
+      <c r="R92">
+        <f>IF(ISERR(FIND(")11",J92))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
         <v>1.5</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="T92" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q92" s="1">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U92" t="s">
         <v>184</v>
       </c>
       <c r="V92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9123,43 +9129,43 @@
         <v>4404</v>
       </c>
       <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
         <v>0.11600000000000001</v>
       </c>
-      <c r="L93" s="1">
+      <c r="M93" s="1">
         <v>18.95</v>
       </c>
-      <c r="M93" s="1">
+      <c r="N93">
+        <f>IF(ISERR(FIND(")11",H93))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
         <v>1405.3</v>
       </c>
-      <c r="N93" s="1">
+      <c r="P93">
+        <f>IF(ISERR(FIND(")11",I93))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
         <v>4404</v>
       </c>
-      <c r="O93" s="1">
+      <c r="R93">
+        <f>IF(ISERR(FIND(")11",J93))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
         <v>1.38</v>
       </c>
-      <c r="P93" s="1">
+      <c r="T93" s="1">
         <v>2.7</v>
-      </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U93">
         <v>2.7</v>
       </c>
       <c r="V93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9192,44 +9198,44 @@
       <c r="J94" s="1">
         <v>4273</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L94" s="1">
+      <c r="M94" s="1">
         <v>20.45</v>
       </c>
-      <c r="M94" s="1">
+      <c r="N94">
+        <f>IF(ISERR(FIND(")11",H94))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
         <v>917</v>
       </c>
-      <c r="N94" s="1">
+      <c r="P94">
+        <f>IF(ISERR(FIND(")11",I94))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
         <v>4273</v>
       </c>
-      <c r="O94" s="1">
+      <c r="R94">
+        <f>IF(ISERR(FIND(")11",J94))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S94" s="1">
         <v>1.36</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="T94" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>1</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U94" t="s">
         <v>184</v>
       </c>
       <c r="V94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9262,44 +9268,44 @@
       <c r="J95" s="1">
         <v>3501</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="1">
         <v>19.84</v>
       </c>
-      <c r="M95" s="1">
+      <c r="N95">
+        <f>IF(ISERR(FIND(")11",H95))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
         <v>912.5</v>
       </c>
-      <c r="N95" s="1">
+      <c r="P95">
+        <f>IF(ISERR(FIND(")11",I95))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1">
         <v>3501</v>
       </c>
-      <c r="O95" s="1">
+      <c r="R95">
+        <f>IF(ISERR(FIND(")11",J95))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S95" s="1">
         <v>1.28</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="T95" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>1</v>
-      </c>
-      <c r="R95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U95" t="s">
         <v>184</v>
       </c>
       <c r="V95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9332,44 +9338,44 @@
       <c r="J96" s="1">
         <v>2880</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="1">
         <v>13.69</v>
       </c>
-      <c r="M96" s="1">
+      <c r="N96">
+        <f>IF(ISERR(FIND(")11",H96))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
         <v>1449</v>
       </c>
-      <c r="N96" s="1">
+      <c r="P96">
+        <f>IF(ISERR(FIND(")11",I96))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
         <v>2880</v>
       </c>
-      <c r="O96" s="1">
+      <c r="R96">
+        <f>IF(ISERR(FIND(")11",J96))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q96" s="1">
-        <v>1</v>
-      </c>
-      <c r="R96">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U96" t="s">
         <v>184</v>
       </c>
       <c r="V96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9402,44 +9408,44 @@
       <c r="J97" s="1">
         <v>3383</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="1">
         <v>13.51</v>
       </c>
-      <c r="M97" s="1">
+      <c r="N97">
+        <f>IF(ISERR(FIND(")11",H97))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
         <v>1613</v>
       </c>
-      <c r="N97" s="1">
+      <c r="P97">
+        <f>IF(ISERR(FIND(")11",I97))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1">
         <v>3383</v>
       </c>
-      <c r="O97" s="1">
+      <c r="R97">
+        <f>IF(ISERR(FIND(")11",J97))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
         <v>1.28</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="T97" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>1</v>
-      </c>
-      <c r="R97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U97" t="s">
         <v>184</v>
       </c>
       <c r="V97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9472,44 +9478,44 @@
       <c r="J98" s="1">
         <v>2900</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L98" s="1">
+      <c r="M98" s="1">
         <v>14.79</v>
       </c>
-      <c r="M98" s="1">
+      <c r="N98">
+        <f>IF(ISERR(FIND(")11",H98))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
         <v>1259</v>
       </c>
-      <c r="N98" s="1">
+      <c r="P98">
+        <f>IF(ISERR(FIND(")11",I98))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1">
         <v>2900</v>
       </c>
-      <c r="O98" s="1">
+      <c r="R98">
+        <f>IF(ISERR(FIND(")11",J98))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
         <v>1.3</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="T98" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q98" s="1">
-        <v>1</v>
-      </c>
-      <c r="R98">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="U98" t="s">
         <v>184</v>
       </c>
       <c r="V98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9542,44 +9548,44 @@
       <c r="J99" t="s">
         <v>345</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="1">
         <v>15.1</v>
       </c>
-      <c r="M99" s="1">
+      <c r="N99">
+        <f>IF(ISERR(FIND(")11",H99))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
         <v>1173</v>
       </c>
-      <c r="N99" s="1">
+      <c r="P99">
+        <f>IF(ISERR(FIND(")11",I99))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1">
         <v>1743</v>
       </c>
-      <c r="O99" s="1">
+      <c r="R99">
+        <f>IF(ISERR(FIND(")11",J99))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S99" s="1">
         <v>1.3</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="T99" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="Q99" s="1">
-        <v>1</v>
-      </c>
-      <c r="R99">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
       <c r="U99" t="s">
         <v>184</v>
       </c>
       <c r="V99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9612,44 +9618,44 @@
       <c r="J100" t="s">
         <v>349</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="1">
         <v>8.84</v>
       </c>
-      <c r="M100" s="1">
+      <c r="N100">
+        <f>IF(ISERR(FIND(")11",H100))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
         <v>1133</v>
       </c>
-      <c r="N100" s="1">
+      <c r="P100">
+        <f>IF(ISERR(FIND(")11",I100))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1">
         <v>1269</v>
       </c>
-      <c r="O100" s="1">
+      <c r="R100">
+        <f>IF(ISERR(FIND(")11",J100))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S100" s="1">
         <v>1.3</v>
       </c>
-      <c r="P100" t="s">
+      <c r="T100" t="s">
         <v>350</v>
       </c>
-      <c r="Q100">
-        <v>1</v>
-      </c>
-      <c r="R100">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="U100">
         <v>0</v>
       </c>
       <c r="V100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9682,44 +9688,44 @@
       <c r="J101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>30</v>
+      <c r="K101">
+        <v>1</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N101">
+        <f>IF(ISERR(FIND(")11",H101))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
         <v>1125</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="P101">
+        <f>IF(ISERR(FIND(")11",I101))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O101" s="1">
+      <c r="R101">
+        <f>IF(ISERR(FIND(")11",J101))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S101" s="1">
         <v>1.3</v>
       </c>
-      <c r="P101" t="s">
+      <c r="T101" t="s">
         <v>350</v>
       </c>
-      <c r="Q101">
-        <v>1</v>
-      </c>
-      <c r="R101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U101">
         <v>0</v>
       </c>
       <c r="V101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9752,44 +9758,44 @@
       <c r="J102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>30</v>
+      <c r="K102">
+        <v>1</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M102" s="1">
+      <c r="M102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N102">
+        <f>IF(ISERR(FIND(")11",H102))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
         <v>1100</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="P102">
+        <f>IF(ISERR(FIND(")11",I102))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O102" s="1">
+      <c r="R102">
+        <f>IF(ISERR(FIND(")11",J102))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
         <v>1.3</v>
       </c>
-      <c r="P102" t="s">
+      <c r="T102" t="s">
         <v>350</v>
       </c>
-      <c r="Q102">
-        <v>1</v>
-      </c>
-      <c r="R102">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T102">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U102">
         <v>0</v>
       </c>
       <c r="V102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9822,44 +9828,44 @@
       <c r="J103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>30</v>
+      <c r="K103">
+        <v>1</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M103" s="1">
+      <c r="M103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N103">
+        <f>IF(ISERR(FIND(")11",H103))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="1">
         <v>1100</v>
       </c>
-      <c r="N103" s="1" t="s">
+      <c r="P103">
+        <f>IF(ISERR(FIND(")11",I103))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="1">
+      <c r="R103">
+        <f>IF(ISERR(FIND(")11",J103))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S103" s="1">
         <v>1.3</v>
       </c>
-      <c r="P103" t="s">
+      <c r="T103" t="s">
         <v>350</v>
       </c>
-      <c r="Q103">
-        <v>1</v>
-      </c>
-      <c r="R103">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T103">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U103">
         <v>0</v>
       </c>
       <c r="V103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9894,44 +9900,44 @@
       <c r="J104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>30</v>
+      <c r="K104">
+        <v>1</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M104" s="1">
+      <c r="M104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N104">
+        <f>IF(ISERR(FIND(")11",H104))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
         <v>1900</v>
       </c>
-      <c r="N104" s="1" t="s">
+      <c r="P104">
+        <f>IF(ISERR(FIND(")11",I104))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O104" s="1">
+      <c r="R104">
+        <f>IF(ISERR(FIND(")11",J104))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S104" s="1">
         <v>1.3</v>
       </c>
-      <c r="P104" t="s">
+      <c r="T104" t="s">
         <v>350</v>
       </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S104">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U104">
         <v>0</v>
       </c>
       <c r="V104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9966,44 +9972,44 @@
       <c r="J105" t="s">
         <v>371</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L105" s="1">
+      <c r="M105" s="1">
         <v>23.2</v>
       </c>
-      <c r="M105" s="1">
+      <c r="N105">
+        <f>IF(ISERR(FIND(")11",H105))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
         <v>2400</v>
       </c>
-      <c r="N105" s="1">
+      <c r="P105">
+        <f>IF(ISERR(FIND(")11",I105))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q105" s="1">
         <v>5800</v>
       </c>
-      <c r="O105" s="1" t="s">
+      <c r="R105">
+        <f>IF(ISERR(FIND(")11",J105))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P105" t="s">
+      <c r="T105" t="s">
         <v>350</v>
       </c>
-      <c r="Q105">
-        <v>1</v>
-      </c>
-      <c r="R105">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S105">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T105">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="U105">
         <v>0</v>
       </c>
       <c r="V105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10038,44 +10044,44 @@
       <c r="J106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L106" s="1">
+      <c r="M106" s="1">
         <v>29.3</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>30</v>
+      <c r="N106">
+        <f>IF(ISERR(FIND(")11",H106))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P106" t="s">
+      <c r="P106">
+        <f>IF(ISERR(FIND(")11",I106))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R106">
+        <f>IF(ISERR(FIND(")11",J106))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T106" t="s">
         <v>350</v>
       </c>
-      <c r="Q106">
-        <v>1</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S106">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U106">
         <v>0</v>
       </c>
       <c r="V106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10110,44 +10116,44 @@
       <c r="J107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L107" s="1">
+      <c r="M107" s="1">
         <v>35</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>30</v>
+      <c r="N107">
+        <f>IF(ISERR(FIND(")11",H107))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P107" t="s">
+      <c r="P107">
+        <f>IF(ISERR(FIND(")11",I107))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R107">
+        <f>IF(ISERR(FIND(")11",J107))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T107" t="s">
         <v>350</v>
       </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S107">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U107">
         <v>0</v>
       </c>
       <c r="V107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10182,44 +10188,44 @@
       <c r="J108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L108" s="1">
+      <c r="M108" s="1">
         <v>37.1</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>30</v>
+      <c r="N108">
+        <f>IF(ISERR(FIND(")11",H108))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P108" t="s">
+      <c r="P108">
+        <f>IF(ISERR(FIND(")11",I108))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R108">
+        <f>IF(ISERR(FIND(")11",J108))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T108" t="s">
         <v>350</v>
       </c>
-      <c r="Q108">
-        <v>1</v>
-      </c>
-      <c r="R108">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S108">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T108">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U108">
         <v>0</v>
       </c>
       <c r="V108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10254,44 +10260,44 @@
       <c r="J109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L109" s="1">
+      <c r="M109" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="M109" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>30</v>
+      <c r="N109">
+        <f>IF(ISERR(FIND(")11",H109))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P109" t="s">
+      <c r="P109">
+        <f>IF(ISERR(FIND(")11",I109))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R109">
+        <f>IF(ISERR(FIND(")11",J109))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T109" t="s">
         <v>350</v>
       </c>
-      <c r="Q109">
-        <v>1</v>
-      </c>
-      <c r="R109">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S109">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U109">
         <v>0</v>
       </c>
       <c r="V109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10326,44 +10332,44 @@
       <c r="J110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L110" s="1">
+      <c r="M110" s="1">
         <v>37.4</v>
       </c>
-      <c r="M110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>30</v>
+      <c r="N110">
+        <f>IF(ISERR(FIND(")11",H110))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P110" t="s">
+      <c r="P110">
+        <f>IF(ISERR(FIND(")11",I110))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R110">
+        <f>IF(ISERR(FIND(")11",J110))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T110" t="s">
         <v>350</v>
       </c>
-      <c r="Q110">
-        <v>1</v>
-      </c>
-      <c r="R110">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S110">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U110">
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10398,44 +10404,44 @@
       <c r="J111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L111" s="1">
+      <c r="M111" s="1">
         <v>34.799999999999997</v>
       </c>
-      <c r="M111" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>30</v>
+      <c r="N111">
+        <f>IF(ISERR(FIND(")11",H111))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P111" t="s">
+      <c r="P111">
+        <f>IF(ISERR(FIND(")11",I111))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R111">
+        <f>IF(ISERR(FIND(")11",J111))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T111" t="s">
         <v>350</v>
       </c>
-      <c r="Q111">
-        <v>1</v>
-      </c>
-      <c r="R111">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S111">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U111">
         <v>0</v>
       </c>
       <c r="V111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10470,44 +10476,44 @@
       <c r="J112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L112" s="1">
+      <c r="M112" s="1">
         <v>28.7</v>
       </c>
-      <c r="M112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>30</v>
+      <c r="N112">
+        <f>IF(ISERR(FIND(")11",H112))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P112" t="s">
+      <c r="P112">
+        <f>IF(ISERR(FIND(")11",I112))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R112">
+        <f>IF(ISERR(FIND(")11",J112))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T112" t="s">
         <v>350</v>
       </c>
-      <c r="Q112">
-        <v>1</v>
-      </c>
-      <c r="R112">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S112">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U112">
         <v>0</v>
       </c>
       <c r="V112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10542,44 +10548,44 @@
       <c r="J113" t="s">
         <v>404</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L113" s="1">
+      <c r="M113" s="1">
         <v>23.7</v>
       </c>
-      <c r="M113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N113" s="1">
-        <v>357</v>
+      <c r="N113">
+        <f>IF(ISERR(FIND(")11",H113))=TRUE,0,1)</f>
+        <v>1</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P113">
+        <f>IF(ISERR(FIND(")11",I113))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>357</v>
+      </c>
+      <c r="R113">
+        <f>IF(ISERR(FIND(")11",J113))=TRUE,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T113" t="s">
         <v>350</v>
       </c>
-      <c r="Q113">
-        <v>1</v>
-      </c>
-      <c r="R113">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S113">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="U113">
         <v>0</v>
       </c>
       <c r="V113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10614,44 +10620,44 @@
       <c r="J114" t="s">
         <v>262</v>
       </c>
-      <c r="K114" s="1" t="s">
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L114" s="1">
+      <c r="M114" s="1">
         <v>16</v>
       </c>
-      <c r="M114" s="1">
+      <c r="N114">
+        <f>IF(ISERR(FIND(")11",H114))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O114" s="1">
         <v>700</v>
       </c>
-      <c r="N114" s="1">
+      <c r="P114">
+        <f>IF(ISERR(FIND(")11",I114))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q114" s="1">
         <v>1400</v>
       </c>
-      <c r="O114" s="1" t="s">
+      <c r="R114">
+        <f>IF(ISERR(FIND(")11",J114))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S114" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P114" t="s">
+      <c r="T114" t="s">
         <v>350</v>
       </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S114">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T114">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="U114">
         <v>0</v>
       </c>
       <c r="V114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10686,44 +10692,44 @@
       <c r="J115" t="s">
         <v>325</v>
       </c>
-      <c r="K115" s="1" t="s">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L115" s="1">
+      <c r="M115" s="1">
         <v>14</v>
       </c>
-      <c r="M115" s="1">
+      <c r="N115">
+        <f>IF(ISERR(FIND(")11",H115))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O115" s="1">
         <v>340</v>
       </c>
-      <c r="N115" s="1">
+      <c r="P115">
+        <f>IF(ISERR(FIND(")11",I115))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q115" s="1">
         <v>420</v>
       </c>
-      <c r="O115" s="1" t="s">
+      <c r="R115">
+        <f>IF(ISERR(FIND(")11",J115))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P115" t="s">
+      <c r="T115" t="s">
         <v>350</v>
       </c>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="R115">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S115">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T115">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="U115">
         <v>0</v>
       </c>
       <c r="V115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10758,44 +10764,44 @@
       <c r="J116" t="s">
         <v>262</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L116" s="1">
+      <c r="M116" s="1">
         <v>13.5</v>
       </c>
-      <c r="M116" s="1">
+      <c r="N116">
+        <f>IF(ISERR(FIND(")11",H116))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
         <v>700</v>
       </c>
-      <c r="N116" s="1">
+      <c r="P116">
+        <f>IF(ISERR(FIND(")11",I116))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q116" s="1">
         <v>1400</v>
       </c>
-      <c r="O116" s="1" t="s">
+      <c r="R116">
+        <f>IF(ISERR(FIND(")11",J116))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P116" t="s">
+      <c r="T116" t="s">
         <v>350</v>
       </c>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S116">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T116">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="U116">
         <v>0</v>
       </c>
       <c r="V116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10830,44 +10836,44 @@
       <c r="J117" t="s">
         <v>334</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L117" s="1">
+      <c r="M117" s="1">
         <v>12.9</v>
       </c>
-      <c r="M117" s="1">
+      <c r="N117">
+        <f>IF(ISERR(FIND(")11",H117))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O117" s="1">
         <v>708.5</v>
       </c>
-      <c r="N117" s="1">
+      <c r="P117">
+        <f>IF(ISERR(FIND(")11",I117))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q117" s="1">
         <v>1085</v>
       </c>
-      <c r="O117" s="1" t="s">
+      <c r="R117">
+        <f>IF(ISERR(FIND(")11",J117))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S117" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P117" t="s">
+      <c r="T117" t="s">
         <v>350</v>
       </c>
-      <c r="Q117">
-        <v>1</v>
-      </c>
-      <c r="R117">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S117">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T117">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="U117">
         <v>0</v>
       </c>
       <c r="V117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10902,44 +10908,44 @@
       <c r="J118" t="s">
         <v>339</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L118" s="1">
+      <c r="M118" s="1">
         <v>7.2</v>
       </c>
-      <c r="M118" s="1">
+      <c r="N118">
+        <f>IF(ISERR(FIND(")11",H118))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O118" s="1">
         <v>673</v>
       </c>
-      <c r="N118" s="1">
+      <c r="P118">
+        <f>IF(ISERR(FIND(")11",I118))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q118" s="1">
         <v>823</v>
       </c>
-      <c r="O118" s="1" t="s">
+      <c r="R118">
+        <f>IF(ISERR(FIND(")11",J118))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S118" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P118" t="s">
+      <c r="T118" t="s">
         <v>350</v>
       </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S118">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T118">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
       <c r="U118">
         <v>0</v>
       </c>
       <c r="V118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10974,44 +10980,44 @@
       <c r="J119" t="s">
         <v>344</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L119" s="1">
+      <c r="M119" s="1">
         <v>5</v>
       </c>
-      <c r="M119" s="1">
+      <c r="N119">
+        <f>IF(ISERR(FIND(")11",H119))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O119" s="1">
         <v>258</v>
       </c>
-      <c r="N119" s="1">
+      <c r="P119">
+        <f>IF(ISERR(FIND(")11",I119))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q119" s="1">
         <v>263</v>
       </c>
-      <c r="O119" s="1" t="s">
+      <c r="R119">
+        <f>IF(ISERR(FIND(")11",J119))=TRUE,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S119" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P119" t="s">
+      <c r="T119" t="s">
         <v>350</v>
       </c>
-      <c r="Q119">
-        <v>1</v>
-      </c>
-      <c r="R119">
-        <f t="shared" ref="R114:R119" si="8">IF(ISERR(FIND(")11",H119))=TRUE,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="S119">
-        <f t="shared" ref="S114:S119" si="9">IF(ISERR(FIND(")11",I119))=TRUE,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="T119">
-        <f t="shared" ref="T114:T119" si="10">IF(ISERR(FIND(")11",J119))=TRUE,0,1)</f>
-        <v>1</v>
-      </c>
       <c r="U119">
         <v>0</v>
       </c>
       <c r="V119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11174,7 +11180,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Elements.xlsx
+++ b/Elements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="409">
   <si>
     <t>abundance_mg_per_kg</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>specific_heat_capacity_J_per_gK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>–</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2496,11 +2500,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2515,64 +2519,64 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="65">
       <c r="A1" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>0</v>
@@ -2586,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -2658,13 +2662,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>18</v>
@@ -2711,9 +2715,7 @@
         <f>IF(ISERR(FIND(")11",J3))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S3" s="1"/>
       <c r="T3" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -2730,13 +2732,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2802,13 +2804,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -2874,13 +2876,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>13</v>
@@ -2946,13 +2948,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1">
         <v>14</v>
@@ -3018,13 +3020,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1">
         <v>15</v>
@@ -3090,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1">
         <v>16</v>
@@ -3162,13 +3164,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
         <v>17</v>
@@ -3234,13 +3236,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1">
         <v>18</v>
@@ -3287,9 +3289,7 @@
         <f>IF(ISERR(FIND(")11",J11))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S11" s="1"/>
       <c r="T11" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3306,13 +3306,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -3378,13 +3378,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -3450,13 +3450,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -3522,13 +3522,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
@@ -3594,13 +3594,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
@@ -3666,13 +3666,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
@@ -3738,13 +3738,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1">
         <v>17</v>
@@ -3810,13 +3810,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1">
         <v>18</v>
@@ -3863,9 +3863,7 @@
         <f>IF(ISERR(FIND(")11",J19))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S19" s="1"/>
       <c r="T19" s="1">
         <v>3.5</v>
       </c>
@@ -3882,13 +3880,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -3954,13 +3952,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -4026,13 +4024,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -4098,13 +4096,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
@@ -4170,13 +4168,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -4242,13 +4240,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
@@ -4314,13 +4312,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
@@ -4386,13 +4384,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
@@ -4458,13 +4456,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1">
         <v>9</v>
@@ -4530,13 +4528,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="1">
         <v>10</v>
@@ -4602,13 +4600,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1">
         <v>11</v>
@@ -4674,13 +4672,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1">
         <v>12</v>
@@ -4746,13 +4744,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E32" s="1">
         <v>13</v>
@@ -4818,13 +4816,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1">
         <v>14</v>
@@ -4890,13 +4888,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E34" s="1">
         <v>15</v>
@@ -4962,13 +4960,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E35" s="1">
         <v>16</v>
@@ -5034,13 +5032,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E36" s="1">
         <v>17</v>
@@ -5106,13 +5104,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E37" s="1">
         <v>18</v>
@@ -5163,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U37">
         <v>1E-3</v>
@@ -5178,13 +5176,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -5250,13 +5248,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -5322,13 +5320,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -5394,13 +5392,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E41" s="1">
         <v>4</v>
@@ -5466,13 +5464,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
@@ -5538,13 +5536,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1">
         <v>6</v>
@@ -5610,13 +5608,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="1">
         <v>7</v>
@@ -5640,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="M44" s="1">
         <v>11.5</v>
@@ -5667,7 +5665,7 @@
         <v>1.9</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U44">
         <v>1E-3</v>
@@ -5682,13 +5680,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="1">
         <v>8</v>
@@ -5754,13 +5752,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="1">
         <v>9</v>
@@ -5826,13 +5824,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>10</v>
@@ -5898,13 +5896,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1">
         <v>11</v>
@@ -5970,13 +5968,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="1">
         <v>12</v>
@@ -6042,13 +6040,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E50" s="1">
         <v>13</v>
@@ -6114,13 +6112,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E51" s="1">
         <v>14</v>
@@ -6186,13 +6184,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E52" s="1">
         <v>15</v>
@@ -6258,13 +6256,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E53" s="1">
         <v>16</v>
@@ -6330,13 +6328,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E54" s="1">
         <v>17</v>
@@ -6402,13 +6400,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E55" s="1">
         <v>18</v>
@@ -6459,7 +6457,7 @@
         <v>2.6</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U55">
         <v>1E-3</v>
@@ -6474,13 +6472,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -6546,13 +6544,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -6618,13 +6616,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1">
@@ -6688,13 +6686,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1">
@@ -6758,13 +6756,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1">
@@ -6828,13 +6826,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1">
@@ -6898,13 +6896,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
@@ -6925,9 +6923,7 @@
       <c r="K62" s="1">
         <v>1</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L62" s="1"/>
       <c r="M62" s="1">
         <v>7.26</v>
       </c>
@@ -6953,7 +6949,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U62">
         <v>1E-3</v>
@@ -6968,13 +6964,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
@@ -7038,13 +7034,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1">
@@ -7108,13 +7104,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1">
@@ -7178,13 +7174,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1">
@@ -7248,13 +7244,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1">
@@ -7318,13 +7314,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1">
@@ -7388,13 +7384,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1">
@@ -7458,13 +7454,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1">
@@ -7528,13 +7524,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1">
@@ -7598,13 +7594,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
@@ -7670,13 +7666,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E73" s="1">
         <v>4</v>
@@ -7742,13 +7738,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E74" s="1">
         <v>5</v>
@@ -7814,13 +7810,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E75" s="1">
         <v>6</v>
@@ -7886,13 +7882,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E76" s="1">
         <v>7</v>
@@ -7943,10 +7939,10 @@
         <v>1.9</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U76" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U76">
+        <v>1E-3</v>
       </c>
       <c r="V76">
         <f t="shared" si="1"/>
@@ -7958,13 +7954,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E77" s="1">
         <v>8</v>
@@ -8030,13 +8026,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E78" s="1">
         <v>9</v>
@@ -8102,13 +8098,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E79" s="1">
         <v>10</v>
@@ -8174,13 +8170,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E80" s="1">
         <v>11</v>
@@ -8246,13 +8242,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E81" s="1">
         <v>12</v>
@@ -8318,13 +8314,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E82" s="1">
         <v>13</v>
@@ -8390,13 +8386,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E83" s="1">
         <v>14</v>
@@ -8462,13 +8458,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E84" s="1">
         <v>15</v>
@@ -8534,13 +8530,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E85" s="1">
         <v>16</v>
@@ -8563,9 +8559,7 @@
       <c r="K85" s="1">
         <v>1</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L85" s="1"/>
       <c r="M85" s="1">
         <v>9.32</v>
       </c>
@@ -8591,10 +8585,10 @@
         <v>2</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U85" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U85">
+        <v>1E-3</v>
       </c>
       <c r="V85">
         <f t="shared" si="1"/>
@@ -8606,13 +8600,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E86" s="1">
         <v>17</v>
@@ -8635,9 +8629,7 @@
       <c r="K86" s="1">
         <v>1</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L86" s="1"/>
       <c r="M86" s="1">
         <v>7</v>
       </c>
@@ -8663,10 +8655,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U86" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U86">
+        <v>1E-3</v>
       </c>
       <c r="V86">
         <f t="shared" si="1"/>
@@ -8678,13 +8670,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E87" s="1">
         <v>18</v>
@@ -8735,10 +8727,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U87" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U87">
+        <v>1E-3</v>
       </c>
       <c r="V87">
         <f t="shared" si="1"/>
@@ -8750,13 +8742,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -8779,9 +8771,7 @@
       <c r="K88" s="1">
         <v>1</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L88" s="1"/>
       <c r="M88" s="1">
         <v>1.87</v>
       </c>
@@ -8807,10 +8797,10 @@
         <v>0.7</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U88" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U88">
+        <v>1E-3</v>
       </c>
       <c r="V88">
         <f t="shared" si="1"/>
@@ -8822,13 +8812,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E89" s="1">
         <v>2</v>
@@ -8879,10 +8869,10 @@
         <v>0.9</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U89" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U89">
+        <v>1E-3</v>
       </c>
       <c r="V89">
         <f t="shared" si="1"/>
@@ -8894,13 +8884,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1">
@@ -8949,10 +8939,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U90" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U90">
+        <v>1E-3</v>
       </c>
       <c r="V90">
         <f t="shared" si="1"/>
@@ -8964,13 +8954,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1">
@@ -9034,13 +9024,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1">
@@ -9061,9 +9051,7 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L92" s="1"/>
       <c r="M92" s="1">
         <v>15.37</v>
       </c>
@@ -9089,10 +9077,10 @@
         <v>1.5</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U92" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U92">
+        <v>1E-3</v>
       </c>
       <c r="V92">
         <f t="shared" si="1"/>
@@ -9104,13 +9092,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D93" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1">
@@ -9174,13 +9162,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1">
@@ -9201,9 +9189,7 @@
       <c r="K94" s="1">
         <v>1</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L94" s="1"/>
       <c r="M94" s="1">
         <v>20.45</v>
       </c>
@@ -9229,10 +9215,10 @@
         <v>1.36</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U94" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U94">
+        <v>1E-3</v>
       </c>
       <c r="V94">
         <f t="shared" si="1"/>
@@ -9244,13 +9230,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1">
@@ -9271,9 +9257,7 @@
       <c r="K95" s="1">
         <v>1</v>
       </c>
-      <c r="L95" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L95" s="1"/>
       <c r="M95" s="1">
         <v>19.84</v>
       </c>
@@ -9299,10 +9283,10 @@
         <v>1.28</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U95" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U95">
+        <v>1E-3</v>
       </c>
       <c r="V95">
         <f t="shared" si="1"/>
@@ -9314,13 +9298,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
@@ -9341,9 +9325,7 @@
       <c r="K96" s="1">
         <v>1</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L96" s="1"/>
       <c r="M96" s="1">
         <v>13.69</v>
       </c>
@@ -9369,10 +9351,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U96" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U96">
+        <v>1E-3</v>
       </c>
       <c r="V96">
         <f t="shared" si="1"/>
@@ -9384,13 +9366,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1">
@@ -9411,9 +9393,7 @@
       <c r="K97" s="1">
         <v>1</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L97" s="1"/>
       <c r="M97" s="1">
         <v>13.51</v>
       </c>
@@ -9439,10 +9419,10 @@
         <v>1.28</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U97" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U97">
+        <v>1E-3</v>
       </c>
       <c r="V97">
         <f t="shared" si="1"/>
@@ -9454,13 +9434,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1">
@@ -9481,9 +9461,7 @@
       <c r="K98" s="1">
         <v>1</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L98" s="1"/>
       <c r="M98" s="1">
         <v>14.79</v>
       </c>
@@ -9509,10 +9487,10 @@
         <v>1.3</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U98" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U98">
+        <v>1E-3</v>
       </c>
       <c r="V98">
         <f t="shared" si="1"/>
@@ -9524,13 +9502,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1">
@@ -9546,14 +9524,12 @@
         <v>1173</v>
       </c>
       <c r="J99" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K99" s="1">
         <v>1</v>
       </c>
-      <c r="L99" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L99" s="1"/>
       <c r="M99" s="1">
         <v>15.1</v>
       </c>
@@ -9579,10 +9555,10 @@
         <v>1.3</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U99" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="U99">
+        <v>1E-3</v>
       </c>
       <c r="V99">
         <f t="shared" si="1"/>
@@ -9594,13 +9570,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D100" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1">
@@ -9616,14 +9592,12 @@
         <v>1133</v>
       </c>
       <c r="J100" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="L100" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L100" s="1"/>
       <c r="M100" s="1">
         <v>8.84</v>
       </c>
@@ -9649,7 +9623,7 @@
         <v>1.3</v>
       </c>
       <c r="T100" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U100">
         <v>0</v>
@@ -9664,13 +9638,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1">
@@ -9679,24 +9653,16 @@
       <c r="G101">
         <v>257</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H101" s="1"/>
       <c r="I101" t="s">
-        <v>354</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="J101" s="1"/>
       <c r="K101">
         <v>1</v>
       </c>
-      <c r="L101" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
       <c r="N101">
         <f>IF(ISERR(FIND(")11",H101))=TRUE,0,1)</f>
         <v>0</v>
@@ -9708,9 +9674,7 @@
         <f>IF(ISERR(FIND(")11",I101))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Q101" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q101" s="1"/>
       <c r="R101">
         <f>IF(ISERR(FIND(")11",J101))=TRUE,0,1)</f>
         <v>0</v>
@@ -9719,7 +9683,7 @@
         <v>1.3</v>
       </c>
       <c r="T101" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U101">
         <v>0</v>
@@ -9734,13 +9698,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D102" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1">
@@ -9749,24 +9713,16 @@
       <c r="G102">
         <v>258</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H102" s="1"/>
       <c r="I102" t="s">
-        <v>358</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="J102" s="1"/>
       <c r="K102">
         <v>1</v>
       </c>
-      <c r="L102" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
       <c r="N102">
         <f>IF(ISERR(FIND(")11",H102))=TRUE,0,1)</f>
         <v>0</v>
@@ -9778,9 +9734,7 @@
         <f>IF(ISERR(FIND(")11",I102))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Q102" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q102" s="1"/>
       <c r="R102">
         <f>IF(ISERR(FIND(")11",J102))=TRUE,0,1)</f>
         <v>0</v>
@@ -9789,7 +9743,7 @@
         <v>1.3</v>
       </c>
       <c r="T102" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U102">
         <v>0</v>
@@ -9804,13 +9758,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D103" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1">
@@ -9819,24 +9773,16 @@
       <c r="G103">
         <v>259</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H103" s="1"/>
       <c r="I103" t="s">
-        <v>358</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="J103" s="1"/>
       <c r="K103">
         <v>1</v>
       </c>
-      <c r="L103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
       <c r="N103">
         <f>IF(ISERR(FIND(")11",H103))=TRUE,0,1)</f>
         <v>0</v>
@@ -9848,9 +9794,7 @@
         <f>IF(ISERR(FIND(")11",I103))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Q103" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q103" s="1"/>
       <c r="R103">
         <f>IF(ISERR(FIND(")11",J103))=TRUE,0,1)</f>
         <v>0</v>
@@ -9859,7 +9803,7 @@
         <v>1.3</v>
       </c>
       <c r="T103" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U103">
         <v>0</v>
@@ -9874,13 +9818,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -9891,24 +9835,16 @@
       <c r="G104">
         <v>262</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H104" s="1"/>
       <c r="I104" t="s">
-        <v>365</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="J104" s="1"/>
       <c r="K104">
         <v>1</v>
       </c>
-      <c r="L104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
       <c r="N104">
         <f>IF(ISERR(FIND(")11",H104))=TRUE,0,1)</f>
         <v>0</v>
@@ -9920,9 +9856,7 @@
         <f>IF(ISERR(FIND(")11",I104))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="Q104" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q104" s="1"/>
       <c r="R104">
         <f>IF(ISERR(FIND(")11",J104))=TRUE,0,1)</f>
         <v>0</v>
@@ -9931,7 +9865,7 @@
         <v>1.3</v>
       </c>
       <c r="T104" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U104">
         <v>0</v>
@@ -9946,13 +9880,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D105" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E105" s="1">
         <v>4</v>
@@ -9964,20 +9898,18 @@
         <v>267</v>
       </c>
       <c r="H105" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I105" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J105" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
-      <c r="L105" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L105" s="1"/>
       <c r="M105" s="1">
         <v>23.2</v>
       </c>
@@ -9999,11 +9931,9 @@
         <f>IF(ISERR(FIND(")11",J105))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S105" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S105" s="1"/>
       <c r="T105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U105">
         <v>0</v>
@@ -10018,13 +9948,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D106" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E106" s="1">
         <v>5</v>
@@ -10036,20 +9966,14 @@
         <v>268</v>
       </c>
       <c r="H106" t="s">
-        <v>375</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
       <c r="K106">
         <v>1</v>
       </c>
-      <c r="L106" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L106" s="1"/>
       <c r="M106" s="1">
         <v>29.3</v>
       </c>
@@ -10057,25 +9981,19 @@
         <f>IF(ISERR(FIND(")11",H106))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O106" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O106" s="1"/>
       <c r="P106">
         <f>IF(ISERR(FIND(")11",I106))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="Q106" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q106" s="1"/>
       <c r="R106">
         <f>IF(ISERR(FIND(")11",J106))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S106" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S106" s="1"/>
       <c r="T106" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U106">
         <v>0</v>
@@ -10090,13 +10008,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D107" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E107" s="1">
         <v>6</v>
@@ -10108,20 +10026,18 @@
         <v>269</v>
       </c>
       <c r="H107" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L107" s="1"/>
       <c r="M107" s="1">
         <v>35</v>
       </c>
@@ -10129,25 +10045,19 @@
         <f>IF(ISERR(FIND(")11",H107))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O107" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O107" s="1"/>
       <c r="P107">
         <f>IF(ISERR(FIND(")11",I107))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="Q107" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q107" s="1"/>
       <c r="R107">
         <f>IF(ISERR(FIND(")11",J107))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S107" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S107" s="1"/>
       <c r="T107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U107">
         <v>0</v>
@@ -10162,13 +10072,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E108" s="1">
         <v>7</v>
@@ -10180,20 +10090,18 @@
         <v>270</v>
       </c>
       <c r="H108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K108">
         <v>1</v>
       </c>
-      <c r="L108" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L108" s="1"/>
       <c r="M108" s="1">
         <v>37.1</v>
       </c>
@@ -10201,25 +10109,19 @@
         <f>IF(ISERR(FIND(")11",H108))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O108" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O108" s="1"/>
       <c r="P108">
         <f>IF(ISERR(FIND(")11",I108))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="Q108" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q108" s="1"/>
       <c r="R108">
         <f>IF(ISERR(FIND(")11",J108))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S108" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S108" s="1"/>
       <c r="T108" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U108">
         <v>0</v>
@@ -10234,13 +10136,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E109" s="1">
         <v>8</v>
@@ -10252,20 +10154,18 @@
         <v>269</v>
       </c>
       <c r="H109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L109" s="1"/>
       <c r="M109" s="1">
         <v>40.700000000000003</v>
       </c>
@@ -10273,25 +10173,19 @@
         <f>IF(ISERR(FIND(")11",H109))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O109" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O109" s="1"/>
       <c r="P109">
         <f>IF(ISERR(FIND(")11",I109))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="Q109" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q109" s="1"/>
       <c r="R109">
         <f>IF(ISERR(FIND(")11",J109))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S109" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S109" s="1"/>
       <c r="T109" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U109">
         <v>0</v>
@@ -10306,13 +10200,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D110" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E110" s="1">
         <v>9</v>
@@ -10324,20 +10218,18 @@
         <v>278</v>
       </c>
       <c r="H110" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K110">
         <v>1</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L110" s="1"/>
       <c r="M110" s="1">
         <v>37.4</v>
       </c>
@@ -10345,25 +10237,19 @@
         <f>IF(ISERR(FIND(")11",H110))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O110" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O110" s="1"/>
       <c r="P110">
         <f>IF(ISERR(FIND(")11",I110))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="Q110" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q110" s="1"/>
       <c r="R110">
         <f>IF(ISERR(FIND(")11",J110))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S110" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S110" s="1"/>
       <c r="T110" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U110">
         <v>0</v>
@@ -10378,13 +10264,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E111" s="1">
         <v>10</v>
@@ -10396,20 +10282,18 @@
         <v>281</v>
       </c>
       <c r="H111" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L111" s="1"/>
       <c r="M111" s="1">
         <v>34.799999999999997</v>
       </c>
@@ -10417,25 +10301,19 @@
         <f>IF(ISERR(FIND(")11",H111))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O111" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O111" s="1"/>
       <c r="P111">
         <f>IF(ISERR(FIND(")11",I111))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="Q111" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q111" s="1"/>
       <c r="R111">
         <f>IF(ISERR(FIND(")11",J111))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S111" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S111" s="1"/>
       <c r="T111" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U111">
         <v>0</v>
@@ -10450,13 +10328,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D112" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E112" s="1">
         <v>11</v>
@@ -10468,20 +10346,18 @@
         <v>281</v>
       </c>
       <c r="H112" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
-      <c r="L112" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L112" s="1"/>
       <c r="M112" s="1">
         <v>28.7</v>
       </c>
@@ -10489,25 +10365,19 @@
         <f>IF(ISERR(FIND(")11",H112))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O112" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O112" s="1"/>
       <c r="P112">
         <f>IF(ISERR(FIND(")11",I112))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="Q112" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q112" s="1"/>
       <c r="R112">
         <f>IF(ISERR(FIND(")11",J112))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S112" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S112" s="1"/>
       <c r="T112" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U112">
         <v>0</v>
@@ -10522,13 +10392,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D113" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E113" s="1">
         <v>12</v>
@@ -10540,20 +10410,18 @@
         <v>285</v>
       </c>
       <c r="H113" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K113">
         <v>1</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L113" s="1"/>
       <c r="M113" s="1">
         <v>23.7</v>
       </c>
@@ -10561,9 +10429,7 @@
         <f>IF(ISERR(FIND(")11",H113))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O113" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="O113" s="1"/>
       <c r="P113">
         <f>IF(ISERR(FIND(")11",I113))=TRUE,0,1)</f>
         <v>0</v>
@@ -10575,11 +10441,9 @@
         <f>IF(ISERR(FIND(")11",J113))=TRUE,0,1)</f>
         <v>0</v>
       </c>
-      <c r="S113" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S113" s="1"/>
       <c r="T113" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U113">
         <v>0</v>
@@ -10594,13 +10458,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E114" s="1">
         <v>13</v>
@@ -10612,20 +10476,18 @@
         <v>286</v>
       </c>
       <c r="H114" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J114" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K114">
         <v>1</v>
       </c>
-      <c r="L114" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L114" s="1"/>
       <c r="M114" s="1">
         <v>16</v>
       </c>
@@ -10647,11 +10509,9 @@
         <f>IF(ISERR(FIND(")11",J114))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S114" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S114" s="1"/>
       <c r="T114" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U114">
         <v>0</v>
@@ -10666,13 +10526,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E115" s="1">
         <v>14</v>
@@ -10684,20 +10544,18 @@
         <v>289</v>
       </c>
       <c r="H115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J115" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K115">
         <v>1</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L115" s="1"/>
       <c r="M115" s="1">
         <v>14</v>
       </c>
@@ -10719,11 +10577,9 @@
         <f>IF(ISERR(FIND(")11",J115))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S115" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S115" s="1"/>
       <c r="T115" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U115">
         <v>0</v>
@@ -10738,13 +10594,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E116" s="1">
         <v>15</v>
@@ -10756,20 +10612,18 @@
         <v>288</v>
       </c>
       <c r="H116" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K116">
         <v>1</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L116" s="1"/>
       <c r="M116" s="1">
         <v>13.5</v>
       </c>
@@ -10791,11 +10645,9 @@
         <f>IF(ISERR(FIND(")11",J116))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S116" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S116" s="1"/>
       <c r="T116" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U116">
         <v>0</v>
@@ -10810,13 +10662,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E117" s="1">
         <v>16</v>
@@ -10828,20 +10680,18 @@
         <v>293</v>
       </c>
       <c r="H117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I117" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J117" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
-      <c r="L117" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L117" s="1"/>
       <c r="M117" s="1">
         <v>12.9</v>
       </c>
@@ -10863,11 +10713,9 @@
         <f>IF(ISERR(FIND(")11",J117))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S117" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S117" s="1"/>
       <c r="T117" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U117">
         <v>0</v>
@@ -10882,13 +10730,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E118" s="1">
         <v>17</v>
@@ -10900,20 +10748,18 @@
         <v>294</v>
       </c>
       <c r="H118" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I118" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J118" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
-      <c r="L118" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L118" s="1"/>
       <c r="M118" s="1">
         <v>7.2</v>
       </c>
@@ -10935,11 +10781,9 @@
         <f>IF(ISERR(FIND(")11",J118))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S118" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S118" s="1"/>
       <c r="T118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U118">
         <v>0</v>
@@ -10954,13 +10798,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E119" s="1">
         <v>18</v>
@@ -10972,20 +10816,18 @@
         <v>294</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I119" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J119" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K119">
         <v>1</v>
       </c>
-      <c r="L119" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L119" s="1"/>
       <c r="M119" s="1">
         <v>5</v>
       </c>
@@ -11007,11 +10849,9 @@
         <f>IF(ISERR(FIND(")11",J119))=TRUE,0,1)</f>
         <v>1</v>
       </c>
-      <c r="S119" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S119" s="1"/>
       <c r="T119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U119">
         <v>0</v>
@@ -11165,10 +11005,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">
